--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK112"/>
+  <dimension ref="A1:CK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1464,8 +1464,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-http://vocabs.lter-europe.net/EnvThes/</t>
+          <t>http://vocabs.lter-europe.net/EnvThes/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1552,11 +1551,7 @@
       <c r="CG11" t="inlineStr"/>
       <c r="CH11" t="inlineStr"/>
       <c r="CI11" t="inlineStr"/>
-      <c r="CJ11" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
-      </c>
+      <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2572,7 +2567,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>rdf:type</t>
+          <t>skos:inScheme</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2728,32 +2723,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>:027</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Meteorological data</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>SOATM_027</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Standard observations</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>skos:ConceptSheme</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -2764,10 +2751,26 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -2839,23 +2842,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>:028</t>
+          <t>:027</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Radiation</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Meteorological data</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SOATM_028</t>
+          <t>SOATM_027</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -2874,11 +2881,27 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -2950,23 +2973,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>:098</t>
+          <t>:028</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ground heat flux</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Radiation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SOATM_098</t>
+          <t>SOATM_028</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2985,10 +3012,22 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -3061,23 +3100,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>:103</t>
+          <t>:098</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Atmospheric deposition in precipitation</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Ground heat flux</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SOATM_103</t>
+          <t>SOATM_098</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -3096,10 +3139,22 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -3172,23 +3227,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>:108</t>
+          <t>:103</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dry deposition of N-components</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Atmospheric deposition in precipitation</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SOATM_108</t>
+          <t>SOATM_103</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -3207,10 +3266,22 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -3283,23 +3354,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>:176</t>
+          <t>:108</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Dry deposition of N-components</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SOATM_176</t>
+          <t>SOATM_108</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -3318,10 +3393,22 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -3394,30 +3481,34 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>:014</t>
+          <t>:176</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Flying insects</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SOBIO_014</t>
+          <t>SOATM_176</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3429,10 +3520,22 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
@@ -3505,30 +3608,34 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>:015</t>
+          <t>:014</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Vegetation phenology and Leaf Area Index – European scale</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Flying insects</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SOBIO_015</t>
+          <t>SOBIO_014</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3540,10 +3647,22 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
@@ -3616,23 +3735,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>:016</t>
+          <t>:015</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vegetation phenology – site scale</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Vegetation phenology and Leaf Area Index – European scale</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SOBIO_016</t>
+          <t>SOBIO_015</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3651,10 +3774,22 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
@@ -3727,30 +3862,34 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>:017</t>
+          <t>:016</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vegetation composition (mainly species level+abundance)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Vegetation phenology – site scale</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SOBIO_017</t>
+          <t>SOBIO_016</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3762,10 +3901,22 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
@@ -3838,23 +3989,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>:018</t>
+          <t>:017</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Birds, bats, frogs, insects using acoustic recording</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Vegetation composition (mainly species level+abundance)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SOBIO_018</t>
+          <t>SOBIO_017</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -3873,10 +4028,22 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
@@ -3949,23 +4116,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>:019</t>
+          <t>:018</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pollen and spores</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Birds, bats, frogs, insects using acoustic recording</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SOBIO_019</t>
+          <t>SOBIO_018</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -3984,10 +4155,22 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
@@ -4060,23 +4243,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>:021</t>
+          <t>:019</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>eDNA Water</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>Pollen and spores</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SOBIO_021</t>
+          <t>SOBIO_019</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -4095,10 +4282,22 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -4171,23 +4370,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>:022</t>
+          <t>:021</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>eDNA soil</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>eDNA Water</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SOBIO_022</t>
+          <t>SOBIO_021</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -4206,10 +4409,22 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -4282,30 +4497,34 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>:023</t>
+          <t>:022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass - forest (site scale)</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>eDNA soil</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SOBIO_023</t>
+          <t>SOBIO_022</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4317,10 +4536,22 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -4393,23 +4624,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>:024</t>
+          <t>:023</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass – non-forested sites</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>Vegetation aboveground biomass - forest (site scale)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SOBIO_024</t>
+          <t>SOBIO_023</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4428,10 +4663,22 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -4504,23 +4751,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>:025</t>
+          <t>:024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Leaf area index - forests (site scale)</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>Vegetation aboveground biomass – non-forested sites</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SOBIO_025</t>
+          <t>SOBIO_024</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -4539,10 +4790,22 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
@@ -4615,23 +4878,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>:026</t>
+          <t>:025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Leaf area index – non-forested sites</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>Leaf area index - forests (site scale)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SOBIO_026</t>
+          <t>SOBIO_025</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -4650,10 +4917,22 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
@@ -4726,23 +5005,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>:090</t>
+          <t>:026</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gross primary production</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>Leaf area index – non-forested sites</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOBIO_090</t>
+          <t>SOBIO_026</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -4761,10 +5044,22 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
@@ -4837,23 +5132,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>:091</t>
+          <t>:090</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transpiration (plants)</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>Gross primary production</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOBIO_091</t>
+          <t>SOBIO_090</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -4872,10 +5171,22 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
@@ -4948,23 +5259,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>:092</t>
+          <t>:091</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Aboveground litterfall - forests</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>Transpiration (plants)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SOBIO_092</t>
+          <t>SOBIO_091</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -4983,10 +5298,22 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
@@ -5059,23 +5386,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>:093</t>
+          <t>:092</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Belowground biomass - terrestrial</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>Aboveground litterfall - forests</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SOBIO_093</t>
+          <t>SOBIO_092</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -5094,10 +5425,22 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
@@ -5170,23 +5513,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>:095</t>
+          <t>:093</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>Belowground biomass - terrestrial</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SOBIO_095</t>
+          <t>SOBIO_093</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -5205,10 +5552,22 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
@@ -5281,30 +5640,34 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>:096</t>
+          <t>:095</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SOBIO_096</t>
+          <t>SOBIO_095</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5316,10 +5679,22 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
@@ -5392,30 +5767,34 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>:140</t>
+          <t>:096</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vegetation structure - site scale</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SOBIO_140</t>
+          <t>SOBIO_096</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5427,10 +5806,22 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
@@ -5503,23 +5894,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>:177</t>
+          <t>:140</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tree growth</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Vegetation structure - site scale</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SOBIO_177</t>
+          <t>SOBIO_140</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -5538,10 +5933,22 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
@@ -5614,30 +6021,34 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>:003</t>
+          <t>:177</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Soil chemical and physical characteristics</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>Tree growth</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SOGEO_003</t>
+          <t>SOBIO_177</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5649,10 +6060,22 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
@@ -5725,23 +6148,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>:048</t>
+          <t>:003</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Percolation/infiltration - soil</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>Soil chemical and physical characteristics</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SOGEO_048</t>
+          <t>SOGEO_003</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -5760,10 +6187,22 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
@@ -5836,23 +6275,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>:155</t>
+          <t>:048</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sediment (aquatic and marine) inventory</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>Percolation/infiltration - soil</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SOGEO_155</t>
+          <t>SOGEO_048</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -5871,10 +6314,22 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
@@ -5947,23 +6402,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>:167</t>
+          <t>:155</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Soil water chemical characteristics</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>Sediment (aquatic and marine) inventory</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SOGEO_167</t>
+          <t>SOGEO_155</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -5982,10 +6441,22 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
@@ -6058,30 +6529,34 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>:004</t>
+          <t>:167</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>Soil water chemical characteristics</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SOHYD_004</t>
+          <t>SOGEO_167</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6093,10 +6568,22 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
@@ -6169,23 +6656,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>:005</t>
+          <t>:004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - surface water (running waters)</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SOHYD_005</t>
+          <t>SOHYD_004</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -6204,10 +6695,22 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
@@ -6280,23 +6783,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>:006</t>
+          <t>:005</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - groundwater</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>Physical and chemical water characteristics - surface water (running waters)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SOHYD_006</t>
+          <t>SOHYD_005</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -6315,10 +6822,22 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
@@ -6391,23 +6910,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>:010</t>
+          <t>:006</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Water level - surface water (running water)</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>Physical and chemical water characteristics - groundwater</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SOHYD_010</t>
+          <t>SOHYD_006</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -6426,10 +6949,22 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
@@ -6502,23 +7037,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>:011</t>
+          <t>:010</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ice cover/thickness (standing and transitional water)</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>Water level - surface water (running water)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SOHYD_011</t>
+          <t>SOHYD_010</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -6537,10 +7076,22 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
@@ -6613,23 +7164,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>:012</t>
+          <t>:011</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Snow cover and depths</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>Ice cover/thickness (standing and transitional water)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SOHYD_012</t>
+          <t>SOHYD_011</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -6648,10 +7203,22 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
@@ -6724,23 +7291,27 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>:058</t>
+          <t>:012</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>Snow cover and depths</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SOHYD_058</t>
+          <t>SOHYD_012</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -6759,10 +7330,22 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
@@ -6835,23 +7418,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>:059</t>
+          <t>:058</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Stable Isotopes (18O, 2H) - groundwater</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SOHYD_059</t>
+          <t>SOHYD_058</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -6870,10 +7457,22 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
@@ -6946,23 +7545,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>:062</t>
+          <t>:059</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>Stable Isotopes (18O, 2H) - groundwater</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SOHYD_062</t>
+          <t>SOHYD_059</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -6981,10 +7584,22 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
@@ -7057,23 +7672,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>:064</t>
+          <t>:062</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SOHYD_064</t>
+          <t>SOHYD_062</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -7092,10 +7711,22 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
@@ -7168,23 +7799,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>:065</t>
+          <t>:064</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DOM composition - groundwater</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SOHYD_065</t>
+          <t>SOHYD_064</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -7203,10 +7838,22 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
@@ -7279,23 +7926,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>:067</t>
+          <t>:065</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>DOM composition - groundwater</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SOHYD_067</t>
+          <t>SOHYD_065</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -7314,10 +7965,22 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
@@ -7390,23 +8053,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>:164</t>
+          <t>:067</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Glacier front variation</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SOHYD_164</t>
+          <t>SOHYD_067</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -7425,10 +8092,22 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
@@ -7501,23 +8180,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>:165</t>
+          <t>:164</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Glacier mass balance</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>Glacier front variation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SOHYD_165</t>
+          <t>SOHYD_164</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -7536,10 +8219,22 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
@@ -7612,23 +8307,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>:166</t>
+          <t>:165</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Glacier area</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>Glacier mass balance</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SOHYD_166</t>
+          <t>SOHYD_165</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -7647,10 +8346,22 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
@@ -7723,23 +8434,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>:168</t>
+          <t>:166</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Soil water content/soil temperature</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>Glacier area</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SOHYD_168</t>
+          <t>SOHYD_166</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -7758,10 +8473,22 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
@@ -7834,23 +8561,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>:169</t>
+          <t>:168</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>Soil water content/soil temperature</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SOHYD_169</t>
+          <t>SOHYD_168</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -7869,10 +8600,22 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
@@ -7945,23 +8688,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>:170</t>
+          <t>:169</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SOHYD_170</t>
+          <t>SOHYD_169</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -7980,10 +8727,22 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
@@ -8056,23 +8815,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>:171</t>
+          <t>:170</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SOHYD_171</t>
+          <t>SOHYD_170</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -8091,10 +8854,22 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
@@ -8167,30 +8942,34 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>:172</t>
+          <t>:171</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SOHYD_172</t>
+          <t>SOHYD_171</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8202,10 +8981,22 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
@@ -8278,23 +9069,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>:173</t>
+          <t>:172</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SOHYD_173</t>
+          <t>SOHYD_172</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -8313,10 +9108,22 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
@@ -8389,30 +9196,34 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>:174</t>
+          <t>:173</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Secchi-Depth; standing waters and transitional waters</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SOHYD_174</t>
+          <t>SOHYD_173</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8424,10 +9235,22 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
@@ -8500,23 +9323,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>:029</t>
+          <t>:174</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Area under tillage - cropland</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>Secchi-Depth; standing waters and transitional waters</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SOSOC_029</t>
+          <t>SOHYD_174</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -8535,10 +9362,22 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
@@ -8611,30 +9450,34 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>:030</t>
+          <t>:001</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Land-based income - cropland and forests</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>Soil inventory - pedological/geological characterization</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>skos:Concept,iop:VariableSet</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SOSOC_030</t>
+          <t>SOGEO_001</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>:000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>so:c1</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8642,14 +9485,30 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
@@ -8722,33 +9581,29 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>:031</t>
+          <t>:c1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Yield – cropland, forests, fishery</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>SOSOC_031</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Sociosphere</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>et:30317</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -8757,10 +9612,22 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
@@ -8833,33 +9700,29 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>:032</t>
+          <t>:c2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Governance structure and character</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>SOSOC_032</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Geosphere</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>et:30316</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -8868,10 +9731,22 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
@@ -8944,33 +9819,29 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>:033</t>
+          <t>:c3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Stakeholder engagement process indicators</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>SOSOC_033</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Hydrosphere</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>et:21922</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -8979,10 +9850,22 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
@@ -9055,33 +9938,29 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>:034</t>
+          <t>:c4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Basic services provision: health &amp; education</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>SOSOC_034</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Biosphere</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>et:21921</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -9090,10 +9969,22 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
@@ -9166,33 +10057,29 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>:036</t>
+          <t>:c5</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Land cover, land use, land cover change, land use change</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>SOSOC_036</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Atmosphere</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>et:21920</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -9201,10 +10088,22 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
@@ -9274,3431 +10173,6 @@
       <c r="CJ81" t="inlineStr"/>
       <c r="CK81" t="inlineStr"/>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>:039</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>General information (DEIMS)</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>SOSOC_039</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
-      <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="inlineStr"/>
-      <c r="AC82" t="inlineStr"/>
-      <c r="AD82" t="inlineStr"/>
-      <c r="AE82" t="inlineStr"/>
-      <c r="AF82" t="inlineStr"/>
-      <c r="AG82" t="inlineStr"/>
-      <c r="AH82" t="inlineStr"/>
-      <c r="AI82" t="inlineStr"/>
-      <c r="AJ82" t="inlineStr"/>
-      <c r="AK82" t="inlineStr"/>
-      <c r="AL82" t="inlineStr"/>
-      <c r="AM82" t="inlineStr"/>
-      <c r="AN82" t="inlineStr"/>
-      <c r="AO82" t="inlineStr"/>
-      <c r="AP82" t="inlineStr"/>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
-      <c r="AS82" t="inlineStr"/>
-      <c r="AT82" t="inlineStr"/>
-      <c r="AU82" t="inlineStr"/>
-      <c r="AV82" t="inlineStr"/>
-      <c r="AW82" t="inlineStr"/>
-      <c r="AX82" t="inlineStr"/>
-      <c r="AY82" t="inlineStr"/>
-      <c r="AZ82" t="inlineStr"/>
-      <c r="BA82" t="inlineStr"/>
-      <c r="BB82" t="inlineStr"/>
-      <c r="BC82" t="inlineStr"/>
-      <c r="BD82" t="inlineStr"/>
-      <c r="BE82" t="inlineStr"/>
-      <c r="BF82" t="inlineStr"/>
-      <c r="BG82" t="inlineStr"/>
-      <c r="BH82" t="inlineStr"/>
-      <c r="BI82" t="inlineStr"/>
-      <c r="BJ82" t="inlineStr"/>
-      <c r="BK82" t="inlineStr"/>
-      <c r="BL82" t="inlineStr"/>
-      <c r="BM82" t="inlineStr"/>
-      <c r="BN82" t="inlineStr"/>
-      <c r="BO82" t="inlineStr"/>
-      <c r="BP82" t="inlineStr"/>
-      <c r="BQ82" t="inlineStr"/>
-      <c r="BR82" t="inlineStr"/>
-      <c r="BS82" t="inlineStr"/>
-      <c r="BT82" t="inlineStr"/>
-      <c r="BU82" t="inlineStr"/>
-      <c r="BV82" t="inlineStr"/>
-      <c r="BW82" t="inlineStr"/>
-      <c r="BX82" t="inlineStr"/>
-      <c r="BY82" t="inlineStr"/>
-      <c r="BZ82" t="inlineStr"/>
-      <c r="CA82" t="inlineStr"/>
-      <c r="CB82" t="inlineStr"/>
-      <c r="CC82" t="inlineStr"/>
-      <c r="CD82" t="inlineStr"/>
-      <c r="CE82" t="inlineStr"/>
-      <c r="CF82" t="inlineStr"/>
-      <c r="CG82" t="inlineStr"/>
-      <c r="CH82" t="inlineStr"/>
-      <c r="CI82" t="inlineStr"/>
-      <c r="CJ82" t="inlineStr"/>
-      <c r="CK82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>:040</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Ecosystem services profile</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>SOSOC_040</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
-      <c r="AA83" t="inlineStr"/>
-      <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr"/>
-      <c r="AD83" t="inlineStr"/>
-      <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="inlineStr"/>
-      <c r="AG83" t="inlineStr"/>
-      <c r="AH83" t="inlineStr"/>
-      <c r="AI83" t="inlineStr"/>
-      <c r="AJ83" t="inlineStr"/>
-      <c r="AK83" t="inlineStr"/>
-      <c r="AL83" t="inlineStr"/>
-      <c r="AM83" t="inlineStr"/>
-      <c r="AN83" t="inlineStr"/>
-      <c r="AO83" t="inlineStr"/>
-      <c r="AP83" t="inlineStr"/>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
-      <c r="AS83" t="inlineStr"/>
-      <c r="AT83" t="inlineStr"/>
-      <c r="AU83" t="inlineStr"/>
-      <c r="AV83" t="inlineStr"/>
-      <c r="AW83" t="inlineStr"/>
-      <c r="AX83" t="inlineStr"/>
-      <c r="AY83" t="inlineStr"/>
-      <c r="AZ83" t="inlineStr"/>
-      <c r="BA83" t="inlineStr"/>
-      <c r="BB83" t="inlineStr"/>
-      <c r="BC83" t="inlineStr"/>
-      <c r="BD83" t="inlineStr"/>
-      <c r="BE83" t="inlineStr"/>
-      <c r="BF83" t="inlineStr"/>
-      <c r="BG83" t="inlineStr"/>
-      <c r="BH83" t="inlineStr"/>
-      <c r="BI83" t="inlineStr"/>
-      <c r="BJ83" t="inlineStr"/>
-      <c r="BK83" t="inlineStr"/>
-      <c r="BL83" t="inlineStr"/>
-      <c r="BM83" t="inlineStr"/>
-      <c r="BN83" t="inlineStr"/>
-      <c r="BO83" t="inlineStr"/>
-      <c r="BP83" t="inlineStr"/>
-      <c r="BQ83" t="inlineStr"/>
-      <c r="BR83" t="inlineStr"/>
-      <c r="BS83" t="inlineStr"/>
-      <c r="BT83" t="inlineStr"/>
-      <c r="BU83" t="inlineStr"/>
-      <c r="BV83" t="inlineStr"/>
-      <c r="BW83" t="inlineStr"/>
-      <c r="BX83" t="inlineStr"/>
-      <c r="BY83" t="inlineStr"/>
-      <c r="BZ83" t="inlineStr"/>
-      <c r="CA83" t="inlineStr"/>
-      <c r="CB83" t="inlineStr"/>
-      <c r="CC83" t="inlineStr"/>
-      <c r="CD83" t="inlineStr"/>
-      <c r="CE83" t="inlineStr"/>
-      <c r="CF83" t="inlineStr"/>
-      <c r="CG83" t="inlineStr"/>
-      <c r="CH83" t="inlineStr"/>
-      <c r="CI83" t="inlineStr"/>
-      <c r="CJ83" t="inlineStr"/>
-      <c r="CK83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>:041</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>NUTS3 and Local Administrative Units (LAU) spatial databases</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>SOSOC_041</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
-      <c r="AH84" t="inlineStr"/>
-      <c r="AI84" t="inlineStr"/>
-      <c r="AJ84" t="inlineStr"/>
-      <c r="AK84" t="inlineStr"/>
-      <c r="AL84" t="inlineStr"/>
-      <c r="AM84" t="inlineStr"/>
-      <c r="AN84" t="inlineStr"/>
-      <c r="AO84" t="inlineStr"/>
-      <c r="AP84" t="inlineStr"/>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
-      <c r="AS84" t="inlineStr"/>
-      <c r="AT84" t="inlineStr"/>
-      <c r="AU84" t="inlineStr"/>
-      <c r="AV84" t="inlineStr"/>
-      <c r="AW84" t="inlineStr"/>
-      <c r="AX84" t="inlineStr"/>
-      <c r="AY84" t="inlineStr"/>
-      <c r="AZ84" t="inlineStr"/>
-      <c r="BA84" t="inlineStr"/>
-      <c r="BB84" t="inlineStr"/>
-      <c r="BC84" t="inlineStr"/>
-      <c r="BD84" t="inlineStr"/>
-      <c r="BE84" t="inlineStr"/>
-      <c r="BF84" t="inlineStr"/>
-      <c r="BG84" t="inlineStr"/>
-      <c r="BH84" t="inlineStr"/>
-      <c r="BI84" t="inlineStr"/>
-      <c r="BJ84" t="inlineStr"/>
-      <c r="BK84" t="inlineStr"/>
-      <c r="BL84" t="inlineStr"/>
-      <c r="BM84" t="inlineStr"/>
-      <c r="BN84" t="inlineStr"/>
-      <c r="BO84" t="inlineStr"/>
-      <c r="BP84" t="inlineStr"/>
-      <c r="BQ84" t="inlineStr"/>
-      <c r="BR84" t="inlineStr"/>
-      <c r="BS84" t="inlineStr"/>
-      <c r="BT84" t="inlineStr"/>
-      <c r="BU84" t="inlineStr"/>
-      <c r="BV84" t="inlineStr"/>
-      <c r="BW84" t="inlineStr"/>
-      <c r="BX84" t="inlineStr"/>
-      <c r="BY84" t="inlineStr"/>
-      <c r="BZ84" t="inlineStr"/>
-      <c r="CA84" t="inlineStr"/>
-      <c r="CB84" t="inlineStr"/>
-      <c r="CC84" t="inlineStr"/>
-      <c r="CD84" t="inlineStr"/>
-      <c r="CE84" t="inlineStr"/>
-      <c r="CF84" t="inlineStr"/>
-      <c r="CG84" t="inlineStr"/>
-      <c r="CH84" t="inlineStr"/>
-      <c r="CI84" t="inlineStr"/>
-      <c r="CJ84" t="inlineStr"/>
-      <c r="CK84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>:042</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Per capita income</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>SOSOC_042</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
-      <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
-      <c r="AD85" t="inlineStr"/>
-      <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
-      <c r="AH85" t="inlineStr"/>
-      <c r="AI85" t="inlineStr"/>
-      <c r="AJ85" t="inlineStr"/>
-      <c r="AK85" t="inlineStr"/>
-      <c r="AL85" t="inlineStr"/>
-      <c r="AM85" t="inlineStr"/>
-      <c r="AN85" t="inlineStr"/>
-      <c r="AO85" t="inlineStr"/>
-      <c r="AP85" t="inlineStr"/>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
-      <c r="AS85" t="inlineStr"/>
-      <c r="AT85" t="inlineStr"/>
-      <c r="AU85" t="inlineStr"/>
-      <c r="AV85" t="inlineStr"/>
-      <c r="AW85" t="inlineStr"/>
-      <c r="AX85" t="inlineStr"/>
-      <c r="AY85" t="inlineStr"/>
-      <c r="AZ85" t="inlineStr"/>
-      <c r="BA85" t="inlineStr"/>
-      <c r="BB85" t="inlineStr"/>
-      <c r="BC85" t="inlineStr"/>
-      <c r="BD85" t="inlineStr"/>
-      <c r="BE85" t="inlineStr"/>
-      <c r="BF85" t="inlineStr"/>
-      <c r="BG85" t="inlineStr"/>
-      <c r="BH85" t="inlineStr"/>
-      <c r="BI85" t="inlineStr"/>
-      <c r="BJ85" t="inlineStr"/>
-      <c r="BK85" t="inlineStr"/>
-      <c r="BL85" t="inlineStr"/>
-      <c r="BM85" t="inlineStr"/>
-      <c r="BN85" t="inlineStr"/>
-      <c r="BO85" t="inlineStr"/>
-      <c r="BP85" t="inlineStr"/>
-      <c r="BQ85" t="inlineStr"/>
-      <c r="BR85" t="inlineStr"/>
-      <c r="BS85" t="inlineStr"/>
-      <c r="BT85" t="inlineStr"/>
-      <c r="BU85" t="inlineStr"/>
-      <c r="BV85" t="inlineStr"/>
-      <c r="BW85" t="inlineStr"/>
-      <c r="BX85" t="inlineStr"/>
-      <c r="BY85" t="inlineStr"/>
-      <c r="BZ85" t="inlineStr"/>
-      <c r="CA85" t="inlineStr"/>
-      <c r="CB85" t="inlineStr"/>
-      <c r="CC85" t="inlineStr"/>
-      <c r="CD85" t="inlineStr"/>
-      <c r="CE85" t="inlineStr"/>
-      <c r="CF85" t="inlineStr"/>
-      <c r="CG85" t="inlineStr"/>
-      <c r="CH85" t="inlineStr"/>
-      <c r="CI85" t="inlineStr"/>
-      <c r="CJ85" t="inlineStr"/>
-      <c r="CK85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>:043</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Age profile- education attainment-residential profile-residential density</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>SOSOC_043</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
-      <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
-      <c r="AD86" t="inlineStr"/>
-      <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="inlineStr"/>
-      <c r="AH86" t="inlineStr"/>
-      <c r="AI86" t="inlineStr"/>
-      <c r="AJ86" t="inlineStr"/>
-      <c r="AK86" t="inlineStr"/>
-      <c r="AL86" t="inlineStr"/>
-      <c r="AM86" t="inlineStr"/>
-      <c r="AN86" t="inlineStr"/>
-      <c r="AO86" t="inlineStr"/>
-      <c r="AP86" t="inlineStr"/>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
-      <c r="AS86" t="inlineStr"/>
-      <c r="AT86" t="inlineStr"/>
-      <c r="AU86" t="inlineStr"/>
-      <c r="AV86" t="inlineStr"/>
-      <c r="AW86" t="inlineStr"/>
-      <c r="AX86" t="inlineStr"/>
-      <c r="AY86" t="inlineStr"/>
-      <c r="AZ86" t="inlineStr"/>
-      <c r="BA86" t="inlineStr"/>
-      <c r="BB86" t="inlineStr"/>
-      <c r="BC86" t="inlineStr"/>
-      <c r="BD86" t="inlineStr"/>
-      <c r="BE86" t="inlineStr"/>
-      <c r="BF86" t="inlineStr"/>
-      <c r="BG86" t="inlineStr"/>
-      <c r="BH86" t="inlineStr"/>
-      <c r="BI86" t="inlineStr"/>
-      <c r="BJ86" t="inlineStr"/>
-      <c r="BK86" t="inlineStr"/>
-      <c r="BL86" t="inlineStr"/>
-      <c r="BM86" t="inlineStr"/>
-      <c r="BN86" t="inlineStr"/>
-      <c r="BO86" t="inlineStr"/>
-      <c r="BP86" t="inlineStr"/>
-      <c r="BQ86" t="inlineStr"/>
-      <c r="BR86" t="inlineStr"/>
-      <c r="BS86" t="inlineStr"/>
-      <c r="BT86" t="inlineStr"/>
-      <c r="BU86" t="inlineStr"/>
-      <c r="BV86" t="inlineStr"/>
-      <c r="BW86" t="inlineStr"/>
-      <c r="BX86" t="inlineStr"/>
-      <c r="BY86" t="inlineStr"/>
-      <c r="BZ86" t="inlineStr"/>
-      <c r="CA86" t="inlineStr"/>
-      <c r="CB86" t="inlineStr"/>
-      <c r="CC86" t="inlineStr"/>
-      <c r="CD86" t="inlineStr"/>
-      <c r="CE86" t="inlineStr"/>
-      <c r="CF86" t="inlineStr"/>
-      <c r="CG86" t="inlineStr"/>
-      <c r="CH86" t="inlineStr"/>
-      <c r="CI86" t="inlineStr"/>
-      <c r="CJ86" t="inlineStr"/>
-      <c r="CK86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>:044</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Status of employment</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>SOSOC_044</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
-      <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
-      <c r="AC87" t="inlineStr"/>
-      <c r="AD87" t="inlineStr"/>
-      <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="inlineStr"/>
-      <c r="AH87" t="inlineStr"/>
-      <c r="AI87" t="inlineStr"/>
-      <c r="AJ87" t="inlineStr"/>
-      <c r="AK87" t="inlineStr"/>
-      <c r="AL87" t="inlineStr"/>
-      <c r="AM87" t="inlineStr"/>
-      <c r="AN87" t="inlineStr"/>
-      <c r="AO87" t="inlineStr"/>
-      <c r="AP87" t="inlineStr"/>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
-      <c r="AS87" t="inlineStr"/>
-      <c r="AT87" t="inlineStr"/>
-      <c r="AU87" t="inlineStr"/>
-      <c r="AV87" t="inlineStr"/>
-      <c r="AW87" t="inlineStr"/>
-      <c r="AX87" t="inlineStr"/>
-      <c r="AY87" t="inlineStr"/>
-      <c r="AZ87" t="inlineStr"/>
-      <c r="BA87" t="inlineStr"/>
-      <c r="BB87" t="inlineStr"/>
-      <c r="BC87" t="inlineStr"/>
-      <c r="BD87" t="inlineStr"/>
-      <c r="BE87" t="inlineStr"/>
-      <c r="BF87" t="inlineStr"/>
-      <c r="BG87" t="inlineStr"/>
-      <c r="BH87" t="inlineStr"/>
-      <c r="BI87" t="inlineStr"/>
-      <c r="BJ87" t="inlineStr"/>
-      <c r="BK87" t="inlineStr"/>
-      <c r="BL87" t="inlineStr"/>
-      <c r="BM87" t="inlineStr"/>
-      <c r="BN87" t="inlineStr"/>
-      <c r="BO87" t="inlineStr"/>
-      <c r="BP87" t="inlineStr"/>
-      <c r="BQ87" t="inlineStr"/>
-      <c r="BR87" t="inlineStr"/>
-      <c r="BS87" t="inlineStr"/>
-      <c r="BT87" t="inlineStr"/>
-      <c r="BU87" t="inlineStr"/>
-      <c r="BV87" t="inlineStr"/>
-      <c r="BW87" t="inlineStr"/>
-      <c r="BX87" t="inlineStr"/>
-      <c r="BY87" t="inlineStr"/>
-      <c r="BZ87" t="inlineStr"/>
-      <c r="CA87" t="inlineStr"/>
-      <c r="CB87" t="inlineStr"/>
-      <c r="CC87" t="inlineStr"/>
-      <c r="CD87" t="inlineStr"/>
-      <c r="CE87" t="inlineStr"/>
-      <c r="CF87" t="inlineStr"/>
-      <c r="CG87" t="inlineStr"/>
-      <c r="CH87" t="inlineStr"/>
-      <c r="CI87" t="inlineStr"/>
-      <c r="CJ87" t="inlineStr"/>
-      <c r="CK87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>:045</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Population consumption statistics</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>SOSOC_045</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
-      <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
-      <c r="AD88" t="inlineStr"/>
-      <c r="AE88" t="inlineStr"/>
-      <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr"/>
-      <c r="AH88" t="inlineStr"/>
-      <c r="AI88" t="inlineStr"/>
-      <c r="AJ88" t="inlineStr"/>
-      <c r="AK88" t="inlineStr"/>
-      <c r="AL88" t="inlineStr"/>
-      <c r="AM88" t="inlineStr"/>
-      <c r="AN88" t="inlineStr"/>
-      <c r="AO88" t="inlineStr"/>
-      <c r="AP88" t="inlineStr"/>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
-      <c r="AS88" t="inlineStr"/>
-      <c r="AT88" t="inlineStr"/>
-      <c r="AU88" t="inlineStr"/>
-      <c r="AV88" t="inlineStr"/>
-      <c r="AW88" t="inlineStr"/>
-      <c r="AX88" t="inlineStr"/>
-      <c r="AY88" t="inlineStr"/>
-      <c r="AZ88" t="inlineStr"/>
-      <c r="BA88" t="inlineStr"/>
-      <c r="BB88" t="inlineStr"/>
-      <c r="BC88" t="inlineStr"/>
-      <c r="BD88" t="inlineStr"/>
-      <c r="BE88" t="inlineStr"/>
-      <c r="BF88" t="inlineStr"/>
-      <c r="BG88" t="inlineStr"/>
-      <c r="BH88" t="inlineStr"/>
-      <c r="BI88" t="inlineStr"/>
-      <c r="BJ88" t="inlineStr"/>
-      <c r="BK88" t="inlineStr"/>
-      <c r="BL88" t="inlineStr"/>
-      <c r="BM88" t="inlineStr"/>
-      <c r="BN88" t="inlineStr"/>
-      <c r="BO88" t="inlineStr"/>
-      <c r="BP88" t="inlineStr"/>
-      <c r="BQ88" t="inlineStr"/>
-      <c r="BR88" t="inlineStr"/>
-      <c r="BS88" t="inlineStr"/>
-      <c r="BT88" t="inlineStr"/>
-      <c r="BU88" t="inlineStr"/>
-      <c r="BV88" t="inlineStr"/>
-      <c r="BW88" t="inlineStr"/>
-      <c r="BX88" t="inlineStr"/>
-      <c r="BY88" t="inlineStr"/>
-      <c r="BZ88" t="inlineStr"/>
-      <c r="CA88" t="inlineStr"/>
-      <c r="CB88" t="inlineStr"/>
-      <c r="CC88" t="inlineStr"/>
-      <c r="CD88" t="inlineStr"/>
-      <c r="CE88" t="inlineStr"/>
-      <c r="CF88" t="inlineStr"/>
-      <c r="CG88" t="inlineStr"/>
-      <c r="CH88" t="inlineStr"/>
-      <c r="CI88" t="inlineStr"/>
-      <c r="CJ88" t="inlineStr"/>
-      <c r="CK88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>:112</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Grazing timing, intensity - farmland</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>SOSOC_112</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
-      <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="inlineStr"/>
-      <c r="AD89" t="inlineStr"/>
-      <c r="AE89" t="inlineStr"/>
-      <c r="AF89" t="inlineStr"/>
-      <c r="AG89" t="inlineStr"/>
-      <c r="AH89" t="inlineStr"/>
-      <c r="AI89" t="inlineStr"/>
-      <c r="AJ89" t="inlineStr"/>
-      <c r="AK89" t="inlineStr"/>
-      <c r="AL89" t="inlineStr"/>
-      <c r="AM89" t="inlineStr"/>
-      <c r="AN89" t="inlineStr"/>
-      <c r="AO89" t="inlineStr"/>
-      <c r="AP89" t="inlineStr"/>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
-      <c r="AS89" t="inlineStr"/>
-      <c r="AT89" t="inlineStr"/>
-      <c r="AU89" t="inlineStr"/>
-      <c r="AV89" t="inlineStr"/>
-      <c r="AW89" t="inlineStr"/>
-      <c r="AX89" t="inlineStr"/>
-      <c r="AY89" t="inlineStr"/>
-      <c r="AZ89" t="inlineStr"/>
-      <c r="BA89" t="inlineStr"/>
-      <c r="BB89" t="inlineStr"/>
-      <c r="BC89" t="inlineStr"/>
-      <c r="BD89" t="inlineStr"/>
-      <c r="BE89" t="inlineStr"/>
-      <c r="BF89" t="inlineStr"/>
-      <c r="BG89" t="inlineStr"/>
-      <c r="BH89" t="inlineStr"/>
-      <c r="BI89" t="inlineStr"/>
-      <c r="BJ89" t="inlineStr"/>
-      <c r="BK89" t="inlineStr"/>
-      <c r="BL89" t="inlineStr"/>
-      <c r="BM89" t="inlineStr"/>
-      <c r="BN89" t="inlineStr"/>
-      <c r="BO89" t="inlineStr"/>
-      <c r="BP89" t="inlineStr"/>
-      <c r="BQ89" t="inlineStr"/>
-      <c r="BR89" t="inlineStr"/>
-      <c r="BS89" t="inlineStr"/>
-      <c r="BT89" t="inlineStr"/>
-      <c r="BU89" t="inlineStr"/>
-      <c r="BV89" t="inlineStr"/>
-      <c r="BW89" t="inlineStr"/>
-      <c r="BX89" t="inlineStr"/>
-      <c r="BY89" t="inlineStr"/>
-      <c r="BZ89" t="inlineStr"/>
-      <c r="CA89" t="inlineStr"/>
-      <c r="CB89" t="inlineStr"/>
-      <c r="CC89" t="inlineStr"/>
-      <c r="CD89" t="inlineStr"/>
-      <c r="CE89" t="inlineStr"/>
-      <c r="CF89" t="inlineStr"/>
-      <c r="CG89" t="inlineStr"/>
-      <c r="CH89" t="inlineStr"/>
-      <c r="CI89" t="inlineStr"/>
-      <c r="CJ89" t="inlineStr"/>
-      <c r="CK89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>:113</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Farm gate economic return</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>SOSOC_113</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="inlineStr"/>
-      <c r="AC90" t="inlineStr"/>
-      <c r="AD90" t="inlineStr"/>
-      <c r="AE90" t="inlineStr"/>
-      <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr"/>
-      <c r="AH90" t="inlineStr"/>
-      <c r="AI90" t="inlineStr"/>
-      <c r="AJ90" t="inlineStr"/>
-      <c r="AK90" t="inlineStr"/>
-      <c r="AL90" t="inlineStr"/>
-      <c r="AM90" t="inlineStr"/>
-      <c r="AN90" t="inlineStr"/>
-      <c r="AO90" t="inlineStr"/>
-      <c r="AP90" t="inlineStr"/>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
-      <c r="AS90" t="inlineStr"/>
-      <c r="AT90" t="inlineStr"/>
-      <c r="AU90" t="inlineStr"/>
-      <c r="AV90" t="inlineStr"/>
-      <c r="AW90" t="inlineStr"/>
-      <c r="AX90" t="inlineStr"/>
-      <c r="AY90" t="inlineStr"/>
-      <c r="AZ90" t="inlineStr"/>
-      <c r="BA90" t="inlineStr"/>
-      <c r="BB90" t="inlineStr"/>
-      <c r="BC90" t="inlineStr"/>
-      <c r="BD90" t="inlineStr"/>
-      <c r="BE90" t="inlineStr"/>
-      <c r="BF90" t="inlineStr"/>
-      <c r="BG90" t="inlineStr"/>
-      <c r="BH90" t="inlineStr"/>
-      <c r="BI90" t="inlineStr"/>
-      <c r="BJ90" t="inlineStr"/>
-      <c r="BK90" t="inlineStr"/>
-      <c r="BL90" t="inlineStr"/>
-      <c r="BM90" t="inlineStr"/>
-      <c r="BN90" t="inlineStr"/>
-      <c r="BO90" t="inlineStr"/>
-      <c r="BP90" t="inlineStr"/>
-      <c r="BQ90" t="inlineStr"/>
-      <c r="BR90" t="inlineStr"/>
-      <c r="BS90" t="inlineStr"/>
-      <c r="BT90" t="inlineStr"/>
-      <c r="BU90" t="inlineStr"/>
-      <c r="BV90" t="inlineStr"/>
-      <c r="BW90" t="inlineStr"/>
-      <c r="BX90" t="inlineStr"/>
-      <c r="BY90" t="inlineStr"/>
-      <c r="BZ90" t="inlineStr"/>
-      <c r="CA90" t="inlineStr"/>
-      <c r="CB90" t="inlineStr"/>
-      <c r="CC90" t="inlineStr"/>
-      <c r="CD90" t="inlineStr"/>
-      <c r="CE90" t="inlineStr"/>
-      <c r="CF90" t="inlineStr"/>
-      <c r="CG90" t="inlineStr"/>
-      <c r="CH90" t="inlineStr"/>
-      <c r="CI90" t="inlineStr"/>
-      <c r="CJ90" t="inlineStr"/>
-      <c r="CK90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>:114</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Livestock (livestock units) - farmland</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>SOSOC_114</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
-      <c r="AH91" t="inlineStr"/>
-      <c r="AI91" t="inlineStr"/>
-      <c r="AJ91" t="inlineStr"/>
-      <c r="AK91" t="inlineStr"/>
-      <c r="AL91" t="inlineStr"/>
-      <c r="AM91" t="inlineStr"/>
-      <c r="AN91" t="inlineStr"/>
-      <c r="AO91" t="inlineStr"/>
-      <c r="AP91" t="inlineStr"/>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
-      <c r="AS91" t="inlineStr"/>
-      <c r="AT91" t="inlineStr"/>
-      <c r="AU91" t="inlineStr"/>
-      <c r="AV91" t="inlineStr"/>
-      <c r="AW91" t="inlineStr"/>
-      <c r="AX91" t="inlineStr"/>
-      <c r="AY91" t="inlineStr"/>
-      <c r="AZ91" t="inlineStr"/>
-      <c r="BA91" t="inlineStr"/>
-      <c r="BB91" t="inlineStr"/>
-      <c r="BC91" t="inlineStr"/>
-      <c r="BD91" t="inlineStr"/>
-      <c r="BE91" t="inlineStr"/>
-      <c r="BF91" t="inlineStr"/>
-      <c r="BG91" t="inlineStr"/>
-      <c r="BH91" t="inlineStr"/>
-      <c r="BI91" t="inlineStr"/>
-      <c r="BJ91" t="inlineStr"/>
-      <c r="BK91" t="inlineStr"/>
-      <c r="BL91" t="inlineStr"/>
-      <c r="BM91" t="inlineStr"/>
-      <c r="BN91" t="inlineStr"/>
-      <c r="BO91" t="inlineStr"/>
-      <c r="BP91" t="inlineStr"/>
-      <c r="BQ91" t="inlineStr"/>
-      <c r="BR91" t="inlineStr"/>
-      <c r="BS91" t="inlineStr"/>
-      <c r="BT91" t="inlineStr"/>
-      <c r="BU91" t="inlineStr"/>
-      <c r="BV91" t="inlineStr"/>
-      <c r="BW91" t="inlineStr"/>
-      <c r="BX91" t="inlineStr"/>
-      <c r="BY91" t="inlineStr"/>
-      <c r="BZ91" t="inlineStr"/>
-      <c r="CA91" t="inlineStr"/>
-      <c r="CB91" t="inlineStr"/>
-      <c r="CC91" t="inlineStr"/>
-      <c r="CD91" t="inlineStr"/>
-      <c r="CE91" t="inlineStr"/>
-      <c r="CF91" t="inlineStr"/>
-      <c r="CG91" t="inlineStr"/>
-      <c r="CH91" t="inlineStr"/>
-      <c r="CI91" t="inlineStr"/>
-      <c r="CJ91" t="inlineStr"/>
-      <c r="CK91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>:115</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Irrigation management, timing, intensity - cropland, orchards</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>SOSOC_115</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
-      <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr"/>
-      <c r="AC92" t="inlineStr"/>
-      <c r="AD92" t="inlineStr"/>
-      <c r="AE92" t="inlineStr"/>
-      <c r="AF92" t="inlineStr"/>
-      <c r="AG92" t="inlineStr"/>
-      <c r="AH92" t="inlineStr"/>
-      <c r="AI92" t="inlineStr"/>
-      <c r="AJ92" t="inlineStr"/>
-      <c r="AK92" t="inlineStr"/>
-      <c r="AL92" t="inlineStr"/>
-      <c r="AM92" t="inlineStr"/>
-      <c r="AN92" t="inlineStr"/>
-      <c r="AO92" t="inlineStr"/>
-      <c r="AP92" t="inlineStr"/>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
-      <c r="AS92" t="inlineStr"/>
-      <c r="AT92" t="inlineStr"/>
-      <c r="AU92" t="inlineStr"/>
-      <c r="AV92" t="inlineStr"/>
-      <c r="AW92" t="inlineStr"/>
-      <c r="AX92" t="inlineStr"/>
-      <c r="AY92" t="inlineStr"/>
-      <c r="AZ92" t="inlineStr"/>
-      <c r="BA92" t="inlineStr"/>
-      <c r="BB92" t="inlineStr"/>
-      <c r="BC92" t="inlineStr"/>
-      <c r="BD92" t="inlineStr"/>
-      <c r="BE92" t="inlineStr"/>
-      <c r="BF92" t="inlineStr"/>
-      <c r="BG92" t="inlineStr"/>
-      <c r="BH92" t="inlineStr"/>
-      <c r="BI92" t="inlineStr"/>
-      <c r="BJ92" t="inlineStr"/>
-      <c r="BK92" t="inlineStr"/>
-      <c r="BL92" t="inlineStr"/>
-      <c r="BM92" t="inlineStr"/>
-      <c r="BN92" t="inlineStr"/>
-      <c r="BO92" t="inlineStr"/>
-      <c r="BP92" t="inlineStr"/>
-      <c r="BQ92" t="inlineStr"/>
-      <c r="BR92" t="inlineStr"/>
-      <c r="BS92" t="inlineStr"/>
-      <c r="BT92" t="inlineStr"/>
-      <c r="BU92" t="inlineStr"/>
-      <c r="BV92" t="inlineStr"/>
-      <c r="BW92" t="inlineStr"/>
-      <c r="BX92" t="inlineStr"/>
-      <c r="BY92" t="inlineStr"/>
-      <c r="BZ92" t="inlineStr"/>
-      <c r="CA92" t="inlineStr"/>
-      <c r="CB92" t="inlineStr"/>
-      <c r="CC92" t="inlineStr"/>
-      <c r="CD92" t="inlineStr"/>
-      <c r="CE92" t="inlineStr"/>
-      <c r="CF92" t="inlineStr"/>
-      <c r="CG92" t="inlineStr"/>
-      <c r="CH92" t="inlineStr"/>
-      <c r="CI92" t="inlineStr"/>
-      <c r="CJ92" t="inlineStr"/>
-      <c r="CK92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>:116</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Fertilizer input (N, P, K fertilisation, liming, pesticides) - cropland, orchards</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>SOSOC_116</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
-      <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="inlineStr"/>
-      <c r="AC93" t="inlineStr"/>
-      <c r="AD93" t="inlineStr"/>
-      <c r="AE93" t="inlineStr"/>
-      <c r="AF93" t="inlineStr"/>
-      <c r="AG93" t="inlineStr"/>
-      <c r="AH93" t="inlineStr"/>
-      <c r="AI93" t="inlineStr"/>
-      <c r="AJ93" t="inlineStr"/>
-      <c r="AK93" t="inlineStr"/>
-      <c r="AL93" t="inlineStr"/>
-      <c r="AM93" t="inlineStr"/>
-      <c r="AN93" t="inlineStr"/>
-      <c r="AO93" t="inlineStr"/>
-      <c r="AP93" t="inlineStr"/>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
-      <c r="AS93" t="inlineStr"/>
-      <c r="AT93" t="inlineStr"/>
-      <c r="AU93" t="inlineStr"/>
-      <c r="AV93" t="inlineStr"/>
-      <c r="AW93" t="inlineStr"/>
-      <c r="AX93" t="inlineStr"/>
-      <c r="AY93" t="inlineStr"/>
-      <c r="AZ93" t="inlineStr"/>
-      <c r="BA93" t="inlineStr"/>
-      <c r="BB93" t="inlineStr"/>
-      <c r="BC93" t="inlineStr"/>
-      <c r="BD93" t="inlineStr"/>
-      <c r="BE93" t="inlineStr"/>
-      <c r="BF93" t="inlineStr"/>
-      <c r="BG93" t="inlineStr"/>
-      <c r="BH93" t="inlineStr"/>
-      <c r="BI93" t="inlineStr"/>
-      <c r="BJ93" t="inlineStr"/>
-      <c r="BK93" t="inlineStr"/>
-      <c r="BL93" t="inlineStr"/>
-      <c r="BM93" t="inlineStr"/>
-      <c r="BN93" t="inlineStr"/>
-      <c r="BO93" t="inlineStr"/>
-      <c r="BP93" t="inlineStr"/>
-      <c r="BQ93" t="inlineStr"/>
-      <c r="BR93" t="inlineStr"/>
-      <c r="BS93" t="inlineStr"/>
-      <c r="BT93" t="inlineStr"/>
-      <c r="BU93" t="inlineStr"/>
-      <c r="BV93" t="inlineStr"/>
-      <c r="BW93" t="inlineStr"/>
-      <c r="BX93" t="inlineStr"/>
-      <c r="BY93" t="inlineStr"/>
-      <c r="BZ93" t="inlineStr"/>
-      <c r="CA93" t="inlineStr"/>
-      <c r="CB93" t="inlineStr"/>
-      <c r="CC93" t="inlineStr"/>
-      <c r="CD93" t="inlineStr"/>
-      <c r="CE93" t="inlineStr"/>
-      <c r="CF93" t="inlineStr"/>
-      <c r="CG93" t="inlineStr"/>
-      <c r="CH93" t="inlineStr"/>
-      <c r="CI93" t="inlineStr"/>
-      <c r="CJ93" t="inlineStr"/>
-      <c r="CK93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>:118</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Relevant regional actors and initiatives (NGO's, civil society groups, etc.)</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>SOSOC_118</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
-      <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="inlineStr"/>
-      <c r="AC94" t="inlineStr"/>
-      <c r="AD94" t="inlineStr"/>
-      <c r="AE94" t="inlineStr"/>
-      <c r="AF94" t="inlineStr"/>
-      <c r="AG94" t="inlineStr"/>
-      <c r="AH94" t="inlineStr"/>
-      <c r="AI94" t="inlineStr"/>
-      <c r="AJ94" t="inlineStr"/>
-      <c r="AK94" t="inlineStr"/>
-      <c r="AL94" t="inlineStr"/>
-      <c r="AM94" t="inlineStr"/>
-      <c r="AN94" t="inlineStr"/>
-      <c r="AO94" t="inlineStr"/>
-      <c r="AP94" t="inlineStr"/>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
-      <c r="AS94" t="inlineStr"/>
-      <c r="AT94" t="inlineStr"/>
-      <c r="AU94" t="inlineStr"/>
-      <c r="AV94" t="inlineStr"/>
-      <c r="AW94" t="inlineStr"/>
-      <c r="AX94" t="inlineStr"/>
-      <c r="AY94" t="inlineStr"/>
-      <c r="AZ94" t="inlineStr"/>
-      <c r="BA94" t="inlineStr"/>
-      <c r="BB94" t="inlineStr"/>
-      <c r="BC94" t="inlineStr"/>
-      <c r="BD94" t="inlineStr"/>
-      <c r="BE94" t="inlineStr"/>
-      <c r="BF94" t="inlineStr"/>
-      <c r="BG94" t="inlineStr"/>
-      <c r="BH94" t="inlineStr"/>
-      <c r="BI94" t="inlineStr"/>
-      <c r="BJ94" t="inlineStr"/>
-      <c r="BK94" t="inlineStr"/>
-      <c r="BL94" t="inlineStr"/>
-      <c r="BM94" t="inlineStr"/>
-      <c r="BN94" t="inlineStr"/>
-      <c r="BO94" t="inlineStr"/>
-      <c r="BP94" t="inlineStr"/>
-      <c r="BQ94" t="inlineStr"/>
-      <c r="BR94" t="inlineStr"/>
-      <c r="BS94" t="inlineStr"/>
-      <c r="BT94" t="inlineStr"/>
-      <c r="BU94" t="inlineStr"/>
-      <c r="BV94" t="inlineStr"/>
-      <c r="BW94" t="inlineStr"/>
-      <c r="BX94" t="inlineStr"/>
-      <c r="BY94" t="inlineStr"/>
-      <c r="BZ94" t="inlineStr"/>
-      <c r="CA94" t="inlineStr"/>
-      <c r="CB94" t="inlineStr"/>
-      <c r="CC94" t="inlineStr"/>
-      <c r="CD94" t="inlineStr"/>
-      <c r="CE94" t="inlineStr"/>
-      <c r="CF94" t="inlineStr"/>
-      <c r="CG94" t="inlineStr"/>
-      <c r="CH94" t="inlineStr"/>
-      <c r="CI94" t="inlineStr"/>
-      <c r="CJ94" t="inlineStr"/>
-      <c r="CK94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>:120</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Property ownership/laws/institutions</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>SOSOC_120</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
-      <c r="AC95" t="inlineStr"/>
-      <c r="AD95" t="inlineStr"/>
-      <c r="AE95" t="inlineStr"/>
-      <c r="AF95" t="inlineStr"/>
-      <c r="AG95" t="inlineStr"/>
-      <c r="AH95" t="inlineStr"/>
-      <c r="AI95" t="inlineStr"/>
-      <c r="AJ95" t="inlineStr"/>
-      <c r="AK95" t="inlineStr"/>
-      <c r="AL95" t="inlineStr"/>
-      <c r="AM95" t="inlineStr"/>
-      <c r="AN95" t="inlineStr"/>
-      <c r="AO95" t="inlineStr"/>
-      <c r="AP95" t="inlineStr"/>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
-      <c r="AS95" t="inlineStr"/>
-      <c r="AT95" t="inlineStr"/>
-      <c r="AU95" t="inlineStr"/>
-      <c r="AV95" t="inlineStr"/>
-      <c r="AW95" t="inlineStr"/>
-      <c r="AX95" t="inlineStr"/>
-      <c r="AY95" t="inlineStr"/>
-      <c r="AZ95" t="inlineStr"/>
-      <c r="BA95" t="inlineStr"/>
-      <c r="BB95" t="inlineStr"/>
-      <c r="BC95" t="inlineStr"/>
-      <c r="BD95" t="inlineStr"/>
-      <c r="BE95" t="inlineStr"/>
-      <c r="BF95" t="inlineStr"/>
-      <c r="BG95" t="inlineStr"/>
-      <c r="BH95" t="inlineStr"/>
-      <c r="BI95" t="inlineStr"/>
-      <c r="BJ95" t="inlineStr"/>
-      <c r="BK95" t="inlineStr"/>
-      <c r="BL95" t="inlineStr"/>
-      <c r="BM95" t="inlineStr"/>
-      <c r="BN95" t="inlineStr"/>
-      <c r="BO95" t="inlineStr"/>
-      <c r="BP95" t="inlineStr"/>
-      <c r="BQ95" t="inlineStr"/>
-      <c r="BR95" t="inlineStr"/>
-      <c r="BS95" t="inlineStr"/>
-      <c r="BT95" t="inlineStr"/>
-      <c r="BU95" t="inlineStr"/>
-      <c r="BV95" t="inlineStr"/>
-      <c r="BW95" t="inlineStr"/>
-      <c r="BX95" t="inlineStr"/>
-      <c r="BY95" t="inlineStr"/>
-      <c r="BZ95" t="inlineStr"/>
-      <c r="CA95" t="inlineStr"/>
-      <c r="CB95" t="inlineStr"/>
-      <c r="CC95" t="inlineStr"/>
-      <c r="CD95" t="inlineStr"/>
-      <c r="CE95" t="inlineStr"/>
-      <c r="CF95" t="inlineStr"/>
-      <c r="CG95" t="inlineStr"/>
-      <c r="CH95" t="inlineStr"/>
-      <c r="CI95" t="inlineStr"/>
-      <c r="CJ95" t="inlineStr"/>
-      <c r="CK95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>:122</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Number of tourists/visitors</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>SOSOC_122</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
-      <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="inlineStr"/>
-      <c r="AC96" t="inlineStr"/>
-      <c r="AD96" t="inlineStr"/>
-      <c r="AE96" t="inlineStr"/>
-      <c r="AF96" t="inlineStr"/>
-      <c r="AG96" t="inlineStr"/>
-      <c r="AH96" t="inlineStr"/>
-      <c r="AI96" t="inlineStr"/>
-      <c r="AJ96" t="inlineStr"/>
-      <c r="AK96" t="inlineStr"/>
-      <c r="AL96" t="inlineStr"/>
-      <c r="AM96" t="inlineStr"/>
-      <c r="AN96" t="inlineStr"/>
-      <c r="AO96" t="inlineStr"/>
-      <c r="AP96" t="inlineStr"/>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
-      <c r="AS96" t="inlineStr"/>
-      <c r="AT96" t="inlineStr"/>
-      <c r="AU96" t="inlineStr"/>
-      <c r="AV96" t="inlineStr"/>
-      <c r="AW96" t="inlineStr"/>
-      <c r="AX96" t="inlineStr"/>
-      <c r="AY96" t="inlineStr"/>
-      <c r="AZ96" t="inlineStr"/>
-      <c r="BA96" t="inlineStr"/>
-      <c r="BB96" t="inlineStr"/>
-      <c r="BC96" t="inlineStr"/>
-      <c r="BD96" t="inlineStr"/>
-      <c r="BE96" t="inlineStr"/>
-      <c r="BF96" t="inlineStr"/>
-      <c r="BG96" t="inlineStr"/>
-      <c r="BH96" t="inlineStr"/>
-      <c r="BI96" t="inlineStr"/>
-      <c r="BJ96" t="inlineStr"/>
-      <c r="BK96" t="inlineStr"/>
-      <c r="BL96" t="inlineStr"/>
-      <c r="BM96" t="inlineStr"/>
-      <c r="BN96" t="inlineStr"/>
-      <c r="BO96" t="inlineStr"/>
-      <c r="BP96" t="inlineStr"/>
-      <c r="BQ96" t="inlineStr"/>
-      <c r="BR96" t="inlineStr"/>
-      <c r="BS96" t="inlineStr"/>
-      <c r="BT96" t="inlineStr"/>
-      <c r="BU96" t="inlineStr"/>
-      <c r="BV96" t="inlineStr"/>
-      <c r="BW96" t="inlineStr"/>
-      <c r="BX96" t="inlineStr"/>
-      <c r="BY96" t="inlineStr"/>
-      <c r="BZ96" t="inlineStr"/>
-      <c r="CA96" t="inlineStr"/>
-      <c r="CB96" t="inlineStr"/>
-      <c r="CC96" t="inlineStr"/>
-      <c r="CD96" t="inlineStr"/>
-      <c r="CE96" t="inlineStr"/>
-      <c r="CF96" t="inlineStr"/>
-      <c r="CG96" t="inlineStr"/>
-      <c r="CH96" t="inlineStr"/>
-      <c r="CI96" t="inlineStr"/>
-      <c r="CJ96" t="inlineStr"/>
-      <c r="CK96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>:127</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Records of important land users (e.g., forest enterprises)</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>SOSOC_127</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr"/>
-      <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr"/>
-      <c r="AF97" t="inlineStr"/>
-      <c r="AG97" t="inlineStr"/>
-      <c r="AH97" t="inlineStr"/>
-      <c r="AI97" t="inlineStr"/>
-      <c r="AJ97" t="inlineStr"/>
-      <c r="AK97" t="inlineStr"/>
-      <c r="AL97" t="inlineStr"/>
-      <c r="AM97" t="inlineStr"/>
-      <c r="AN97" t="inlineStr"/>
-      <c r="AO97" t="inlineStr"/>
-      <c r="AP97" t="inlineStr"/>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
-      <c r="AS97" t="inlineStr"/>
-      <c r="AT97" t="inlineStr"/>
-      <c r="AU97" t="inlineStr"/>
-      <c r="AV97" t="inlineStr"/>
-      <c r="AW97" t="inlineStr"/>
-      <c r="AX97" t="inlineStr"/>
-      <c r="AY97" t="inlineStr"/>
-      <c r="AZ97" t="inlineStr"/>
-      <c r="BA97" t="inlineStr"/>
-      <c r="BB97" t="inlineStr"/>
-      <c r="BC97" t="inlineStr"/>
-      <c r="BD97" t="inlineStr"/>
-      <c r="BE97" t="inlineStr"/>
-      <c r="BF97" t="inlineStr"/>
-      <c r="BG97" t="inlineStr"/>
-      <c r="BH97" t="inlineStr"/>
-      <c r="BI97" t="inlineStr"/>
-      <c r="BJ97" t="inlineStr"/>
-      <c r="BK97" t="inlineStr"/>
-      <c r="BL97" t="inlineStr"/>
-      <c r="BM97" t="inlineStr"/>
-      <c r="BN97" t="inlineStr"/>
-      <c r="BO97" t="inlineStr"/>
-      <c r="BP97" t="inlineStr"/>
-      <c r="BQ97" t="inlineStr"/>
-      <c r="BR97" t="inlineStr"/>
-      <c r="BS97" t="inlineStr"/>
-      <c r="BT97" t="inlineStr"/>
-      <c r="BU97" t="inlineStr"/>
-      <c r="BV97" t="inlineStr"/>
-      <c r="BW97" t="inlineStr"/>
-      <c r="BX97" t="inlineStr"/>
-      <c r="BY97" t="inlineStr"/>
-      <c r="BZ97" t="inlineStr"/>
-      <c r="CA97" t="inlineStr"/>
-      <c r="CB97" t="inlineStr"/>
-      <c r="CC97" t="inlineStr"/>
-      <c r="CD97" t="inlineStr"/>
-      <c r="CE97" t="inlineStr"/>
-      <c r="CF97" t="inlineStr"/>
-      <c r="CG97" t="inlineStr"/>
-      <c r="CH97" t="inlineStr"/>
-      <c r="CI97" t="inlineStr"/>
-      <c r="CJ97" t="inlineStr"/>
-      <c r="CK97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>:130</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Physical infrastructure networks</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>SOSOC_130</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
-      <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr"/>
-      <c r="AF98" t="inlineStr"/>
-      <c r="AG98" t="inlineStr"/>
-      <c r="AH98" t="inlineStr"/>
-      <c r="AI98" t="inlineStr"/>
-      <c r="AJ98" t="inlineStr"/>
-      <c r="AK98" t="inlineStr"/>
-      <c r="AL98" t="inlineStr"/>
-      <c r="AM98" t="inlineStr"/>
-      <c r="AN98" t="inlineStr"/>
-      <c r="AO98" t="inlineStr"/>
-      <c r="AP98" t="inlineStr"/>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
-      <c r="AS98" t="inlineStr"/>
-      <c r="AT98" t="inlineStr"/>
-      <c r="AU98" t="inlineStr"/>
-      <c r="AV98" t="inlineStr"/>
-      <c r="AW98" t="inlineStr"/>
-      <c r="AX98" t="inlineStr"/>
-      <c r="AY98" t="inlineStr"/>
-      <c r="AZ98" t="inlineStr"/>
-      <c r="BA98" t="inlineStr"/>
-      <c r="BB98" t="inlineStr"/>
-      <c r="BC98" t="inlineStr"/>
-      <c r="BD98" t="inlineStr"/>
-      <c r="BE98" t="inlineStr"/>
-      <c r="BF98" t="inlineStr"/>
-      <c r="BG98" t="inlineStr"/>
-      <c r="BH98" t="inlineStr"/>
-      <c r="BI98" t="inlineStr"/>
-      <c r="BJ98" t="inlineStr"/>
-      <c r="BK98" t="inlineStr"/>
-      <c r="BL98" t="inlineStr"/>
-      <c r="BM98" t="inlineStr"/>
-      <c r="BN98" t="inlineStr"/>
-      <c r="BO98" t="inlineStr"/>
-      <c r="BP98" t="inlineStr"/>
-      <c r="BQ98" t="inlineStr"/>
-      <c r="BR98" t="inlineStr"/>
-      <c r="BS98" t="inlineStr"/>
-      <c r="BT98" t="inlineStr"/>
-      <c r="BU98" t="inlineStr"/>
-      <c r="BV98" t="inlineStr"/>
-      <c r="BW98" t="inlineStr"/>
-      <c r="BX98" t="inlineStr"/>
-      <c r="BY98" t="inlineStr"/>
-      <c r="BZ98" t="inlineStr"/>
-      <c r="CA98" t="inlineStr"/>
-      <c r="CB98" t="inlineStr"/>
-      <c r="CC98" t="inlineStr"/>
-      <c r="CD98" t="inlineStr"/>
-      <c r="CE98" t="inlineStr"/>
-      <c r="CF98" t="inlineStr"/>
-      <c r="CG98" t="inlineStr"/>
-      <c r="CH98" t="inlineStr"/>
-      <c r="CI98" t="inlineStr"/>
-      <c r="CJ98" t="inlineStr"/>
-      <c r="CK98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>:131</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Buildings and other structures</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>SOSOC_131</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
-      <c r="AH99" t="inlineStr"/>
-      <c r="AI99" t="inlineStr"/>
-      <c r="AJ99" t="inlineStr"/>
-      <c r="AK99" t="inlineStr"/>
-      <c r="AL99" t="inlineStr"/>
-      <c r="AM99" t="inlineStr"/>
-      <c r="AN99" t="inlineStr"/>
-      <c r="AO99" t="inlineStr"/>
-      <c r="AP99" t="inlineStr"/>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
-      <c r="AT99" t="inlineStr"/>
-      <c r="AU99" t="inlineStr"/>
-      <c r="AV99" t="inlineStr"/>
-      <c r="AW99" t="inlineStr"/>
-      <c r="AX99" t="inlineStr"/>
-      <c r="AY99" t="inlineStr"/>
-      <c r="AZ99" t="inlineStr"/>
-      <c r="BA99" t="inlineStr"/>
-      <c r="BB99" t="inlineStr"/>
-      <c r="BC99" t="inlineStr"/>
-      <c r="BD99" t="inlineStr"/>
-      <c r="BE99" t="inlineStr"/>
-      <c r="BF99" t="inlineStr"/>
-      <c r="BG99" t="inlineStr"/>
-      <c r="BH99" t="inlineStr"/>
-      <c r="BI99" t="inlineStr"/>
-      <c r="BJ99" t="inlineStr"/>
-      <c r="BK99" t="inlineStr"/>
-      <c r="BL99" t="inlineStr"/>
-      <c r="BM99" t="inlineStr"/>
-      <c r="BN99" t="inlineStr"/>
-      <c r="BO99" t="inlineStr"/>
-      <c r="BP99" t="inlineStr"/>
-      <c r="BQ99" t="inlineStr"/>
-      <c r="BR99" t="inlineStr"/>
-      <c r="BS99" t="inlineStr"/>
-      <c r="BT99" t="inlineStr"/>
-      <c r="BU99" t="inlineStr"/>
-      <c r="BV99" t="inlineStr"/>
-      <c r="BW99" t="inlineStr"/>
-      <c r="BX99" t="inlineStr"/>
-      <c r="BY99" t="inlineStr"/>
-      <c r="BZ99" t="inlineStr"/>
-      <c r="CA99" t="inlineStr"/>
-      <c r="CB99" t="inlineStr"/>
-      <c r="CC99" t="inlineStr"/>
-      <c r="CD99" t="inlineStr"/>
-      <c r="CE99" t="inlineStr"/>
-      <c r="CF99" t="inlineStr"/>
-      <c r="CG99" t="inlineStr"/>
-      <c r="CH99" t="inlineStr"/>
-      <c r="CI99" t="inlineStr"/>
-      <c r="CJ99" t="inlineStr"/>
-      <c r="CK99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>:132</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Roads, railways, settlement areas</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>SOSOC_132</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
-      <c r="AD100" t="inlineStr"/>
-      <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
-      <c r="AH100" t="inlineStr"/>
-      <c r="AI100" t="inlineStr"/>
-      <c r="AJ100" t="inlineStr"/>
-      <c r="AK100" t="inlineStr"/>
-      <c r="AL100" t="inlineStr"/>
-      <c r="AM100" t="inlineStr"/>
-      <c r="AN100" t="inlineStr"/>
-      <c r="AO100" t="inlineStr"/>
-      <c r="AP100" t="inlineStr"/>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
-      <c r="AS100" t="inlineStr"/>
-      <c r="AT100" t="inlineStr"/>
-      <c r="AU100" t="inlineStr"/>
-      <c r="AV100" t="inlineStr"/>
-      <c r="AW100" t="inlineStr"/>
-      <c r="AX100" t="inlineStr"/>
-      <c r="AY100" t="inlineStr"/>
-      <c r="AZ100" t="inlineStr"/>
-      <c r="BA100" t="inlineStr"/>
-      <c r="BB100" t="inlineStr"/>
-      <c r="BC100" t="inlineStr"/>
-      <c r="BD100" t="inlineStr"/>
-      <c r="BE100" t="inlineStr"/>
-      <c r="BF100" t="inlineStr"/>
-      <c r="BG100" t="inlineStr"/>
-      <c r="BH100" t="inlineStr"/>
-      <c r="BI100" t="inlineStr"/>
-      <c r="BJ100" t="inlineStr"/>
-      <c r="BK100" t="inlineStr"/>
-      <c r="BL100" t="inlineStr"/>
-      <c r="BM100" t="inlineStr"/>
-      <c r="BN100" t="inlineStr"/>
-      <c r="BO100" t="inlineStr"/>
-      <c r="BP100" t="inlineStr"/>
-      <c r="BQ100" t="inlineStr"/>
-      <c r="BR100" t="inlineStr"/>
-      <c r="BS100" t="inlineStr"/>
-      <c r="BT100" t="inlineStr"/>
-      <c r="BU100" t="inlineStr"/>
-      <c r="BV100" t="inlineStr"/>
-      <c r="BW100" t="inlineStr"/>
-      <c r="BX100" t="inlineStr"/>
-      <c r="BY100" t="inlineStr"/>
-      <c r="BZ100" t="inlineStr"/>
-      <c r="CA100" t="inlineStr"/>
-      <c r="CB100" t="inlineStr"/>
-      <c r="CC100" t="inlineStr"/>
-      <c r="CD100" t="inlineStr"/>
-      <c r="CE100" t="inlineStr"/>
-      <c r="CF100" t="inlineStr"/>
-      <c r="CG100" t="inlineStr"/>
-      <c r="CH100" t="inlineStr"/>
-      <c r="CI100" t="inlineStr"/>
-      <c r="CJ100" t="inlineStr"/>
-      <c r="CK100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>:147</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Maritime traffic and recreational navigation</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>SOSOC_147</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
-      <c r="AC101" t="inlineStr"/>
-      <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr"/>
-      <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr"/>
-      <c r="AH101" t="inlineStr"/>
-      <c r="AI101" t="inlineStr"/>
-      <c r="AJ101" t="inlineStr"/>
-      <c r="AK101" t="inlineStr"/>
-      <c r="AL101" t="inlineStr"/>
-      <c r="AM101" t="inlineStr"/>
-      <c r="AN101" t="inlineStr"/>
-      <c r="AO101" t="inlineStr"/>
-      <c r="AP101" t="inlineStr"/>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
-      <c r="AS101" t="inlineStr"/>
-      <c r="AT101" t="inlineStr"/>
-      <c r="AU101" t="inlineStr"/>
-      <c r="AV101" t="inlineStr"/>
-      <c r="AW101" t="inlineStr"/>
-      <c r="AX101" t="inlineStr"/>
-      <c r="AY101" t="inlineStr"/>
-      <c r="AZ101" t="inlineStr"/>
-      <c r="BA101" t="inlineStr"/>
-      <c r="BB101" t="inlineStr"/>
-      <c r="BC101" t="inlineStr"/>
-      <c r="BD101" t="inlineStr"/>
-      <c r="BE101" t="inlineStr"/>
-      <c r="BF101" t="inlineStr"/>
-      <c r="BG101" t="inlineStr"/>
-      <c r="BH101" t="inlineStr"/>
-      <c r="BI101" t="inlineStr"/>
-      <c r="BJ101" t="inlineStr"/>
-      <c r="BK101" t="inlineStr"/>
-      <c r="BL101" t="inlineStr"/>
-      <c r="BM101" t="inlineStr"/>
-      <c r="BN101" t="inlineStr"/>
-      <c r="BO101" t="inlineStr"/>
-      <c r="BP101" t="inlineStr"/>
-      <c r="BQ101" t="inlineStr"/>
-      <c r="BR101" t="inlineStr"/>
-      <c r="BS101" t="inlineStr"/>
-      <c r="BT101" t="inlineStr"/>
-      <c r="BU101" t="inlineStr"/>
-      <c r="BV101" t="inlineStr"/>
-      <c r="BW101" t="inlineStr"/>
-      <c r="BX101" t="inlineStr"/>
-      <c r="BY101" t="inlineStr"/>
-      <c r="BZ101" t="inlineStr"/>
-      <c r="CA101" t="inlineStr"/>
-      <c r="CB101" t="inlineStr"/>
-      <c r="CC101" t="inlineStr"/>
-      <c r="CD101" t="inlineStr"/>
-      <c r="CE101" t="inlineStr"/>
-      <c r="CF101" t="inlineStr"/>
-      <c r="CG101" t="inlineStr"/>
-      <c r="CH101" t="inlineStr"/>
-      <c r="CI101" t="inlineStr"/>
-      <c r="CJ101" t="inlineStr"/>
-      <c r="CK101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>:149</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Aquaculture</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>SOSOC_149</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
-      <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
-      <c r="AD102" t="inlineStr"/>
-      <c r="AE102" t="inlineStr"/>
-      <c r="AF102" t="inlineStr"/>
-      <c r="AG102" t="inlineStr"/>
-      <c r="AH102" t="inlineStr"/>
-      <c r="AI102" t="inlineStr"/>
-      <c r="AJ102" t="inlineStr"/>
-      <c r="AK102" t="inlineStr"/>
-      <c r="AL102" t="inlineStr"/>
-      <c r="AM102" t="inlineStr"/>
-      <c r="AN102" t="inlineStr"/>
-      <c r="AO102" t="inlineStr"/>
-      <c r="AP102" t="inlineStr"/>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
-      <c r="AS102" t="inlineStr"/>
-      <c r="AT102" t="inlineStr"/>
-      <c r="AU102" t="inlineStr"/>
-      <c r="AV102" t="inlineStr"/>
-      <c r="AW102" t="inlineStr"/>
-      <c r="AX102" t="inlineStr"/>
-      <c r="AY102" t="inlineStr"/>
-      <c r="AZ102" t="inlineStr"/>
-      <c r="BA102" t="inlineStr"/>
-      <c r="BB102" t="inlineStr"/>
-      <c r="BC102" t="inlineStr"/>
-      <c r="BD102" t="inlineStr"/>
-      <c r="BE102" t="inlineStr"/>
-      <c r="BF102" t="inlineStr"/>
-      <c r="BG102" t="inlineStr"/>
-      <c r="BH102" t="inlineStr"/>
-      <c r="BI102" t="inlineStr"/>
-      <c r="BJ102" t="inlineStr"/>
-      <c r="BK102" t="inlineStr"/>
-      <c r="BL102" t="inlineStr"/>
-      <c r="BM102" t="inlineStr"/>
-      <c r="BN102" t="inlineStr"/>
-      <c r="BO102" t="inlineStr"/>
-      <c r="BP102" t="inlineStr"/>
-      <c r="BQ102" t="inlineStr"/>
-      <c r="BR102" t="inlineStr"/>
-      <c r="BS102" t="inlineStr"/>
-      <c r="BT102" t="inlineStr"/>
-      <c r="BU102" t="inlineStr"/>
-      <c r="BV102" t="inlineStr"/>
-      <c r="BW102" t="inlineStr"/>
-      <c r="BX102" t="inlineStr"/>
-      <c r="BY102" t="inlineStr"/>
-      <c r="BZ102" t="inlineStr"/>
-      <c r="CA102" t="inlineStr"/>
-      <c r="CB102" t="inlineStr"/>
-      <c r="CC102" t="inlineStr"/>
-      <c r="CD102" t="inlineStr"/>
-      <c r="CE102" t="inlineStr"/>
-      <c r="CF102" t="inlineStr"/>
-      <c r="CG102" t="inlineStr"/>
-      <c r="CH102" t="inlineStr"/>
-      <c r="CI102" t="inlineStr"/>
-      <c r="CJ102" t="inlineStr"/>
-      <c r="CK102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>:150</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Extraction of minerals</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>SOSOC_150</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
-      <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr"/>
-      <c r="AC103" t="inlineStr"/>
-      <c r="AD103" t="inlineStr"/>
-      <c r="AE103" t="inlineStr"/>
-      <c r="AF103" t="inlineStr"/>
-      <c r="AG103" t="inlineStr"/>
-      <c r="AH103" t="inlineStr"/>
-      <c r="AI103" t="inlineStr"/>
-      <c r="AJ103" t="inlineStr"/>
-      <c r="AK103" t="inlineStr"/>
-      <c r="AL103" t="inlineStr"/>
-      <c r="AM103" t="inlineStr"/>
-      <c r="AN103" t="inlineStr"/>
-      <c r="AO103" t="inlineStr"/>
-      <c r="AP103" t="inlineStr"/>
-      <c r="AQ103" t="inlineStr"/>
-      <c r="AR103" t="inlineStr"/>
-      <c r="AS103" t="inlineStr"/>
-      <c r="AT103" t="inlineStr"/>
-      <c r="AU103" t="inlineStr"/>
-      <c r="AV103" t="inlineStr"/>
-      <c r="AW103" t="inlineStr"/>
-      <c r="AX103" t="inlineStr"/>
-      <c r="AY103" t="inlineStr"/>
-      <c r="AZ103" t="inlineStr"/>
-      <c r="BA103" t="inlineStr"/>
-      <c r="BB103" t="inlineStr"/>
-      <c r="BC103" t="inlineStr"/>
-      <c r="BD103" t="inlineStr"/>
-      <c r="BE103" t="inlineStr"/>
-      <c r="BF103" t="inlineStr"/>
-      <c r="BG103" t="inlineStr"/>
-      <c r="BH103" t="inlineStr"/>
-      <c r="BI103" t="inlineStr"/>
-      <c r="BJ103" t="inlineStr"/>
-      <c r="BK103" t="inlineStr"/>
-      <c r="BL103" t="inlineStr"/>
-      <c r="BM103" t="inlineStr"/>
-      <c r="BN103" t="inlineStr"/>
-      <c r="BO103" t="inlineStr"/>
-      <c r="BP103" t="inlineStr"/>
-      <c r="BQ103" t="inlineStr"/>
-      <c r="BR103" t="inlineStr"/>
-      <c r="BS103" t="inlineStr"/>
-      <c r="BT103" t="inlineStr"/>
-      <c r="BU103" t="inlineStr"/>
-      <c r="BV103" t="inlineStr"/>
-      <c r="BW103" t="inlineStr"/>
-      <c r="BX103" t="inlineStr"/>
-      <c r="BY103" t="inlineStr"/>
-      <c r="BZ103" t="inlineStr"/>
-      <c r="CA103" t="inlineStr"/>
-      <c r="CB103" t="inlineStr"/>
-      <c r="CC103" t="inlineStr"/>
-      <c r="CD103" t="inlineStr"/>
-      <c r="CE103" t="inlineStr"/>
-      <c r="CF103" t="inlineStr"/>
-      <c r="CG103" t="inlineStr"/>
-      <c r="CH103" t="inlineStr"/>
-      <c r="CI103" t="inlineStr"/>
-      <c r="CJ103" t="inlineStr"/>
-      <c r="CK103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>:151</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Oil and gas exploitation</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>SOSOC_151</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr"/>
-      <c r="AD104" t="inlineStr"/>
-      <c r="AE104" t="inlineStr"/>
-      <c r="AF104" t="inlineStr"/>
-      <c r="AG104" t="inlineStr"/>
-      <c r="AH104" t="inlineStr"/>
-      <c r="AI104" t="inlineStr"/>
-      <c r="AJ104" t="inlineStr"/>
-      <c r="AK104" t="inlineStr"/>
-      <c r="AL104" t="inlineStr"/>
-      <c r="AM104" t="inlineStr"/>
-      <c r="AN104" t="inlineStr"/>
-      <c r="AO104" t="inlineStr"/>
-      <c r="AP104" t="inlineStr"/>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
-      <c r="AS104" t="inlineStr"/>
-      <c r="AT104" t="inlineStr"/>
-      <c r="AU104" t="inlineStr"/>
-      <c r="AV104" t="inlineStr"/>
-      <c r="AW104" t="inlineStr"/>
-      <c r="AX104" t="inlineStr"/>
-      <c r="AY104" t="inlineStr"/>
-      <c r="AZ104" t="inlineStr"/>
-      <c r="BA104" t="inlineStr"/>
-      <c r="BB104" t="inlineStr"/>
-      <c r="BC104" t="inlineStr"/>
-      <c r="BD104" t="inlineStr"/>
-      <c r="BE104" t="inlineStr"/>
-      <c r="BF104" t="inlineStr"/>
-      <c r="BG104" t="inlineStr"/>
-      <c r="BH104" t="inlineStr"/>
-      <c r="BI104" t="inlineStr"/>
-      <c r="BJ104" t="inlineStr"/>
-      <c r="BK104" t="inlineStr"/>
-      <c r="BL104" t="inlineStr"/>
-      <c r="BM104" t="inlineStr"/>
-      <c r="BN104" t="inlineStr"/>
-      <c r="BO104" t="inlineStr"/>
-      <c r="BP104" t="inlineStr"/>
-      <c r="BQ104" t="inlineStr"/>
-      <c r="BR104" t="inlineStr"/>
-      <c r="BS104" t="inlineStr"/>
-      <c r="BT104" t="inlineStr"/>
-      <c r="BU104" t="inlineStr"/>
-      <c r="BV104" t="inlineStr"/>
-      <c r="BW104" t="inlineStr"/>
-      <c r="BX104" t="inlineStr"/>
-      <c r="BY104" t="inlineStr"/>
-      <c r="BZ104" t="inlineStr"/>
-      <c r="CA104" t="inlineStr"/>
-      <c r="CB104" t="inlineStr"/>
-      <c r="CC104" t="inlineStr"/>
-      <c r="CD104" t="inlineStr"/>
-      <c r="CE104" t="inlineStr"/>
-      <c r="CF104" t="inlineStr"/>
-      <c r="CG104" t="inlineStr"/>
-      <c r="CH104" t="inlineStr"/>
-      <c r="CI104" t="inlineStr"/>
-      <c r="CJ104" t="inlineStr"/>
-      <c r="CK104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>:152</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Wind energy</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>SOSOC_152</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
-      <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr"/>
-      <c r="AF105" t="inlineStr"/>
-      <c r="AG105" t="inlineStr"/>
-      <c r="AH105" t="inlineStr"/>
-      <c r="AI105" t="inlineStr"/>
-      <c r="AJ105" t="inlineStr"/>
-      <c r="AK105" t="inlineStr"/>
-      <c r="AL105" t="inlineStr"/>
-      <c r="AM105" t="inlineStr"/>
-      <c r="AN105" t="inlineStr"/>
-      <c r="AO105" t="inlineStr"/>
-      <c r="AP105" t="inlineStr"/>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
-      <c r="AS105" t="inlineStr"/>
-      <c r="AT105" t="inlineStr"/>
-      <c r="AU105" t="inlineStr"/>
-      <c r="AV105" t="inlineStr"/>
-      <c r="AW105" t="inlineStr"/>
-      <c r="AX105" t="inlineStr"/>
-      <c r="AY105" t="inlineStr"/>
-      <c r="AZ105" t="inlineStr"/>
-      <c r="BA105" t="inlineStr"/>
-      <c r="BB105" t="inlineStr"/>
-      <c r="BC105" t="inlineStr"/>
-      <c r="BD105" t="inlineStr"/>
-      <c r="BE105" t="inlineStr"/>
-      <c r="BF105" t="inlineStr"/>
-      <c r="BG105" t="inlineStr"/>
-      <c r="BH105" t="inlineStr"/>
-      <c r="BI105" t="inlineStr"/>
-      <c r="BJ105" t="inlineStr"/>
-      <c r="BK105" t="inlineStr"/>
-      <c r="BL105" t="inlineStr"/>
-      <c r="BM105" t="inlineStr"/>
-      <c r="BN105" t="inlineStr"/>
-      <c r="BO105" t="inlineStr"/>
-      <c r="BP105" t="inlineStr"/>
-      <c r="BQ105" t="inlineStr"/>
-      <c r="BR105" t="inlineStr"/>
-      <c r="BS105" t="inlineStr"/>
-      <c r="BT105" t="inlineStr"/>
-      <c r="BU105" t="inlineStr"/>
-      <c r="BV105" t="inlineStr"/>
-      <c r="BW105" t="inlineStr"/>
-      <c r="BX105" t="inlineStr"/>
-      <c r="BY105" t="inlineStr"/>
-      <c r="BZ105" t="inlineStr"/>
-      <c r="CA105" t="inlineStr"/>
-      <c r="CB105" t="inlineStr"/>
-      <c r="CC105" t="inlineStr"/>
-      <c r="CD105" t="inlineStr"/>
-      <c r="CE105" t="inlineStr"/>
-      <c r="CF105" t="inlineStr"/>
-      <c r="CG105" t="inlineStr"/>
-      <c r="CH105" t="inlineStr"/>
-      <c r="CI105" t="inlineStr"/>
-      <c r="CJ105" t="inlineStr"/>
-      <c r="CK105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>:153</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Protected areas</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>SOSOC_153</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
-      <c r="AD106" t="inlineStr"/>
-      <c r="AE106" t="inlineStr"/>
-      <c r="AF106" t="inlineStr"/>
-      <c r="AG106" t="inlineStr"/>
-      <c r="AH106" t="inlineStr"/>
-      <c r="AI106" t="inlineStr"/>
-      <c r="AJ106" t="inlineStr"/>
-      <c r="AK106" t="inlineStr"/>
-      <c r="AL106" t="inlineStr"/>
-      <c r="AM106" t="inlineStr"/>
-      <c r="AN106" t="inlineStr"/>
-      <c r="AO106" t="inlineStr"/>
-      <c r="AP106" t="inlineStr"/>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
-      <c r="AS106" t="inlineStr"/>
-      <c r="AT106" t="inlineStr"/>
-      <c r="AU106" t="inlineStr"/>
-      <c r="AV106" t="inlineStr"/>
-      <c r="AW106" t="inlineStr"/>
-      <c r="AX106" t="inlineStr"/>
-      <c r="AY106" t="inlineStr"/>
-      <c r="AZ106" t="inlineStr"/>
-      <c r="BA106" t="inlineStr"/>
-      <c r="BB106" t="inlineStr"/>
-      <c r="BC106" t="inlineStr"/>
-      <c r="BD106" t="inlineStr"/>
-      <c r="BE106" t="inlineStr"/>
-      <c r="BF106" t="inlineStr"/>
-      <c r="BG106" t="inlineStr"/>
-      <c r="BH106" t="inlineStr"/>
-      <c r="BI106" t="inlineStr"/>
-      <c r="BJ106" t="inlineStr"/>
-      <c r="BK106" t="inlineStr"/>
-      <c r="BL106" t="inlineStr"/>
-      <c r="BM106" t="inlineStr"/>
-      <c r="BN106" t="inlineStr"/>
-      <c r="BO106" t="inlineStr"/>
-      <c r="BP106" t="inlineStr"/>
-      <c r="BQ106" t="inlineStr"/>
-      <c r="BR106" t="inlineStr"/>
-      <c r="BS106" t="inlineStr"/>
-      <c r="BT106" t="inlineStr"/>
-      <c r="BU106" t="inlineStr"/>
-      <c r="BV106" t="inlineStr"/>
-      <c r="BW106" t="inlineStr"/>
-      <c r="BX106" t="inlineStr"/>
-      <c r="BY106" t="inlineStr"/>
-      <c r="BZ106" t="inlineStr"/>
-      <c r="CA106" t="inlineStr"/>
-      <c r="CB106" t="inlineStr"/>
-      <c r="CC106" t="inlineStr"/>
-      <c r="CD106" t="inlineStr"/>
-      <c r="CE106" t="inlineStr"/>
-      <c r="CF106" t="inlineStr"/>
-      <c r="CG106" t="inlineStr"/>
-      <c r="CH106" t="inlineStr"/>
-      <c r="CI106" t="inlineStr"/>
-      <c r="CJ106" t="inlineStr"/>
-      <c r="CK106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>:001</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Soil inventory - pedological/geological characterization</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>SOGEO_001</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>so:c2</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
-      <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
-      <c r="AD107" t="inlineStr"/>
-      <c r="AE107" t="inlineStr"/>
-      <c r="AF107" t="inlineStr"/>
-      <c r="AG107" t="inlineStr"/>
-      <c r="AH107" t="inlineStr"/>
-      <c r="AI107" t="inlineStr"/>
-      <c r="AJ107" t="inlineStr"/>
-      <c r="AK107" t="inlineStr"/>
-      <c r="AL107" t="inlineStr"/>
-      <c r="AM107" t="inlineStr"/>
-      <c r="AN107" t="inlineStr"/>
-      <c r="AO107" t="inlineStr"/>
-      <c r="AP107" t="inlineStr"/>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
-      <c r="AS107" t="inlineStr"/>
-      <c r="AT107" t="inlineStr"/>
-      <c r="AU107" t="inlineStr"/>
-      <c r="AV107" t="inlineStr"/>
-      <c r="AW107" t="inlineStr"/>
-      <c r="AX107" t="inlineStr"/>
-      <c r="AY107" t="inlineStr"/>
-      <c r="AZ107" t="inlineStr"/>
-      <c r="BA107" t="inlineStr"/>
-      <c r="BB107" t="inlineStr"/>
-      <c r="BC107" t="inlineStr"/>
-      <c r="BD107" t="inlineStr"/>
-      <c r="BE107" t="inlineStr"/>
-      <c r="BF107" t="inlineStr"/>
-      <c r="BG107" t="inlineStr"/>
-      <c r="BH107" t="inlineStr"/>
-      <c r="BI107" t="inlineStr"/>
-      <c r="BJ107" t="inlineStr"/>
-      <c r="BK107" t="inlineStr"/>
-      <c r="BL107" t="inlineStr"/>
-      <c r="BM107" t="inlineStr"/>
-      <c r="BN107" t="inlineStr"/>
-      <c r="BO107" t="inlineStr"/>
-      <c r="BP107" t="inlineStr"/>
-      <c r="BQ107" t="inlineStr"/>
-      <c r="BR107" t="inlineStr"/>
-      <c r="BS107" t="inlineStr"/>
-      <c r="BT107" t="inlineStr"/>
-      <c r="BU107" t="inlineStr"/>
-      <c r="BV107" t="inlineStr"/>
-      <c r="BW107" t="inlineStr"/>
-      <c r="BX107" t="inlineStr"/>
-      <c r="BY107" t="inlineStr"/>
-      <c r="BZ107" t="inlineStr"/>
-      <c r="CA107" t="inlineStr"/>
-      <c r="CB107" t="inlineStr"/>
-      <c r="CC107" t="inlineStr"/>
-      <c r="CD107" t="inlineStr"/>
-      <c r="CE107" t="inlineStr"/>
-      <c r="CF107" t="inlineStr"/>
-      <c r="CG107" t="inlineStr"/>
-      <c r="CH107" t="inlineStr"/>
-      <c r="CI107" t="inlineStr"/>
-      <c r="CJ107" t="inlineStr"/>
-      <c r="CK107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>:c1</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Sociosphere</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>et:30317</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
-      <c r="AA108" t="inlineStr"/>
-      <c r="AB108" t="inlineStr"/>
-      <c r="AC108" t="inlineStr"/>
-      <c r="AD108" t="inlineStr"/>
-      <c r="AE108" t="inlineStr"/>
-      <c r="AF108" t="inlineStr"/>
-      <c r="AG108" t="inlineStr"/>
-      <c r="AH108" t="inlineStr"/>
-      <c r="AI108" t="inlineStr"/>
-      <c r="AJ108" t="inlineStr"/>
-      <c r="AK108" t="inlineStr"/>
-      <c r="AL108" t="inlineStr"/>
-      <c r="AM108" t="inlineStr"/>
-      <c r="AN108" t="inlineStr"/>
-      <c r="AO108" t="inlineStr"/>
-      <c r="AP108" t="inlineStr"/>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
-      <c r="AS108" t="inlineStr"/>
-      <c r="AT108" t="inlineStr"/>
-      <c r="AU108" t="inlineStr"/>
-      <c r="AV108" t="inlineStr"/>
-      <c r="AW108" t="inlineStr"/>
-      <c r="AX108" t="inlineStr"/>
-      <c r="AY108" t="inlineStr"/>
-      <c r="AZ108" t="inlineStr"/>
-      <c r="BA108" t="inlineStr"/>
-      <c r="BB108" t="inlineStr"/>
-      <c r="BC108" t="inlineStr"/>
-      <c r="BD108" t="inlineStr"/>
-      <c r="BE108" t="inlineStr"/>
-      <c r="BF108" t="inlineStr"/>
-      <c r="BG108" t="inlineStr"/>
-      <c r="BH108" t="inlineStr"/>
-      <c r="BI108" t="inlineStr"/>
-      <c r="BJ108" t="inlineStr"/>
-      <c r="BK108" t="inlineStr"/>
-      <c r="BL108" t="inlineStr"/>
-      <c r="BM108" t="inlineStr"/>
-      <c r="BN108" t="inlineStr"/>
-      <c r="BO108" t="inlineStr"/>
-      <c r="BP108" t="inlineStr"/>
-      <c r="BQ108" t="inlineStr"/>
-      <c r="BR108" t="inlineStr"/>
-      <c r="BS108" t="inlineStr"/>
-      <c r="BT108" t="inlineStr"/>
-      <c r="BU108" t="inlineStr"/>
-      <c r="BV108" t="inlineStr"/>
-      <c r="BW108" t="inlineStr"/>
-      <c r="BX108" t="inlineStr"/>
-      <c r="BY108" t="inlineStr"/>
-      <c r="BZ108" t="inlineStr"/>
-      <c r="CA108" t="inlineStr"/>
-      <c r="CB108" t="inlineStr"/>
-      <c r="CC108" t="inlineStr"/>
-      <c r="CD108" t="inlineStr"/>
-      <c r="CE108" t="inlineStr"/>
-      <c r="CF108" t="inlineStr"/>
-      <c r="CG108" t="inlineStr"/>
-      <c r="CH108" t="inlineStr"/>
-      <c r="CI108" t="inlineStr"/>
-      <c r="CJ108" t="inlineStr"/>
-      <c r="CK108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>:c2</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Geosphere</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>et:30316</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
-      <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
-      <c r="AD109" t="inlineStr"/>
-      <c r="AE109" t="inlineStr"/>
-      <c r="AF109" t="inlineStr"/>
-      <c r="AG109" t="inlineStr"/>
-      <c r="AH109" t="inlineStr"/>
-      <c r="AI109" t="inlineStr"/>
-      <c r="AJ109" t="inlineStr"/>
-      <c r="AK109" t="inlineStr"/>
-      <c r="AL109" t="inlineStr"/>
-      <c r="AM109" t="inlineStr"/>
-      <c r="AN109" t="inlineStr"/>
-      <c r="AO109" t="inlineStr"/>
-      <c r="AP109" t="inlineStr"/>
-      <c r="AQ109" t="inlineStr"/>
-      <c r="AR109" t="inlineStr"/>
-      <c r="AS109" t="inlineStr"/>
-      <c r="AT109" t="inlineStr"/>
-      <c r="AU109" t="inlineStr"/>
-      <c r="AV109" t="inlineStr"/>
-      <c r="AW109" t="inlineStr"/>
-      <c r="AX109" t="inlineStr"/>
-      <c r="AY109" t="inlineStr"/>
-      <c r="AZ109" t="inlineStr"/>
-      <c r="BA109" t="inlineStr"/>
-      <c r="BB109" t="inlineStr"/>
-      <c r="BC109" t="inlineStr"/>
-      <c r="BD109" t="inlineStr"/>
-      <c r="BE109" t="inlineStr"/>
-      <c r="BF109" t="inlineStr"/>
-      <c r="BG109" t="inlineStr"/>
-      <c r="BH109" t="inlineStr"/>
-      <c r="BI109" t="inlineStr"/>
-      <c r="BJ109" t="inlineStr"/>
-      <c r="BK109" t="inlineStr"/>
-      <c r="BL109" t="inlineStr"/>
-      <c r="BM109" t="inlineStr"/>
-      <c r="BN109" t="inlineStr"/>
-      <c r="BO109" t="inlineStr"/>
-      <c r="BP109" t="inlineStr"/>
-      <c r="BQ109" t="inlineStr"/>
-      <c r="BR109" t="inlineStr"/>
-      <c r="BS109" t="inlineStr"/>
-      <c r="BT109" t="inlineStr"/>
-      <c r="BU109" t="inlineStr"/>
-      <c r="BV109" t="inlineStr"/>
-      <c r="BW109" t="inlineStr"/>
-      <c r="BX109" t="inlineStr"/>
-      <c r="BY109" t="inlineStr"/>
-      <c r="BZ109" t="inlineStr"/>
-      <c r="CA109" t="inlineStr"/>
-      <c r="CB109" t="inlineStr"/>
-      <c r="CC109" t="inlineStr"/>
-      <c r="CD109" t="inlineStr"/>
-      <c r="CE109" t="inlineStr"/>
-      <c r="CF109" t="inlineStr"/>
-      <c r="CG109" t="inlineStr"/>
-      <c r="CH109" t="inlineStr"/>
-      <c r="CI109" t="inlineStr"/>
-      <c r="CJ109" t="inlineStr"/>
-      <c r="CK109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>:c3</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Hydrosphere</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>et:21922</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
-      <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr"/>
-      <c r="AC110" t="inlineStr"/>
-      <c r="AD110" t="inlineStr"/>
-      <c r="AE110" t="inlineStr"/>
-      <c r="AF110" t="inlineStr"/>
-      <c r="AG110" t="inlineStr"/>
-      <c r="AH110" t="inlineStr"/>
-      <c r="AI110" t="inlineStr"/>
-      <c r="AJ110" t="inlineStr"/>
-      <c r="AK110" t="inlineStr"/>
-      <c r="AL110" t="inlineStr"/>
-      <c r="AM110" t="inlineStr"/>
-      <c r="AN110" t="inlineStr"/>
-      <c r="AO110" t="inlineStr"/>
-      <c r="AP110" t="inlineStr"/>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
-      <c r="AS110" t="inlineStr"/>
-      <c r="AT110" t="inlineStr"/>
-      <c r="AU110" t="inlineStr"/>
-      <c r="AV110" t="inlineStr"/>
-      <c r="AW110" t="inlineStr"/>
-      <c r="AX110" t="inlineStr"/>
-      <c r="AY110" t="inlineStr"/>
-      <c r="AZ110" t="inlineStr"/>
-      <c r="BA110" t="inlineStr"/>
-      <c r="BB110" t="inlineStr"/>
-      <c r="BC110" t="inlineStr"/>
-      <c r="BD110" t="inlineStr"/>
-      <c r="BE110" t="inlineStr"/>
-      <c r="BF110" t="inlineStr"/>
-      <c r="BG110" t="inlineStr"/>
-      <c r="BH110" t="inlineStr"/>
-      <c r="BI110" t="inlineStr"/>
-      <c r="BJ110" t="inlineStr"/>
-      <c r="BK110" t="inlineStr"/>
-      <c r="BL110" t="inlineStr"/>
-      <c r="BM110" t="inlineStr"/>
-      <c r="BN110" t="inlineStr"/>
-      <c r="BO110" t="inlineStr"/>
-      <c r="BP110" t="inlineStr"/>
-      <c r="BQ110" t="inlineStr"/>
-      <c r="BR110" t="inlineStr"/>
-      <c r="BS110" t="inlineStr"/>
-      <c r="BT110" t="inlineStr"/>
-      <c r="BU110" t="inlineStr"/>
-      <c r="BV110" t="inlineStr"/>
-      <c r="BW110" t="inlineStr"/>
-      <c r="BX110" t="inlineStr"/>
-      <c r="BY110" t="inlineStr"/>
-      <c r="BZ110" t="inlineStr"/>
-      <c r="CA110" t="inlineStr"/>
-      <c r="CB110" t="inlineStr"/>
-      <c r="CC110" t="inlineStr"/>
-      <c r="CD110" t="inlineStr"/>
-      <c r="CE110" t="inlineStr"/>
-      <c r="CF110" t="inlineStr"/>
-      <c r="CG110" t="inlineStr"/>
-      <c r="CH110" t="inlineStr"/>
-      <c r="CI110" t="inlineStr"/>
-      <c r="CJ110" t="inlineStr"/>
-      <c r="CK110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>:c4</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Biosphere</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>et:21921</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
-      <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr"/>
-      <c r="AC111" t="inlineStr"/>
-      <c r="AD111" t="inlineStr"/>
-      <c r="AE111" t="inlineStr"/>
-      <c r="AF111" t="inlineStr"/>
-      <c r="AG111" t="inlineStr"/>
-      <c r="AH111" t="inlineStr"/>
-      <c r="AI111" t="inlineStr"/>
-      <c r="AJ111" t="inlineStr"/>
-      <c r="AK111" t="inlineStr"/>
-      <c r="AL111" t="inlineStr"/>
-      <c r="AM111" t="inlineStr"/>
-      <c r="AN111" t="inlineStr"/>
-      <c r="AO111" t="inlineStr"/>
-      <c r="AP111" t="inlineStr"/>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
-      <c r="AS111" t="inlineStr"/>
-      <c r="AT111" t="inlineStr"/>
-      <c r="AU111" t="inlineStr"/>
-      <c r="AV111" t="inlineStr"/>
-      <c r="AW111" t="inlineStr"/>
-      <c r="AX111" t="inlineStr"/>
-      <c r="AY111" t="inlineStr"/>
-      <c r="AZ111" t="inlineStr"/>
-      <c r="BA111" t="inlineStr"/>
-      <c r="BB111" t="inlineStr"/>
-      <c r="BC111" t="inlineStr"/>
-      <c r="BD111" t="inlineStr"/>
-      <c r="BE111" t="inlineStr"/>
-      <c r="BF111" t="inlineStr"/>
-      <c r="BG111" t="inlineStr"/>
-      <c r="BH111" t="inlineStr"/>
-      <c r="BI111" t="inlineStr"/>
-      <c r="BJ111" t="inlineStr"/>
-      <c r="BK111" t="inlineStr"/>
-      <c r="BL111" t="inlineStr"/>
-      <c r="BM111" t="inlineStr"/>
-      <c r="BN111" t="inlineStr"/>
-      <c r="BO111" t="inlineStr"/>
-      <c r="BP111" t="inlineStr"/>
-      <c r="BQ111" t="inlineStr"/>
-      <c r="BR111" t="inlineStr"/>
-      <c r="BS111" t="inlineStr"/>
-      <c r="BT111" t="inlineStr"/>
-      <c r="BU111" t="inlineStr"/>
-      <c r="BV111" t="inlineStr"/>
-      <c r="BW111" t="inlineStr"/>
-      <c r="BX111" t="inlineStr"/>
-      <c r="BY111" t="inlineStr"/>
-      <c r="BZ111" t="inlineStr"/>
-      <c r="CA111" t="inlineStr"/>
-      <c r="CB111" t="inlineStr"/>
-      <c r="CC111" t="inlineStr"/>
-      <c r="CD111" t="inlineStr"/>
-      <c r="CE111" t="inlineStr"/>
-      <c r="CF111" t="inlineStr"/>
-      <c r="CG111" t="inlineStr"/>
-      <c r="CH111" t="inlineStr"/>
-      <c r="CI111" t="inlineStr"/>
-      <c r="CJ111" t="inlineStr"/>
-      <c r="CK111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>:c5</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Atmosphere</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>et:21920</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr"/>
-      <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr"/>
-      <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr"/>
-      <c r="AH112" t="inlineStr"/>
-      <c r="AI112" t="inlineStr"/>
-      <c r="AJ112" t="inlineStr"/>
-      <c r="AK112" t="inlineStr"/>
-      <c r="AL112" t="inlineStr"/>
-      <c r="AM112" t="inlineStr"/>
-      <c r="AN112" t="inlineStr"/>
-      <c r="AO112" t="inlineStr"/>
-      <c r="AP112" t="inlineStr"/>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
-      <c r="AS112" t="inlineStr"/>
-      <c r="AT112" t="inlineStr"/>
-      <c r="AU112" t="inlineStr"/>
-      <c r="AV112" t="inlineStr"/>
-      <c r="AW112" t="inlineStr"/>
-      <c r="AX112" t="inlineStr"/>
-      <c r="AY112" t="inlineStr"/>
-      <c r="AZ112" t="inlineStr"/>
-      <c r="BA112" t="inlineStr"/>
-      <c r="BB112" t="inlineStr"/>
-      <c r="BC112" t="inlineStr"/>
-      <c r="BD112" t="inlineStr"/>
-      <c r="BE112" t="inlineStr"/>
-      <c r="BF112" t="inlineStr"/>
-      <c r="BG112" t="inlineStr"/>
-      <c r="BH112" t="inlineStr"/>
-      <c r="BI112" t="inlineStr"/>
-      <c r="BJ112" t="inlineStr"/>
-      <c r="BK112" t="inlineStr"/>
-      <c r="BL112" t="inlineStr"/>
-      <c r="BM112" t="inlineStr"/>
-      <c r="BN112" t="inlineStr"/>
-      <c r="BO112" t="inlineStr"/>
-      <c r="BP112" t="inlineStr"/>
-      <c r="BQ112" t="inlineStr"/>
-      <c r="BR112" t="inlineStr"/>
-      <c r="BS112" t="inlineStr"/>
-      <c r="BT112" t="inlineStr"/>
-      <c r="BU112" t="inlineStr"/>
-      <c r="BV112" t="inlineStr"/>
-      <c r="BW112" t="inlineStr"/>
-      <c r="BX112" t="inlineStr"/>
-      <c r="BY112" t="inlineStr"/>
-      <c r="BZ112" t="inlineStr"/>
-      <c r="CA112" t="inlineStr"/>
-      <c r="CB112" t="inlineStr"/>
-      <c r="CC112" t="inlineStr"/>
-      <c r="CD112" t="inlineStr"/>
-      <c r="CE112" t="inlineStr"/>
-      <c r="CF112" t="inlineStr"/>
-      <c r="CG112" t="inlineStr"/>
-      <c r="CH112" t="inlineStr"/>
-      <c r="CI112" t="inlineStr"/>
-      <c r="CJ112" t="inlineStr"/>
-      <c r="CK112" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK81"/>
+  <dimension ref="A1:CJ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,13 +516,12 @@
       <c r="CF1" t="inlineStr"/>
       <c r="CG1" t="inlineStr"/>
       <c r="CH1" t="inlineStr"/>
-      <c r="CI1" t="inlineStr"/>
-      <c r="CJ1" t="inlineStr">
+      <c r="CI1" t="inlineStr">
         <is>
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="CK1" t="inlineStr"/>
+      <c r="CJ1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -625,7 +624,6 @@
       <c r="CH2" t="inlineStr"/>
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr"/>
-      <c r="CK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -728,7 +726,6 @@
       <c r="CH3" t="inlineStr"/>
       <c r="CI3" t="inlineStr"/>
       <c r="CJ3" t="inlineStr"/>
-      <c r="CK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -831,7 +828,6 @@
       <c r="CH4" t="inlineStr"/>
       <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr"/>
-      <c r="CK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -934,7 +930,6 @@
       <c r="CH5" t="inlineStr"/>
       <c r="CI5" t="inlineStr"/>
       <c r="CJ5" t="inlineStr"/>
-      <c r="CK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1037,7 +1032,6 @@
       <c r="CH6" t="inlineStr"/>
       <c r="CI6" t="inlineStr"/>
       <c r="CJ6" t="inlineStr"/>
-      <c r="CK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1140,7 +1134,6 @@
       <c r="CH7" t="inlineStr"/>
       <c r="CI7" t="inlineStr"/>
       <c r="CJ7" t="inlineStr"/>
-      <c r="CK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1243,7 +1236,6 @@
       <c r="CH8" t="inlineStr"/>
       <c r="CI8" t="inlineStr"/>
       <c r="CJ8" t="inlineStr"/>
-      <c r="CK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1346,7 +1338,6 @@
       <c r="CH9" t="inlineStr"/>
       <c r="CI9" t="inlineStr"/>
       <c r="CJ9" t="inlineStr"/>
-      <c r="CK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1449,7 +1440,6 @@
       <c r="CH10" t="inlineStr"/>
       <c r="CI10" t="inlineStr"/>
       <c r="CJ10" t="inlineStr"/>
-      <c r="CK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1552,7 +1542,6 @@
       <c r="CH11" t="inlineStr"/>
       <c r="CI11" t="inlineStr"/>
       <c r="CJ11" t="inlineStr"/>
-      <c r="CK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1655,7 +1644,6 @@
       <c r="CH12" t="inlineStr"/>
       <c r="CI12" t="inlineStr"/>
       <c r="CJ12" t="inlineStr"/>
-      <c r="CK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1754,7 +1742,6 @@
       <c r="CH13" t="inlineStr"/>
       <c r="CI13" t="inlineStr"/>
       <c r="CJ13" t="inlineStr"/>
-      <c r="CK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1853,7 +1840,6 @@
       <c r="CH14" t="inlineStr"/>
       <c r="CI14" t="inlineStr"/>
       <c r="CJ14" t="inlineStr"/>
-      <c r="CK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1952,7 +1938,6 @@
       <c r="CH15" t="inlineStr"/>
       <c r="CI15" t="inlineStr"/>
       <c r="CJ15" t="inlineStr"/>
-      <c r="CK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2047,7 +2032,6 @@
       <c r="CH16" t="inlineStr"/>
       <c r="CI16" t="inlineStr"/>
       <c r="CJ16" t="inlineStr"/>
-      <c r="CK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2146,7 +2130,6 @@
       <c r="CH17" t="inlineStr"/>
       <c r="CI17" t="inlineStr"/>
       <c r="CJ17" t="inlineStr"/>
-      <c r="CK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2245,7 +2228,6 @@
       <c r="CH18" t="inlineStr"/>
       <c r="CI18" t="inlineStr"/>
       <c r="CJ18" t="inlineStr"/>
-      <c r="CK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2344,7 +2326,6 @@
       <c r="CH19" t="inlineStr"/>
       <c r="CI19" t="inlineStr"/>
       <c r="CJ19" t="inlineStr"/>
-      <c r="CK19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2443,7 +2424,6 @@
       <c r="CH20" t="inlineStr"/>
       <c r="CI20" t="inlineStr"/>
       <c r="CJ20" t="inlineStr"/>
-      <c r="CK20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2542,7 +2522,6 @@
       <c r="CH21" t="inlineStr"/>
       <c r="CI21" t="inlineStr"/>
       <c r="CJ21" t="inlineStr"/>
-      <c r="CK21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2567,90 +2546,86 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>skos:inScheme</t>
+          <t>skos:definition@en</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
+          <t>dct:source(separator=",")</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ^skos:member</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>skos:exactMatch(separator=",")</t>
+          <t>dct:isReplacedBy</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>dct:isReplacedBy</t>
+          <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>skos:closeMatch(separator=",")</t>
+          <t>skos:narrowMatch(separator=",")</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>skos:narrowMatch(separator=",")</t>
+          <t>skos:related(separator=",")</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>skos:related(separator=",")</t>
+          <t>obo:RO_0002351(separator=",")</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>obo:RO_0002351(separator=",")</t>
+          <t>skos:broadMatch(separator=",")</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>skos:broadMatch(separator=",")</t>
+          <t>owl:sameAs(separator=",")</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>owl:sameAs(separator=",")</t>
+          <t>rdfs:seeAlso</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>rdfs:seeAlso</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:date</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
           <t>dct:modified^^xsd:date</t>
         </is>
       </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
@@ -2718,28 +2693,31 @@
       <c r="CH22" t="inlineStr"/>
       <c r="CI22" t="inlineStr"/>
       <c r="CJ22" t="inlineStr"/>
-      <c r="CK22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>:000</t>
+          <t>:027</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Standard observations</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>skos:ConceptSheme</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Meteorological data</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SOATM_027</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -2749,28 +2727,28 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -2837,41 +2815,32 @@
       <c r="CH23" t="inlineStr"/>
       <c r="CI23" t="inlineStr"/>
       <c r="CJ23" t="inlineStr"/>
-      <c r="CK23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>:027</t>
+          <t>:028</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Meteorological data</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Radiation</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SOATM_027</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOATM_028</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -2880,28 +2849,24 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -2968,41 +2933,32 @@
       <c r="CH24" t="inlineStr"/>
       <c r="CI24" t="inlineStr"/>
       <c r="CJ24" t="inlineStr"/>
-      <c r="CK24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>:028</t>
+          <t>:098</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Radiation</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Ground heat flux</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SOATM_028</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOATM_098</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -3011,23 +2967,23 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -3095,41 +3051,32 @@
       <c r="CH25" t="inlineStr"/>
       <c r="CI25" t="inlineStr"/>
       <c r="CJ25" t="inlineStr"/>
-      <c r="CK25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>:098</t>
+          <t>:103</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ground heat flux</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Atmospheric deposition in precipitation</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SOATM_098</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOATM_103</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3138,23 +3085,23 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -3222,41 +3169,32 @@
       <c r="CH26" t="inlineStr"/>
       <c r="CI26" t="inlineStr"/>
       <c r="CJ26" t="inlineStr"/>
-      <c r="CK26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>:103</t>
+          <t>:108</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Atmospheric deposition in precipitation</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Dry deposition of N-components</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SOATM_103</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOATM_108</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3265,23 +3203,23 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -3349,41 +3287,32 @@
       <c r="CH27" t="inlineStr"/>
       <c r="CI27" t="inlineStr"/>
       <c r="CJ27" t="inlineStr"/>
-      <c r="CK27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>:108</t>
+          <t>:176</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dry deposition of N-components</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SOATM_108</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOATM_176</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3392,23 +3321,23 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -3476,41 +3405,32 @@
       <c r="CH28" t="inlineStr"/>
       <c r="CI28" t="inlineStr"/>
       <c r="CJ28" t="inlineStr"/>
-      <c r="CK28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>:176</t>
+          <t>:014</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Flying insects</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SOATM_176</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_014</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3519,23 +3439,23 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
@@ -3603,41 +3523,32 @@
       <c r="CH29" t="inlineStr"/>
       <c r="CI29" t="inlineStr"/>
       <c r="CJ29" t="inlineStr"/>
-      <c r="CK29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>:014</t>
+          <t>:015</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Flying insects</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Vegetation phenology and Leaf Area Index – European scale</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SOBIO_014</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_015</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>so:c4</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -3646,23 +3557,23 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
@@ -3730,41 +3641,32 @@
       <c r="CH30" t="inlineStr"/>
       <c r="CI30" t="inlineStr"/>
       <c r="CJ30" t="inlineStr"/>
-      <c r="CK30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>:015</t>
+          <t>:016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vegetation phenology and Leaf Area Index – European scale</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Vegetation phenology – site scale</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SOBIO_015</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_016</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -3773,23 +3675,23 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
@@ -3857,41 +3759,32 @@
       <c r="CH31" t="inlineStr"/>
       <c r="CI31" t="inlineStr"/>
       <c r="CJ31" t="inlineStr"/>
-      <c r="CK31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>:016</t>
+          <t>:017</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vegetation phenology – site scale</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Vegetation composition (mainly species level+abundance)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SOBIO_016</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_017</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3900,23 +3793,23 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
@@ -3984,41 +3877,32 @@
       <c r="CH32" t="inlineStr"/>
       <c r="CI32" t="inlineStr"/>
       <c r="CJ32" t="inlineStr"/>
-      <c r="CK32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>:017</t>
+          <t>:018</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vegetation composition (mainly species level+abundance)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Birds, bats, frogs, insects using acoustic recording</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SOBIO_017</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_018</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>so:c4</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -4027,23 +3911,23 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
@@ -4111,41 +3995,32 @@
       <c r="CH33" t="inlineStr"/>
       <c r="CI33" t="inlineStr"/>
       <c r="CJ33" t="inlineStr"/>
-      <c r="CK33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>:018</t>
+          <t>:019</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Birds, bats, frogs, insects using acoustic recording</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Pollen and spores</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SOBIO_018</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_019</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>so:c4</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -4154,23 +4029,23 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
@@ -4238,41 +4113,32 @@
       <c r="CH34" t="inlineStr"/>
       <c r="CI34" t="inlineStr"/>
       <c r="CJ34" t="inlineStr"/>
-      <c r="CK34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>:019</t>
+          <t>:021</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pollen and spores</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>eDNA Water</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SOBIO_019</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_021</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>so:c4</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -4281,23 +4147,23 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -4365,41 +4231,32 @@
       <c r="CH35" t="inlineStr"/>
       <c r="CI35" t="inlineStr"/>
       <c r="CJ35" t="inlineStr"/>
-      <c r="CK35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>:021</t>
+          <t>:022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>eDNA Water</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>eDNA soil</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SOBIO_021</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_022</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>so:c4</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -4408,23 +4265,23 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -4492,41 +4349,32 @@
       <c r="CH36" t="inlineStr"/>
       <c r="CI36" t="inlineStr"/>
       <c r="CJ36" t="inlineStr"/>
-      <c r="CK36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>:022</t>
+          <t>:023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>eDNA soil</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Vegetation aboveground biomass - forest (site scale)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SOBIO_022</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_023</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>so:c4</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -4535,23 +4383,23 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -4619,41 +4467,32 @@
       <c r="CH37" t="inlineStr"/>
       <c r="CI37" t="inlineStr"/>
       <c r="CJ37" t="inlineStr"/>
-      <c r="CK37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>:023</t>
+          <t>:024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass - forest (site scale)</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Vegetation aboveground biomass – non-forested sites</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SOBIO_023</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_024</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -4662,23 +4501,23 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -4746,41 +4585,32 @@
       <c r="CH38" t="inlineStr"/>
       <c r="CI38" t="inlineStr"/>
       <c r="CJ38" t="inlineStr"/>
-      <c r="CK38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>:024</t>
+          <t>:025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass – non-forested sites</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Leaf area index - forests (site scale)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SOBIO_024</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_025</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -4789,23 +4619,23 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
@@ -4873,41 +4703,32 @@
       <c r="CH39" t="inlineStr"/>
       <c r="CI39" t="inlineStr"/>
       <c r="CJ39" t="inlineStr"/>
-      <c r="CK39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>:025</t>
+          <t>:026</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Leaf area index - forests (site scale)</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Leaf area index – non-forested sites</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SOBIO_025</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_026</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -4916,23 +4737,23 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
@@ -5000,41 +4821,32 @@
       <c r="CH40" t="inlineStr"/>
       <c r="CI40" t="inlineStr"/>
       <c r="CJ40" t="inlineStr"/>
-      <c r="CK40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>:026</t>
+          <t>:090</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Leaf area index – non-forested sites</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Gross primary production</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOBIO_026</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_090</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -5043,23 +4855,23 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
@@ -5127,41 +4939,32 @@
       <c r="CH41" t="inlineStr"/>
       <c r="CI41" t="inlineStr"/>
       <c r="CJ41" t="inlineStr"/>
-      <c r="CK41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>:090</t>
+          <t>:091</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gross primary production</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Transpiration (plants)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOBIO_090</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_091</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5170,23 +4973,23 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
@@ -5254,41 +5057,32 @@
       <c r="CH42" t="inlineStr"/>
       <c r="CI42" t="inlineStr"/>
       <c r="CJ42" t="inlineStr"/>
-      <c r="CK42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>:091</t>
+          <t>:092</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transpiration (plants)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Aboveground litterfall - forests</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SOBIO_091</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_092</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5297,23 +5091,23 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
@@ -5381,41 +5175,32 @@
       <c r="CH43" t="inlineStr"/>
       <c r="CI43" t="inlineStr"/>
       <c r="CJ43" t="inlineStr"/>
-      <c r="CK43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>:092</t>
+          <t>:093</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aboveground litterfall - forests</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Belowground biomass - terrestrial</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SOBIO_092</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_093</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5424,23 +5209,23 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
@@ -5508,41 +5293,32 @@
       <c r="CH44" t="inlineStr"/>
       <c r="CI44" t="inlineStr"/>
       <c r="CJ44" t="inlineStr"/>
-      <c r="CK44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>:093</t>
+          <t>:095</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Belowground biomass - terrestrial</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SOBIO_093</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_095</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5551,23 +5327,23 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
@@ -5635,41 +5411,32 @@
       <c r="CH45" t="inlineStr"/>
       <c r="CI45" t="inlineStr"/>
       <c r="CJ45" t="inlineStr"/>
-      <c r="CK45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>:095</t>
+          <t>:096</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SOBIO_095</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_096</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -5678,23 +5445,23 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
@@ -5762,41 +5529,32 @@
       <c r="CH46" t="inlineStr"/>
       <c r="CI46" t="inlineStr"/>
       <c r="CJ46" t="inlineStr"/>
-      <c r="CK46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>:096</t>
+          <t>:140</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Vegetation structure - site scale</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SOBIO_096</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_140</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>so:c4</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -5805,23 +5563,23 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
@@ -5889,41 +5647,32 @@
       <c r="CH47" t="inlineStr"/>
       <c r="CI47" t="inlineStr"/>
       <c r="CJ47" t="inlineStr"/>
-      <c r="CK47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>:140</t>
+          <t>:177</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Vegetation structure - site scale</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Tree growth</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SOBIO_140</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOBIO_177</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -5932,23 +5681,23 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
@@ -6016,41 +5765,32 @@
       <c r="CH48" t="inlineStr"/>
       <c r="CI48" t="inlineStr"/>
       <c r="CJ48" t="inlineStr"/>
-      <c r="CK48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>:177</t>
+          <t>:003</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tree growth</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Soil chemical and physical characteristics</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SOBIO_177</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOGEO_003</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>so:c2</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -6059,23 +5799,23 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
@@ -6143,41 +5883,32 @@
       <c r="CH49" t="inlineStr"/>
       <c r="CI49" t="inlineStr"/>
       <c r="CJ49" t="inlineStr"/>
-      <c r="CK49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>:003</t>
+          <t>:048</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Soil chemical and physical characteristics</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Percolation/infiltration - soil</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SOGEO_003</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOGEO_048</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>so:c2</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -6186,23 +5917,23 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
@@ -6270,41 +6001,32 @@
       <c r="CH50" t="inlineStr"/>
       <c r="CI50" t="inlineStr"/>
       <c r="CJ50" t="inlineStr"/>
-      <c r="CK50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>:048</t>
+          <t>:155</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Percolation/infiltration - soil</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Sediment (aquatic and marine) inventory</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SOGEO_048</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOGEO_155</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>so:c2</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -6313,23 +6035,23 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
@@ -6397,41 +6119,32 @@
       <c r="CH51" t="inlineStr"/>
       <c r="CI51" t="inlineStr"/>
       <c r="CJ51" t="inlineStr"/>
-      <c r="CK51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>:155</t>
+          <t>:167</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sediment (aquatic and marine) inventory</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Soil water chemical characteristics</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SOGEO_155</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOGEO_167</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>so:c2</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -6440,23 +6153,23 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
@@ -6524,41 +6237,32 @@
       <c r="CH52" t="inlineStr"/>
       <c r="CI52" t="inlineStr"/>
       <c r="CJ52" t="inlineStr"/>
-      <c r="CK52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>:167</t>
+          <t>:004</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Soil water chemical characteristics</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SOGEO_167</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_004</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>so:c2</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -6567,23 +6271,23 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
@@ -6651,41 +6355,32 @@
       <c r="CH53" t="inlineStr"/>
       <c r="CI53" t="inlineStr"/>
       <c r="CJ53" t="inlineStr"/>
-      <c r="CK53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>:004</t>
+          <t>:005</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Physical and chemical water characteristics - surface water (running waters)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SOHYD_004</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_005</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -6694,23 +6389,23 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
@@ -6778,41 +6473,32 @@
       <c r="CH54" t="inlineStr"/>
       <c r="CI54" t="inlineStr"/>
       <c r="CJ54" t="inlineStr"/>
-      <c r="CK54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>:005</t>
+          <t>:006</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - surface water (running waters)</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Physical and chemical water characteristics - groundwater</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SOHYD_005</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_006</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -6821,23 +6507,23 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
@@ -6905,41 +6591,32 @@
       <c r="CH55" t="inlineStr"/>
       <c r="CI55" t="inlineStr"/>
       <c r="CJ55" t="inlineStr"/>
-      <c r="CK55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>:006</t>
+          <t>:010</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - groundwater</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Water level - surface water (running water)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SOHYD_006</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_010</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -6948,23 +6625,23 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
@@ -7032,41 +6709,32 @@
       <c r="CH56" t="inlineStr"/>
       <c r="CI56" t="inlineStr"/>
       <c r="CJ56" t="inlineStr"/>
-      <c r="CK56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>:010</t>
+          <t>:011</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Water level - surface water (running water)</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Ice cover/thickness (standing and transitional water)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SOHYD_010</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_011</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -7075,23 +6743,23 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
@@ -7159,41 +6827,32 @@
       <c r="CH57" t="inlineStr"/>
       <c r="CI57" t="inlineStr"/>
       <c r="CJ57" t="inlineStr"/>
-      <c r="CK57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>:011</t>
+          <t>:012</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ice cover/thickness (standing and transitional water)</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Snow cover and depths</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SOHYD_011</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_012</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -7202,23 +6861,23 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
@@ -7286,41 +6945,32 @@
       <c r="CH58" t="inlineStr"/>
       <c r="CI58" t="inlineStr"/>
       <c r="CJ58" t="inlineStr"/>
-      <c r="CK58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>:012</t>
+          <t>:058</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Snow cover and depths</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SOHYD_012</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_058</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -7329,23 +6979,23 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
@@ -7413,41 +7063,32 @@
       <c r="CH59" t="inlineStr"/>
       <c r="CI59" t="inlineStr"/>
       <c r="CJ59" t="inlineStr"/>
-      <c r="CK59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>:058</t>
+          <t>:059</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Stable Isotopes (18O, 2H) - groundwater</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SOHYD_058</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_059</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -7456,23 +7097,23 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
@@ -7540,41 +7181,32 @@
       <c r="CH60" t="inlineStr"/>
       <c r="CI60" t="inlineStr"/>
       <c r="CJ60" t="inlineStr"/>
-      <c r="CK60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>:059</t>
+          <t>:062</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Stable Isotopes (18O, 2H) - groundwater</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SOHYD_059</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_062</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -7583,23 +7215,23 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
@@ -7667,41 +7299,32 @@
       <c r="CH61" t="inlineStr"/>
       <c r="CI61" t="inlineStr"/>
       <c r="CJ61" t="inlineStr"/>
-      <c r="CK61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>:062</t>
+          <t>:064</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SOHYD_062</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_064</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -7710,23 +7333,23 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
@@ -7794,41 +7417,32 @@
       <c r="CH62" t="inlineStr"/>
       <c r="CI62" t="inlineStr"/>
       <c r="CJ62" t="inlineStr"/>
-      <c r="CK62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>:064</t>
+          <t>:065</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>DOM composition - groundwater</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SOHYD_064</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_065</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -7837,23 +7451,23 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
@@ -7921,41 +7535,32 @@
       <c r="CH63" t="inlineStr"/>
       <c r="CI63" t="inlineStr"/>
       <c r="CJ63" t="inlineStr"/>
-      <c r="CK63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>:065</t>
+          <t>:067</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DOM composition - groundwater</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SOHYD_065</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_067</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -7964,23 +7569,23 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
@@ -8048,41 +7653,32 @@
       <c r="CH64" t="inlineStr"/>
       <c r="CI64" t="inlineStr"/>
       <c r="CJ64" t="inlineStr"/>
-      <c r="CK64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>:067</t>
+          <t>:164</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Glacier front variation</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SOHYD_067</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_164</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -8091,23 +7687,23 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
@@ -8175,41 +7771,32 @@
       <c r="CH65" t="inlineStr"/>
       <c r="CI65" t="inlineStr"/>
       <c r="CJ65" t="inlineStr"/>
-      <c r="CK65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>:164</t>
+          <t>:165</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Glacier front variation</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Glacier mass balance</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SOHYD_164</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_165</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -8218,23 +7805,23 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
@@ -8302,41 +7889,32 @@
       <c r="CH66" t="inlineStr"/>
       <c r="CI66" t="inlineStr"/>
       <c r="CJ66" t="inlineStr"/>
-      <c r="CK66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>:165</t>
+          <t>:166</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Glacier mass balance</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Glacier area</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SOHYD_165</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_166</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -8345,23 +7923,23 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
@@ -8429,41 +8007,32 @@
       <c r="CH67" t="inlineStr"/>
       <c r="CI67" t="inlineStr"/>
       <c r="CJ67" t="inlineStr"/>
-      <c r="CK67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>:166</t>
+          <t>:168</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Glacier area</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Soil water content/soil temperature</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SOHYD_166</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_168</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -8472,23 +8041,23 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
@@ -8556,41 +8125,32 @@
       <c r="CH68" t="inlineStr"/>
       <c r="CI68" t="inlineStr"/>
       <c r="CJ68" t="inlineStr"/>
-      <c r="CK68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>:168</t>
+          <t>:169</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Soil water content/soil temperature</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SOHYD_168</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_169</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -8599,23 +8159,23 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
@@ -8683,41 +8243,32 @@
       <c r="CH69" t="inlineStr"/>
       <c r="CI69" t="inlineStr"/>
       <c r="CJ69" t="inlineStr"/>
-      <c r="CK69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>:169</t>
+          <t>:170</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SOHYD_169</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_170</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -8726,23 +8277,23 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
@@ -8810,41 +8361,32 @@
       <c r="CH70" t="inlineStr"/>
       <c r="CI70" t="inlineStr"/>
       <c r="CJ70" t="inlineStr"/>
-      <c r="CK70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>:170</t>
+          <t>:171</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SOHYD_170</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_171</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -8853,23 +8395,23 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
@@ -8937,41 +8479,32 @@
       <c r="CH71" t="inlineStr"/>
       <c r="CI71" t="inlineStr"/>
       <c r="CJ71" t="inlineStr"/>
-      <c r="CK71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>:171</t>
+          <t>:172</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SOHYD_171</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_172</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>so:c3</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -8980,23 +8513,23 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
@@ -9064,41 +8597,32 @@
       <c r="CH72" t="inlineStr"/>
       <c r="CI72" t="inlineStr"/>
       <c r="CJ72" t="inlineStr"/>
-      <c r="CK72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>:172</t>
+          <t>:173</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SOHYD_172</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_173</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>so:c4</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -9107,23 +8631,23 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
@@ -9191,41 +8715,32 @@
       <c r="CH73" t="inlineStr"/>
       <c r="CI73" t="inlineStr"/>
       <c r="CJ73" t="inlineStr"/>
-      <c r="CK73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>:173</t>
+          <t>:174</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Secchi-Depth; standing waters and transitional waters</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SOHYD_173</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOHYD_174</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>so:c4</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -9234,23 +8749,23 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
@@ -9318,66 +8833,61 @@
       <c r="CH74" t="inlineStr"/>
       <c r="CI74" t="inlineStr"/>
       <c r="CJ74" t="inlineStr"/>
-      <c r="CK74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>:174</t>
+          <t>:001</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Secchi-Depth; standing waters and transitional waters</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
+          <t>Soil inventory - pedological/geological characterization</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SOHYD_174</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>SOGEO_001</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>so:c3</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>so:c2</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
@@ -9445,39 +8955,30 @@
       <c r="CH75" t="inlineStr"/>
       <c r="CI75" t="inlineStr"/>
       <c r="CJ75" t="inlineStr"/>
-      <c r="CK75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>:001</t>
+          <t>:c1</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Soil inventory - pedological/geological characterization</t>
+          <t>Sociosphere</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>skos:Concept,iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>SOGEO_001</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>:000</t>
-        </is>
-      </c>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>et:30317</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9485,30 +8986,26 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
-        </is>
-      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
@@ -9576,17 +9073,16 @@
       <c r="CH76" t="inlineStr"/>
       <c r="CI76" t="inlineStr"/>
       <c r="CJ76" t="inlineStr"/>
-      <c r="CK76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>:c1</t>
+          <t>:c2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sociosphere</t>
+          <t>Geosphere</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -9598,12 +9094,12 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>et:30317</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>et:30316</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -9611,23 +9107,23 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
@@ -9695,17 +9191,16 @@
       <c r="CH77" t="inlineStr"/>
       <c r="CI77" t="inlineStr"/>
       <c r="CJ77" t="inlineStr"/>
-      <c r="CK77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>:c2</t>
+          <t>:c3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Geosphere</t>
+          <t>Hydrosphere</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -9717,12 +9212,12 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>et:30316</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>et:21922</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
@@ -9730,23 +9225,23 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
@@ -9814,17 +9309,16 @@
       <c r="CH78" t="inlineStr"/>
       <c r="CI78" t="inlineStr"/>
       <c r="CJ78" t="inlineStr"/>
-      <c r="CK78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>:c3</t>
+          <t>:c4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hydrosphere</t>
+          <t>Biosphere</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -9836,12 +9330,12 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>et:21922</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>et:21921</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -9849,23 +9343,23 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
@@ -9933,17 +9427,16 @@
       <c r="CH79" t="inlineStr"/>
       <c r="CI79" t="inlineStr"/>
       <c r="CJ79" t="inlineStr"/>
-      <c r="CK79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>:c4</t>
+          <t>:c5</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Biosphere</t>
+          <t>Atmosphere</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9955,12 +9448,12 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>et:21921</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>et:21920</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -9968,23 +9461,23 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
@@ -10052,126 +9545,6 @@
       <c r="CH80" t="inlineStr"/>
       <c r="CI80" t="inlineStr"/>
       <c r="CJ80" t="inlineStr"/>
-      <c r="CK80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>:c5</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Atmosphere</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>et:21920</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
-      <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr"/>
-      <c r="AC81" t="inlineStr"/>
-      <c r="AD81" t="inlineStr"/>
-      <c r="AE81" t="inlineStr"/>
-      <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="inlineStr"/>
-      <c r="AH81" t="inlineStr"/>
-      <c r="AI81" t="inlineStr"/>
-      <c r="AJ81" t="inlineStr"/>
-      <c r="AK81" t="inlineStr"/>
-      <c r="AL81" t="inlineStr"/>
-      <c r="AM81" t="inlineStr"/>
-      <c r="AN81" t="inlineStr"/>
-      <c r="AO81" t="inlineStr"/>
-      <c r="AP81" t="inlineStr"/>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
-      <c r="AS81" t="inlineStr"/>
-      <c r="AT81" t="inlineStr"/>
-      <c r="AU81" t="inlineStr"/>
-      <c r="AV81" t="inlineStr"/>
-      <c r="AW81" t="inlineStr"/>
-      <c r="AX81" t="inlineStr"/>
-      <c r="AY81" t="inlineStr"/>
-      <c r="AZ81" t="inlineStr"/>
-      <c r="BA81" t="inlineStr"/>
-      <c r="BB81" t="inlineStr"/>
-      <c r="BC81" t="inlineStr"/>
-      <c r="BD81" t="inlineStr"/>
-      <c r="BE81" t="inlineStr"/>
-      <c r="BF81" t="inlineStr"/>
-      <c r="BG81" t="inlineStr"/>
-      <c r="BH81" t="inlineStr"/>
-      <c r="BI81" t="inlineStr"/>
-      <c r="BJ81" t="inlineStr"/>
-      <c r="BK81" t="inlineStr"/>
-      <c r="BL81" t="inlineStr"/>
-      <c r="BM81" t="inlineStr"/>
-      <c r="BN81" t="inlineStr"/>
-      <c r="BO81" t="inlineStr"/>
-      <c r="BP81" t="inlineStr"/>
-      <c r="BQ81" t="inlineStr"/>
-      <c r="BR81" t="inlineStr"/>
-      <c r="BS81" t="inlineStr"/>
-      <c r="BT81" t="inlineStr"/>
-      <c r="BU81" t="inlineStr"/>
-      <c r="BV81" t="inlineStr"/>
-      <c r="BW81" t="inlineStr"/>
-      <c r="BX81" t="inlineStr"/>
-      <c r="BY81" t="inlineStr"/>
-      <c r="BZ81" t="inlineStr"/>
-      <c r="CA81" t="inlineStr"/>
-      <c r="CB81" t="inlineStr"/>
-      <c r="CC81" t="inlineStr"/>
-      <c r="CD81" t="inlineStr"/>
-      <c r="CE81" t="inlineStr"/>
-      <c r="CF81" t="inlineStr"/>
-      <c r="CG81" t="inlineStr"/>
-      <c r="CH81" t="inlineStr"/>
-      <c r="CI81" t="inlineStr"/>
-      <c r="CJ81" t="inlineStr"/>
-      <c r="CK81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF80"/>
+  <dimension ref="A1:AE81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,6 @@
       <c r="AC1" t="inlineStr"/>
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr"/>
-      <c r="AF1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -507,7 +506,6 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -553,7 +551,6 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -599,7 +596,6 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -645,7 +641,6 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -691,7 +686,6 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,12 +695,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>iop</t>
+          <t>skos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/</t>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -737,7 +731,6 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -747,12 +740,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>puv</t>
+          <t>iop</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://w3id.org/env/puv#</t>
+          <t>https://w3id.org/iadopt/ont/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -783,7 +776,6 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -793,12 +785,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>puv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/sosa/</t>
+          <t>https://w3id.org/env/puv#</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -829,7 +821,6 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -839,12 +830,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>obo</t>
+          <t>sosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/</t>
+          <t>http://www.w3.org/ns/sosa/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -875,7 +866,6 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -885,13 +875,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>obo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-http://vocabs.lter-europe.net/EnvThes/</t>
+          <t>http://purl.obolibrary.org/obo/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -922,7 +911,6 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -932,12 +920,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>et</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/</t>
+          <t xml:space="preserve">
+http://vocabs.lter-europe.net/EnvThes/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -968,20 +957,23 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>eLTER SOs</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>qudt</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1010,17 +1002,16 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>eLTER Standard Observations</t>
+          <t>eLTER SOs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1052,17 +1043,16 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Thesaurus for eLTER Standard Observations</t>
+          <t>eLTER Standard Observations</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1094,17 +1084,16 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+          <t>Thesaurus for eLTER Standard Observations</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1136,17 +1125,16 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1178,17 +1166,16 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC-BY-4.0</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1220,17 +1207,16 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.0.1</t>
+          <t>https://spdx.org/licenses/CC-BY-4.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1262,17 +1248,16 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-08-16T11:00:00+00:00</t>
+          <t>0.0.1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1304,12 +1289,11 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1346,120 +1330,38 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>skos:notation</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-^skos:member</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>obo:RO_0002351(separator=",")</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>owl:sameAs(separator=",")</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>rdfs:seeAlso</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
+          <t>2023-08-16T11:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -1469,67 +1371,106 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>:027</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Meteorological data</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>skos:notation</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SOATM_027</t>
+          <t>rdf:type</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>^skos:member</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>so:c5</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>obo:RO_0002351(separator=",")</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>owl:sameAs(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>rdfs:seeAlso</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1539,38 +1480,37 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>:028</t>
+          <t>so:027</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Radiation</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Meteorological data</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SOATM_027</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SOATM_028</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1579,27 +1519,15 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
@@ -1609,38 +1537,37 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>:098</t>
+          <t>so:028</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ground heat flux</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Radiation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SOATM_028</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SOATM_098</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1649,27 +1576,15 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
@@ -1679,38 +1594,37 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>:103</t>
+          <t>so:098</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Atmospheric deposition in precipitation</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>Ground heat flux</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>SOATM_098</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SOATM_103</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1719,27 +1633,15 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
@@ -1749,38 +1651,37 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>:108</t>
+          <t>so:103</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dry deposition of N-components</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>Atmospheric deposition in precipitation</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SOATM_103</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SOATM_108</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1789,27 +1690,15 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1819,38 +1708,37 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>:176</t>
+          <t>so:108</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>Dry deposition of N-components</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SOATM_108</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SOATM_176</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1859,27 +1747,15 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
@@ -1889,38 +1765,37 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>:014</t>
+          <t>so:176</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Flying insects</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SOATM_176</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SOBIO_014</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>so:c4</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -1929,27 +1804,15 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -1959,38 +1822,37 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>:015</t>
+          <t>so:014</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Vegetation phenology and Leaf Area Index – European scale</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>Flying insects</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SOBIO_014</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SOBIO_015</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1999,27 +1861,15 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2029,38 +1879,37 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>:016</t>
+          <t>so:015</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vegetation phenology – site scale</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Vegetation phenology and Leaf Area Index – European scale</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SOBIO_015</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SOBIO_016</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -2069,27 +1918,15 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2099,38 +1936,37 @@
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>:017</t>
+          <t>so:016</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vegetation composition (mainly species level+abundance)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>Vegetation phenology – site scale</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SOBIO_016</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SOBIO_017</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>so:c4</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -2139,27 +1975,15 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2169,38 +1993,37 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>:018</t>
+          <t>so:017</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Birds, bats, frogs, insects using acoustic recording</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>Vegetation composition (mainly species level+abundance)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SOBIO_017</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SOBIO_018</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>so:c4</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -2209,27 +2032,15 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2239,38 +2050,37 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>:019</t>
+          <t>so:018</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pollen and spores</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Birds, bats, frogs, insects using acoustic recording</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SOBIO_018</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SOBIO_019</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>so:c4</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -2279,27 +2089,15 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2309,38 +2107,37 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>:021</t>
+          <t>so:019</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>:021</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>Pollen and spores</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SOBIO_019</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SOBIO_021</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>so:c4</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -2349,27 +2146,15 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2379,38 +2164,37 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>:022</t>
+          <t>so:021</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>eDNA soil</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>:021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SOBIO_021</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SOBIO_022</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>so:c4</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -2419,27 +2203,15 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
@@ -2449,38 +2221,37 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>:023</t>
+          <t>so:022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass - forest (site scale)</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>eDNA soil</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SOBIO_022</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SOBIO_023</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -2489,27 +2260,15 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2519,38 +2278,37 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>:024</t>
+          <t>so:023</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass – non-forested sites</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>Vegetation aboveground biomass - forest (site scale)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SOBIO_023</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SOBIO_024</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -2559,27 +2317,15 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2589,38 +2335,37 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>:025</t>
+          <t>so:024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Leaf area index - forests (site scale)</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>Vegetation aboveground biomass – non-forested sites</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SOBIO_024</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SOBIO_025</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -2629,27 +2374,15 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2659,38 +2392,37 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>:026</t>
+          <t>so:025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Leaf area index – non-forested sites</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>Leaf area index - forests (site scale)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SOBIO_025</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SOBIO_026</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -2699,27 +2431,15 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2729,38 +2449,37 @@
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>:090</t>
+          <t>so:026</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gross primary production</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>Leaf area index – non-forested sites</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SOBIO_026</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOBIO_090</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -2769,27 +2488,15 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2799,38 +2506,37 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>:091</t>
+          <t>so:090</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transpiration (plants)</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>Gross primary production</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SOBIO_090</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOBIO_091</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2839,27 +2545,15 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
@@ -2869,38 +2563,37 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>:092</t>
+          <t>so:091</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Aboveground litterfall - forests</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>Transpiration (plants)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SOBIO_091</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SOBIO_092</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -2909,27 +2602,15 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -2939,38 +2620,37 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>:093</t>
+          <t>so:092</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Belowground biomass - terrestrial</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>Aboveground litterfall - forests</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SOBIO_092</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SOBIO_093</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -2979,27 +2659,15 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -3009,38 +2677,37 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>:095</t>
+          <t>so:093</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>Belowground biomass - terrestrial</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SOBIO_093</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SOBIO_095</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
@@ -3049,27 +2716,15 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -3079,38 +2734,37 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>:096</t>
+          <t>so:095</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SOBIO_095</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SOBIO_096</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>so:c4</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -3119,27 +2773,15 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -3149,38 +2791,37 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>:140</t>
+          <t>so:096</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vegetation structure - site scale</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SOBIO_096</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SOBIO_140</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -3189,27 +2830,15 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3219,38 +2848,37 @@
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>:177</t>
+          <t>so:140</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tree growth</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
+          <t>Vegetation structure - site scale</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SOBIO_140</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SOBIO_177</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>so:c5</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -3259,27 +2887,15 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3289,38 +2905,37 @@
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>:003</t>
+          <t>so:177</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Soil chemical and physical characteristics</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>Tree growth</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SOBIO_177</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SOGEO_003</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>so:c2</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -3329,27 +2944,15 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3359,38 +2962,37 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>:048</t>
+          <t>so:003</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Percolation/infiltration - soil</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>Soil chemical and physical characteristics</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SOGEO_003</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SOGEO_048</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>so:c2</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -3399,27 +3001,15 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3429,38 +3019,37 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>:155</t>
+          <t>so:048</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sediment (aquatic and marine) inventory</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>Percolation/infiltration - soil</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SOGEO_048</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SOGEO_155</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>so:c2</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -3469,27 +3058,15 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3499,38 +3076,37 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>:167</t>
+          <t>so:155</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Soil water chemical characteristics</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>Sediment (aquatic and marine) inventory</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SOGEO_155</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SOGEO_167</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>so:c2</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -3539,27 +3115,15 @@
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
@@ -3569,38 +3133,37 @@
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>:004</t>
+          <t>so:167</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>Soil water chemical characteristics</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SOGEO_167</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SOHYD_004</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>so:c3</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>so:c2</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -3609,27 +3172,15 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3639,38 +3190,37 @@
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>:005</t>
+          <t>so:004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - surface water (running waters)</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SOHYD_004</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SOHYD_005</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -3679,27 +3229,15 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3709,38 +3247,37 @@
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>:006</t>
+          <t>so:005</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - groundwater</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>Physical and chemical water characteristics - surface water (running waters)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SOHYD_005</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SOHYD_006</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
@@ -3749,27 +3286,15 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3779,38 +3304,37 @@
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>:010</t>
+          <t>so:006</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Water level - surface water (running water)</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>Physical and chemical water characteristics - groundwater</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SOHYD_006</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SOHYD_010</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -3819,27 +3343,15 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3849,38 +3361,37 @@
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>:011</t>
+          <t>so:010</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ice cover/thickness (standing and transitional water)</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>Water level - surface water (running water)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SOHYD_010</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SOHYD_011</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -3889,27 +3400,15 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3919,38 +3418,37 @@
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>:012</t>
+          <t>so:011</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Snow cover and depths</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>Ice cover/thickness (standing and transitional water)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SOHYD_011</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SOHYD_012</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
@@ -3959,27 +3457,15 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3989,38 +3475,37 @@
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>:058</t>
+          <t>so:012</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
+          <t>Snow cover and depths</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SOHYD_012</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SOHYD_058</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -4029,27 +3514,15 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -4059,38 +3532,37 @@
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>:059</t>
+          <t>so:058</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Stable Isotopes (18O, 2H) - groundwater</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SOHYD_058</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SOHYD_059</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -4099,27 +3571,15 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -4129,38 +3589,37 @@
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>:062</t>
+          <t>so:059</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>Stable Isotopes (18O, 2H) - groundwater</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SOHYD_059</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SOHYD_062</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -4169,27 +3628,15 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -4199,38 +3646,37 @@
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>:064</t>
+          <t>so:062</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SOHYD_062</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SOHYD_064</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -4239,27 +3685,15 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
@@ -4269,38 +3703,37 @@
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>:065</t>
+          <t>so:064</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DOM composition - groundwater</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SOHYD_064</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SOHYD_065</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -4309,27 +3742,15 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -4339,38 +3760,37 @@
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>:067</t>
+          <t>so:065</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>DOM composition - groundwater</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SOHYD_065</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SOHYD_067</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -4379,27 +3799,15 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
@@ -4409,38 +3817,37 @@
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>:164</t>
+          <t>so:067</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Glacier front variation</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SOHYD_067</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SOHYD_164</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -4449,27 +3856,15 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
@@ -4479,38 +3874,37 @@
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>:165</t>
+          <t>so:164</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Glacier mass balance</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>Glacier front variation</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SOHYD_164</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SOHYD_165</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
@@ -4519,27 +3913,15 @@
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
@@ -4549,38 +3931,37 @@
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>:166</t>
+          <t>so:165</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Glacier area</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>Glacier mass balance</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SOHYD_165</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SOHYD_166</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
@@ -4589,27 +3970,15 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -4619,38 +3988,37 @@
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>:168</t>
+          <t>so:166</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Soil water content/soil temperature</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>Glacier area</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SOHYD_166</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SOHYD_168</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
@@ -4659,27 +4027,15 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -4689,38 +4045,37 @@
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>:169</t>
+          <t>so:168</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>Soil water content/soil temperature</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SOHYD_168</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SOHYD_169</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
@@ -4729,27 +4084,15 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -4759,38 +4102,37 @@
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>:170</t>
+          <t>so:169</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SOHYD_169</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SOHYD_170</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
@@ -4799,27 +4141,15 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -4829,38 +4159,37 @@
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>:171</t>
+          <t>so:170</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SOHYD_170</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SOHYD_171</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>so:c3</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
@@ -4869,27 +4198,15 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -4899,38 +4216,37 @@
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>:172</t>
+          <t>so:171</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SOHYD_171</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SOHYD_172</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>so:c4</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
@@ -4939,27 +4255,15 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -4969,38 +4273,37 @@
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>:173</t>
+          <t>so:172</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SOHYD_172</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SOHYD_173</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>so:c4</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
@@ -5009,27 +4312,15 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -5039,38 +4330,37 @@
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>:174</t>
+          <t>so:173</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Secchi-Depth; standing waters and transitional waters</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SOHYD_173</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SOHYD_174</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>so:c3</t>
-        </is>
-      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -5079,27 +4369,15 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
@@ -5109,71 +4387,54 @@
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>:001</t>
+          <t>so:174</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Soil inventory - pedological/geological characterization</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>Secchi-Depth; standing waters and transitional waters</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SOHYD_174</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SOGEO_001</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>so:c2</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
-        </is>
-      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
@@ -5183,63 +4444,58 @@
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>:c1</t>
+          <t>so:001</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sociosphere</t>
+          <t>Soil inventory - pedological/geological characterization</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>SOGEO_001</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:Concept</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>so:c2</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>et:30317</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
@@ -5249,35 +4505,34 @@
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>:c2</t>
+          <t>so:c1</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Geosphere</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
+          <t>Sociosphere</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
         <is>
           <t>skos:Collection</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>et:30316</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>et:30317</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -5285,27 +4540,15 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
@@ -5315,35 +4558,34 @@
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hydrosphere</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
+          <t>Geosphere</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
         <is>
           <t>skos:Collection</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>et:21922</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>et:30316</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
@@ -5351,27 +4593,15 @@
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
@@ -5381,35 +4611,34 @@
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Biosphere</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
+          <t>Hydrosphere</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
         <is>
           <t>skos:Collection</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>et:21921</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>et:21922</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -5417,27 +4646,15 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
@@ -5447,35 +4664,34 @@
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Atmosphere</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
+          <t>Biosphere</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
         <is>
           <t>skos:Collection</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>et:21920</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>et:21921</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
@@ -5483,27 +4699,15 @@
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
@@ -5513,7 +4717,59 @@
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
-      <c r="AF80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Atmosphere</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>et:21920</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE81"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,7 @@
       <c r="AC1" t="inlineStr"/>
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr"/>
+      <c r="AF1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +507,7 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -551,6 +553,7 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -596,6 +599,7 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -641,6 +645,7 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,6 +691,7 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -731,6 +737,7 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -776,6 +783,7 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -821,6 +829,7 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -866,6 +875,7 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -911,6 +921,7 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -957,6 +968,7 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1002,6 +1014,7 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1043,6 +1056,7 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1084,6 +1098,7 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1125,6 +1140,7 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1166,6 +1182,7 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1207,6 +1224,7 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1248,6 +1266,7 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1289,6 +1308,7 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1330,6 +1350,7 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1371,6 +1392,7 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1460,14 +1482,22 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>dct:contributor</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
           <t>dct:created^^xsd:date</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>2023-08-22</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
@@ -1480,6 +1510,7 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1521,12 +1552,24 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
@@ -1537,6 +1580,7 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1578,12 +1622,24 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -1594,6 +1650,7 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1635,12 +1692,24 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -1651,6 +1720,7 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1692,12 +1762,24 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -1708,6 +1790,7 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1749,12 +1832,24 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -1765,6 +1860,7 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1806,12 +1902,24 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
@@ -1822,6 +1930,7 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1863,12 +1972,24 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
@@ -1879,6 +2000,7 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1920,12 +2042,24 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
@@ -1936,6 +2070,7 @@
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1977,12 +2112,24 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
@@ -1993,6 +2140,7 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2034,12 +2182,24 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
@@ -2050,6 +2210,7 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2091,12 +2252,24 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
@@ -2107,6 +2280,7 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2148,12 +2322,24 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -2164,6 +2350,7 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2173,7 +2360,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>:021</t>
+          <t>eDNA Water</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2205,12 +2392,24 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2221,6 +2420,7 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2262,12 +2462,24 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -2278,6 +2490,7 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2319,12 +2532,24 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -2335,6 +2560,7 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2376,12 +2602,24 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
@@ -2392,6 +2630,7 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2433,12 +2672,24 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
@@ -2449,6 +2700,7 @@
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2490,12 +2742,24 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
@@ -2506,6 +2770,7 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2547,12 +2812,24 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
@@ -2563,6 +2840,7 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2604,12 +2882,24 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
@@ -2620,6 +2910,7 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2661,12 +2952,24 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
@@ -2677,6 +2980,7 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2718,12 +3022,24 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
@@ -2734,6 +3050,7 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2775,12 +3092,24 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
@@ -2791,6 +3120,7 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2832,12 +3162,24 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
@@ -2848,6 +3190,7 @@
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2889,12 +3232,24 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
@@ -2905,6 +3260,7 @@
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2946,12 +3302,24 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
@@ -2962,6 +3330,7 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3003,12 +3372,24 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
@@ -3019,6 +3400,7 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3060,12 +3442,24 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
@@ -3076,6 +3470,7 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3117,12 +3512,24 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
@@ -3133,6 +3540,7 @@
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3174,12 +3582,24 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
@@ -3190,6 +3610,7 @@
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3231,12 +3652,24 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
@@ -3247,6 +3680,7 @@
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3288,12 +3722,24 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
@@ -3304,6 +3750,7 @@
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3345,12 +3792,24 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
@@ -3361,6 +3820,7 @@
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3402,12 +3862,24 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
@@ -3418,6 +3890,7 @@
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3459,12 +3932,24 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
@@ -3475,6 +3960,7 @@
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3516,12 +4002,24 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
@@ -3532,6 +4030,7 @@
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3573,12 +4072,24 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
@@ -3589,6 +4100,7 @@
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3630,12 +4142,24 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
@@ -3646,6 +4170,7 @@
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3687,12 +4212,24 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
@@ -3703,6 +4240,7 @@
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3744,12 +4282,24 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
@@ -3760,6 +4310,7 @@
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3801,12 +4352,24 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
@@ -3817,6 +4380,7 @@
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3858,12 +4422,24 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
@@ -3874,6 +4450,7 @@
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3915,12 +4492,24 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
@@ -3931,6 +4520,7 @@
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3972,12 +4562,24 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
@@ -3988,6 +4590,7 @@
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4029,12 +4632,24 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
@@ -4045,6 +4660,7 @@
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4086,12 +4702,24 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
@@ -4102,6 +4730,7 @@
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4143,12 +4772,24 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
@@ -4159,6 +4800,7 @@
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4200,12 +4842,24 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
@@ -4216,6 +4870,7 @@
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4257,12 +4912,24 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
@@ -4273,6 +4940,7 @@
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4314,12 +4982,24 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
@@ -4330,6 +5010,7 @@
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4371,12 +5052,24 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
@@ -4387,6 +5080,7 @@
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4428,12 +5122,24 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
@@ -4444,6 +5150,7 @@
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4489,12 +5196,24 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
@@ -4505,6 +5224,7 @@
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4542,12 +5262,24 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
@@ -4558,6 +5290,7 @@
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4595,12 +5328,24 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
@@ -4611,6 +5356,7 @@
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4648,12 +5394,24 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
@@ -4664,6 +5422,7 @@
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4701,12 +5460,24 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
@@ -4717,6 +5488,7 @@
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4754,12 +5526,24 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
@@ -4770,6 +5554,7 @@
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -1557,7 +1557,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3998</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3999</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4000</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4001</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4002</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4003</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4004</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4005</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4006</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4007</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4008</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4009</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4010</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4011</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4012</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4013</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4014</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4015</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4016</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4017</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4018</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4019</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4020</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4021</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4022</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4023</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4024</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4025</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4026</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4027</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4028</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4029</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4030</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4031</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4032</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4033</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4034</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4035</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4036</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4037</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4038</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4039</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4040</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4041</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4042</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4043</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4044</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4045</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4046</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4047</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4048</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4049</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4050</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4051</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4052</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4053</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-4054</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -1627,7 +1627,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3998</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3999</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4000</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4001</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4002</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4003</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4004</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4005</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4006</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4007</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4008</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4009</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4010</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4011</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4012</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4013</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4014</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4015</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4016</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4017</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4018</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4019</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4020</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4021</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4022</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4023</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4024</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4025</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4026</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4027</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4028</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4029</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4030</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4031</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4032</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4033</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4034</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4035</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4036</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4037</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4038</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4039</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4040</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4041</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4042</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4043</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4044</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4045</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4046</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4047</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4048</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4049</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4050</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4051</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4052</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4053</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-4054</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,13 +931,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>et</t>
+          <t>rdf</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-http://vocabs.lter-europe.net/EnvThes/</t>
+          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -956,7 +955,11 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
@@ -978,12 +981,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>rdfs</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/</t>
+          <t>http://www.w3.org/2000/01/rdf-schema#</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1019,15 +1022,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>eLTER SOs</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>et</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+http://vocabs.lter-europe.net/EnvThes/</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -1061,15 +1069,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>eLTER Standard Observations</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>qudt</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -1103,12 +1115,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Thesaurus for eLTER Standard Observations</t>
+          <t>eLTER SOs</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1145,12 +1157,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+          <t>eLTER Standard Observations</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1187,12 +1199,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>Thesaurus for eLTER Standard Observations</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1229,12 +1241,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC-BY-4.0</t>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1271,12 +1283,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.0.1</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1313,12 +1325,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-16T11:00:00+00:00</t>
+          <t>https://spdx.org/licenses/CC-BY-4.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1355,12 +1367,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-08-16T11:00:00+00:00</t>
+          <t>0.0.1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1397,109 +1409,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>skos:notation</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>^skos:member</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>obo:RO_0002351(separator=",")</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>owl:sameAs(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>rdfs:seeAlso</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
+          <t>2023-08-16T11:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
@@ -1515,32 +1451,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>so:027</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Meteorological data</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SOATM_027</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>iop:VariableSet,skos:Concept</t>
-        </is>
-      </c>
+          <t>2023-08-16T11:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1550,26 +1474,10 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>2023-08-23</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
@@ -1585,59 +1493,107 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>so:028</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Radiation</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SOATM_028</t>
+          <t>skos:notation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>so:c5</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
+          <t>^skos:member</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>obo:RO_0002351(separator=",")</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>owl:sameAs(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>rdfs:seeAlso</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
@@ -1655,17 +1611,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>so:098</t>
+          <t>so:027</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ground heat flux</t>
+          <t>Meteorological data</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SOATM_098</t>
+          <t>SOATM_027</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1725,17 +1681,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>so:103</t>
+          <t>so:028</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Atmospheric deposition in precipitation</t>
+          <t>Radiation</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SOATM_103</t>
+          <t>SOATM_028</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1777,7 +1733,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -1795,17 +1751,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>so:108</t>
+          <t>so:098</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dry deposition of N-components</t>
+          <t>Ground heat flux</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SOATM_108</t>
+          <t>SOATM_098</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1865,17 +1821,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>so:176</t>
+          <t>so:103</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
+          <t>Atmospheric deposition in precipitation</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SOATM_176</t>
+          <t>SOATM_103</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1935,17 +1891,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>so:014</t>
+          <t>so:108</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Flying insects</t>
+          <t>Dry deposition of N-components</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SOBIO_014</t>
+          <t>SOATM_108</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1958,7 +1914,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -2005,17 +1961,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>so:015</t>
+          <t>so:176</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vegetation phenology and Leaf Area Index – European scale</t>
+          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SOBIO_015</t>
+          <t>SOATM_176</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2075,17 +2031,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>so:016</t>
+          <t>so:014</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Vegetation phenology – site scale</t>
+          <t>Flying insects</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SOBIO_016</t>
+          <t>SOBIO_014</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2098,7 +2054,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2145,17 +2101,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>so:017</t>
+          <t>so:015</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vegetation composition (mainly species level+abundance)</t>
+          <t>Vegetation phenology and Leaf Area Index – European scale</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SOBIO_017</t>
+          <t>SOBIO_015</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2168,7 +2124,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -2215,17 +2171,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>so:018</t>
+          <t>so:016</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Birds, bats, frogs, insects using acoustic recording</t>
+          <t>Vegetation phenology – site scale</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SOBIO_018</t>
+          <t>SOBIO_016</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2238,7 +2194,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2285,17 +2241,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>so:019</t>
+          <t>so:017</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pollen and spores</t>
+          <t>Vegetation composition (mainly species level+abundance)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SOBIO_019</t>
+          <t>SOBIO_017</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2355,17 +2311,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>so:021</t>
+          <t>so:018</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>eDNA Water</t>
+          <t>Birds, bats, frogs, insects using acoustic recording</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SOBIO_021</t>
+          <t>SOBIO_018</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2425,17 +2381,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>so:022</t>
+          <t>so:019</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>eDNA soil</t>
+          <t>Pollen and spores</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SOBIO_022</t>
+          <t>SOBIO_019</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2495,17 +2451,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>so:023</t>
+          <t>so:021</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass - forest (site scale)</t>
+          <t>eDNA Water</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SOBIO_023</t>
+          <t>SOBIO_021</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2518,7 +2474,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2565,17 +2521,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>so:024</t>
+          <t>so:022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass – non-forested sites</t>
+          <t>eDNA soil</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SOBIO_024</t>
+          <t>SOBIO_022</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2588,7 +2544,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2635,17 +2591,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>so:025</t>
+          <t>so:023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Leaf area index - forests (site scale)</t>
+          <t>Vegetation aboveground biomass - forest (site scale)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SOBIO_025</t>
+          <t>SOBIO_023</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2705,17 +2661,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>so:026</t>
+          <t>so:024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Leaf area index – non-forested sites</t>
+          <t>Vegetation aboveground biomass – non-forested sites</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOBIO_026</t>
+          <t>SOBIO_024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2775,17 +2731,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>so:090</t>
+          <t>so:025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gross primary production</t>
+          <t>Leaf area index - forests (site scale)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOBIO_090</t>
+          <t>SOBIO_025</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2845,17 +2801,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>so:091</t>
+          <t>so:026</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transpiration (plants)</t>
+          <t>Leaf area index – non-forested sites</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOBIO_091</t>
+          <t>SOBIO_026</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2915,17 +2871,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>so:092</t>
+          <t>so:090</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aboveground litterfall - forests</t>
+          <t>Gross primary production</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SOBIO_092</t>
+          <t>SOBIO_090</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2985,17 +2941,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>so:093</t>
+          <t>so:091</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Belowground biomass - terrestrial</t>
+          <t>Transpiration (plants)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SOBIO_093</t>
+          <t>SOBIO_091</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3055,17 +3011,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>so:095</t>
+          <t>so:092</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
+          <t>Aboveground litterfall - forests</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SOBIO_095</t>
+          <t>SOBIO_092</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3125,17 +3081,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>so:096</t>
+          <t>so:093</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
+          <t>Belowground biomass - terrestrial</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOBIO_096</t>
+          <t>SOBIO_093</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3148,7 +3104,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3195,17 +3151,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>so:140</t>
+          <t>so:095</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Vegetation structure - site scale</t>
+          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SOBIO_140</t>
+          <t>SOBIO_095</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3265,17 +3221,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>so:177</t>
+          <t>so:096</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tree growth</t>
+          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SOBIO_177</t>
+          <t>SOBIO_096</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3288,7 +3244,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3335,17 +3291,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>so:003</t>
+          <t>so:140</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Soil chemical and physical characteristics</t>
+          <t>Vegetation structure - site scale</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SOGEO_003</t>
+          <t>SOBIO_140</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3358,7 +3314,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3405,17 +3361,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>so:048</t>
+          <t>so:177</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Percolation/infiltration - soil</t>
+          <t>Tree growth</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SOGEO_048</t>
+          <t>SOBIO_177</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3428,7 +3384,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3475,17 +3431,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>so:155</t>
+          <t>so:003</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sediment (aquatic and marine) inventory</t>
+          <t>Soil chemical and physical characteristics</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SOGEO_155</t>
+          <t>SOGEO_003</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3545,17 +3501,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>so:167</t>
+          <t>so:048</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Soil water chemical characteristics</t>
+          <t>Percolation/infiltration - soil</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SOGEO_167</t>
+          <t>SOGEO_048</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3615,17 +3571,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>so:004</t>
+          <t>so:155</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
+          <t>Sediment (aquatic and marine) inventory</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SOHYD_004</t>
+          <t>SOGEO_155</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3638,7 +3594,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3685,17 +3641,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>so:005</t>
+          <t>so:167</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - surface water (running waters)</t>
+          <t>Soil water chemical characteristics</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOHYD_005</t>
+          <t>SOGEO_167</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3708,7 +3664,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3755,17 +3711,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>so:006</t>
+          <t>so:004</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - groundwater</t>
+          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SOHYD_006</t>
+          <t>SOHYD_004</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3825,17 +3781,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>so:010</t>
+          <t>so:005</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Water level - surface water (running water)</t>
+          <t>Physical and chemical water characteristics - surface water (running waters)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SOHYD_010</t>
+          <t>SOHYD_005</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3895,17 +3851,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>so:011</t>
+          <t>so:006</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ice cover/thickness (standing and transitional water)</t>
+          <t>Physical and chemical water characteristics - groundwater</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SOHYD_011</t>
+          <t>SOHYD_006</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3965,17 +3921,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>so:012</t>
+          <t>so:010</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Snow cover and depths</t>
+          <t>Water level - surface water (running water)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SOHYD_012</t>
+          <t>SOHYD_010</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4035,17 +3991,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>so:058</t>
+          <t>so:011</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
+          <t>Ice cover/thickness (standing and transitional water)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SOHYD_058</t>
+          <t>SOHYD_011</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4105,17 +4061,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>so:059</t>
+          <t>so:012</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Stable Isotopes (18O, 2H) - groundwater</t>
+          <t>Snow cover and depths</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SOHYD_059</t>
+          <t>SOHYD_012</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4175,17 +4131,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>so:062</t>
+          <t>so:058</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
+          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SOHYD_062</t>
+          <t>SOHYD_058</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4245,17 +4201,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>so:064</t>
+          <t>so:059</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
+          <t>Stable Isotopes (18O, 2H) - groundwater</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SOHYD_064</t>
+          <t>SOHYD_059</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4315,17 +4271,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>so:065</t>
+          <t>so:062</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DOM composition - groundwater</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SOHYD_065</t>
+          <t>SOHYD_062</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4385,17 +4341,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>so:067</t>
+          <t>so:064</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SOHYD_067</t>
+          <t>SOHYD_064</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4455,17 +4411,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>so:164</t>
+          <t>so:065</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Glacier front variation</t>
+          <t>DOM composition - groundwater</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SOHYD_164</t>
+          <t>SOHYD_065</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4525,17 +4481,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>so:165</t>
+          <t>so:067</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Glacier mass balance</t>
+          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SOHYD_165</t>
+          <t>SOHYD_067</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4595,17 +4551,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>so:166</t>
+          <t>so:164</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Glacier area</t>
+          <t>Glacier front variation</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SOHYD_166</t>
+          <t>SOHYD_164</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4665,17 +4621,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>so:168</t>
+          <t>so:165</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Soil water content/soil temperature</t>
+          <t>Glacier mass balance</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SOHYD_168</t>
+          <t>SOHYD_165</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4735,17 +4691,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>so:169</t>
+          <t>so:166</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
+          <t>Glacier area</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SOHYD_169</t>
+          <t>SOHYD_166</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4805,17 +4761,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>so:170</t>
+          <t>so:168</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
+          <t>Soil water content/soil temperature</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SOHYD_170</t>
+          <t>SOHYD_168</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4875,17 +4831,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>so:171</t>
+          <t>so:169</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SOHYD_171</t>
+          <t>SOHYD_169</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4945,17 +4901,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>so:172</t>
+          <t>so:170</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
+          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SOHYD_172</t>
+          <t>SOHYD_170</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4968,7 +4924,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5015,17 +4971,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>so:173</t>
+          <t>so:171</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SOHYD_173</t>
+          <t>SOHYD_171</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5038,7 +4994,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5085,17 +5041,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>so:174</t>
+          <t>so:172</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Secchi-Depth; standing waters and transitional waters</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SOHYD_174</t>
+          <t>SOHYD_172</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5108,7 +5064,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5155,17 +5111,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>so:001</t>
+          <t>so:173</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Soil inventory - pedological/geological characterization</t>
+          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SOGEO_001</t>
+          <t>SOHYD_173</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5178,7 +5134,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5186,11 +5142,7 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
-        </is>
-      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -5229,29 +5181,33 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>so:c1</t>
+          <t>so:174</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sociosphere</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>Secchi-Depth; standing waters and transitional waters</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SOHYD_174</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>et:30317</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -5295,34 +5251,42 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:001</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Geosphere</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>Soil inventory - pedological/geological characterization</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SOGEO_001</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>et:30316</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>so:c2</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
+        </is>
+      </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -5361,12 +5325,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hydrosphere</t>
+          <t>Sociosphere</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -5381,7 +5345,7 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>et:21922</t>
+          <t>et:30317</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -5427,12 +5391,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Biosphere</t>
+          <t>Geosphere</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -5447,7 +5411,7 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>et:21921</t>
+          <t>et:30316</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -5493,12 +5457,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Atmosphere</t>
+          <t>Hydrosphere</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -5513,7 +5477,7 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>et:21920</t>
+          <t>et:21922</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -5556,6 +5520,192 @@
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr"/>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Biosphere</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>et:21921</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Atmosphere</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>et:21920</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>so:c6</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>hasRelation</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -5655,20 +5655,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>so:c6</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>hasRelation</t>
-        </is>
-      </c>
+          <t>et:30321</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>owl:ObjectProperty</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -5686,12 +5678,12 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -5664,7 +5664,11 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -5658,7 +5658,11 @@
           <t>et:30321</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>amount of organic matter</t>
+        </is>
+      </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF84"/>
+  <dimension ref="A1:AE83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,6 @@
       <c r="AC1" t="inlineStr"/>
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr"/>
-      <c r="AF1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -507,7 +506,6 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -553,7 +551,6 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -599,7 +596,6 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -645,7 +641,6 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -691,7 +686,6 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -737,7 +731,6 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -783,7 +776,6 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -829,7 +821,6 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -875,7 +866,6 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -921,7 +911,6 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -971,7 +960,6 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1017,7 +1005,6 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1064,7 +1051,6 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1110,7 +1096,6 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1152,7 +1137,6 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1194,7 +1178,6 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1236,7 +1219,6 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1278,7 +1260,6 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1320,7 +1301,6 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1362,7 +1342,6 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1404,7 +1383,6 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1446,7 +1424,6 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1488,7 +1465,6 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1606,7 +1582,6 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1626,7 +1601,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1663,7 +1638,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -1676,7 +1651,6 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1696,7 +1670,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1746,7 +1720,6 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1766,7 +1739,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1816,7 +1789,6 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1836,7 +1808,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1886,7 +1858,6 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1906,7 +1877,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1956,7 +1927,6 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1976,7 +1946,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2026,7 +1996,6 @@
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2046,7 +2015,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2096,7 +2065,6 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2116,7 +2084,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2166,7 +2134,6 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2186,7 +2153,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2236,7 +2203,6 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2256,7 +2222,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2306,7 +2272,6 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2326,7 +2291,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2376,7 +2341,6 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2396,7 +2360,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2446,7 +2410,6 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2466,7 +2429,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2516,7 +2479,6 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2536,7 +2498,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2586,7 +2548,6 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2606,7 +2567,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2656,7 +2617,6 @@
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2676,7 +2636,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2726,7 +2686,6 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2746,7 +2705,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2796,7 +2755,6 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2816,7 +2774,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2866,7 +2824,6 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2886,7 +2843,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2936,7 +2893,6 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2956,7 +2912,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3006,7 +2962,6 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3026,7 +2981,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3076,7 +3031,6 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3096,7 +3050,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3146,7 +3100,6 @@
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3166,7 +3119,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3216,7 +3169,6 @@
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3236,7 +3188,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3286,7 +3238,6 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3306,7 +3257,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3356,7 +3307,6 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3376,7 +3326,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3426,7 +3376,6 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3446,7 +3395,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3496,7 +3445,6 @@
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3516,7 +3464,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3566,7 +3514,6 @@
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3586,7 +3533,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3636,7 +3583,6 @@
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3656,7 +3602,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3706,7 +3652,6 @@
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3726,7 +3671,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3776,7 +3721,6 @@
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3796,7 +3740,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3846,7 +3790,6 @@
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3866,7 +3809,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3916,7 +3859,6 @@
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3936,7 +3878,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3986,7 +3928,6 @@
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4006,7 +3947,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -4056,7 +3997,6 @@
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4076,7 +4016,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -4126,7 +4066,6 @@
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4146,7 +4085,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4196,7 +4135,6 @@
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4216,7 +4154,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -4266,7 +4204,6 @@
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4286,7 +4223,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4336,7 +4273,6 @@
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4356,7 +4292,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4406,7 +4342,6 @@
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4426,7 +4361,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4476,7 +4411,6 @@
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4496,7 +4430,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4546,7 +4480,6 @@
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4566,7 +4499,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4616,7 +4549,6 @@
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4636,7 +4568,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4686,7 +4618,6 @@
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
-      <c r="AF69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4706,7 +4637,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4756,7 +4687,6 @@
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4776,7 +4706,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4826,7 +4756,6 @@
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
-      <c r="AF71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4846,7 +4775,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4896,7 +4825,6 @@
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
-      <c r="AF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4916,7 +4844,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4966,7 +4894,6 @@
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
-      <c r="AF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4986,7 +4913,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -5036,7 +4963,6 @@
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5056,7 +4982,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -5106,7 +5032,6 @@
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5126,7 +5051,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -5176,7 +5101,6 @@
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
-      <c r="AF76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5196,7 +5120,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -5246,7 +5170,6 @@
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr"/>
-      <c r="AF77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5266,7 +5189,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -5320,7 +5243,6 @@
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
-      <c r="AF78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5386,7 +5308,6 @@
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
-      <c r="AF79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5452,7 +5373,6 @@
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
-      <c r="AF80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5518,7 +5438,6 @@
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
-      <c r="AF81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5584,7 +5503,6 @@
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="inlineStr"/>
-      <c r="AF82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5650,61 +5568,6 @@
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
-      <c r="AF83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>et:30321</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>amount of organic matter</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>2023-09-27</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>2023-09-27</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
-      <c r="AD84" t="inlineStr"/>
-      <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE83"/>
+  <dimension ref="A1:AE94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,11 +1058,7 @@
           <t>PREFIX</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>qudt</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/</t>
@@ -1269,7 +1265,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://ror.org/00pggkr55</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1305,12 +1301,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:license</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC-BY-4.0</t>
+          <t>https://creativecommons.org/licenses/by/4.0/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1330,7 +1326,11 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
@@ -1346,7 +1346,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>owl:versionInfo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1371,7 +1371,11 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -1387,7 +1391,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:created</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1412,7 +1416,11 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
@@ -1428,7 +1436,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>dct:modified</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1469,109 +1477,37 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>owl:ontolgoyIRI</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>skos:notation</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>^skos:member</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>obo:RO_0002351(separator=",")</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>owl:sameAs(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>rdfs:seeAlso</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
+          <t>https://vocabs.lter-europe.net/so/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -1586,32 +1522,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>so:027</t>
+          <t>omv:acronym</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Meteorological data</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SOATM_027</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1621,24 +1545,12 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
@@ -1655,32 +1567,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>so:028</t>
+          <t>omv:resourceLocator</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Radiation</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SOATM_028</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>https://raw.githubusercontent.com/LTER-Europe/SO/main/standard-observations.ttl</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1690,24 +1590,12 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
@@ -1724,32 +1612,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>so:098</t>
+          <t>omv:keywords</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ground heat flux</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>SOATM_098</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>http://vocabs.lter-europe.net/EnvThes/21672</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1759,24 +1635,12 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
@@ -1793,32 +1657,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>so:103</t>
+          <t>dct:publisher</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Atmospheric deposition in precipitation</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>SOATM_103</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>https://ror.org/00pggkr55</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1828,24 +1680,12 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
@@ -1862,32 +1702,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>so:108</t>
+          <t>omv:knownUsage</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dry deposition of N-components</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>SOATM_108</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>annotation of observation data</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1897,24 +1725,12 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
@@ -1931,32 +1747,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>so:176</t>
+          <t>dct:audience</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SOATM_176</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>http://schema.org/Researcher</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1966,24 +1770,12 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
@@ -2000,32 +1792,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>so:014</t>
+          <t>doap:repository</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Flying insects</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>SOBIO_014</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>https://ecoportal.lifewatch.eu/ontologies/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>so:c4</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -2035,24 +1815,12 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
@@ -2069,32 +1837,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>so:015</t>
+          <t>schema:includedInDataCatalog</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Vegetation phenology and Leaf Area Index – European scale</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SOBIO_015</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>https://ecoportal.lifewatch.eu/ontologies/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -2104,24 +1860,12 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
@@ -2138,32 +1882,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>so:016</t>
+          <t>dct:language</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vegetation phenology – site scale</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SOBIO_016</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -2173,24 +1905,16 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
@@ -2207,32 +1931,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>so:017</t>
+          <t>schema:includedInDataCatalog</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Vegetation composition (mainly species level+abundance)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SOBIO_017</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
+          <t>https://vocabs.lter-europe.net/en/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>so:c4</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -2242,24 +1954,16 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
@@ -2276,59 +1980,107 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>so:018</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Birds, bats, frogs, insects using acoustic recording</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SOBIO_018</t>
+          <t>skos:notation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>so:c4</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+          <t>^skos:member</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>obo:RO_0002351(separator=",")</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>owl:sameAs(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>rdfs:seeAlso</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -2345,17 +2097,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>so:019</t>
+          <t>so:027</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pollen and spores</t>
+          <t>Meteorological data</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SOBIO_019</t>
+          <t>SOATM_027</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2368,7 +2120,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -2397,7 +2149,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2414,17 +2166,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>so:021</t>
+          <t>so:028</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>eDNA Water</t>
+          <t>Radiation</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SOBIO_021</t>
+          <t>SOATM_028</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2437,7 +2189,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2466,7 +2218,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2483,17 +2235,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>so:022</t>
+          <t>so:098</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>eDNA soil</t>
+          <t>Ground heat flux</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SOBIO_022</t>
+          <t>SOATM_098</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2506,7 +2258,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2552,17 +2304,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>so:023</t>
+          <t>so:103</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass - forest (site scale)</t>
+          <t>Atmospheric deposition in precipitation</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SOBIO_023</t>
+          <t>SOATM_103</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2621,17 +2373,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>so:024</t>
+          <t>so:108</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass – non-forested sites</t>
+          <t>Dry deposition of N-components</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOBIO_024</t>
+          <t>SOATM_108</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2690,17 +2442,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>so:025</t>
+          <t>so:176</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Leaf area index - forests (site scale)</t>
+          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOBIO_025</t>
+          <t>SOATM_176</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2759,17 +2511,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>so:026</t>
+          <t>so:014</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Leaf area index – non-forested sites</t>
+          <t>Flying insects</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOBIO_026</t>
+          <t>SOBIO_014</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2782,7 +2534,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2828,17 +2580,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>so:090</t>
+          <t>so:015</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gross primary production</t>
+          <t>Vegetation phenology and Leaf Area Index – European scale</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SOBIO_090</t>
+          <t>SOBIO_015</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2897,17 +2649,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>so:091</t>
+          <t>so:016</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transpiration (plants)</t>
+          <t>Vegetation phenology – site scale</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SOBIO_091</t>
+          <t>SOBIO_016</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2966,17 +2718,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>so:092</t>
+          <t>so:017</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Aboveground litterfall - forests</t>
+          <t>Vegetation composition (mainly species level+abundance)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SOBIO_092</t>
+          <t>SOBIO_017</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2989,7 +2741,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3035,17 +2787,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>so:093</t>
+          <t>so:018</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Belowground biomass - terrestrial</t>
+          <t>Birds, bats, frogs, insects using acoustic recording</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOBIO_093</t>
+          <t>SOBIO_018</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3058,7 +2810,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3104,17 +2856,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>so:095</t>
+          <t>so:019</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
+          <t>Pollen and spores</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SOBIO_095</t>
+          <t>SOBIO_019</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3127,7 +2879,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3173,17 +2925,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>so:096</t>
+          <t>so:021</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
+          <t>eDNA Water</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SOBIO_096</t>
+          <t>SOBIO_021</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3242,17 +2994,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>so:140</t>
+          <t>so:022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vegetation structure - site scale</t>
+          <t>eDNA soil</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SOBIO_140</t>
+          <t>SOBIO_022</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3265,7 +3017,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3311,17 +3063,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>so:177</t>
+          <t>so:023</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tree growth</t>
+          <t>Vegetation aboveground biomass - forest (site scale)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SOBIO_177</t>
+          <t>SOBIO_023</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3380,17 +3132,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>so:003</t>
+          <t>so:024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Soil chemical and physical characteristics</t>
+          <t>Vegetation aboveground biomass – non-forested sites</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SOGEO_003</t>
+          <t>SOBIO_024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3403,7 +3155,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3449,17 +3201,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>so:048</t>
+          <t>so:025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Percolation/infiltration - soil</t>
+          <t>Leaf area index - forests (site scale)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SOGEO_048</t>
+          <t>SOBIO_025</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3472,7 +3224,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3518,17 +3270,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>so:155</t>
+          <t>so:026</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sediment (aquatic and marine) inventory</t>
+          <t>Leaf area index – non-forested sites</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SOGEO_155</t>
+          <t>SOBIO_026</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3541,7 +3293,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3587,17 +3339,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>so:167</t>
+          <t>so:090</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Soil water chemical characteristics</t>
+          <t>Gross primary production</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOGEO_167</t>
+          <t>SOBIO_090</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3610,7 +3362,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3656,17 +3408,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>so:004</t>
+          <t>so:091</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
+          <t>Transpiration (plants)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SOHYD_004</t>
+          <t>SOBIO_091</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3679,7 +3431,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -3725,17 +3477,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>so:005</t>
+          <t>so:092</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - surface water (running waters)</t>
+          <t>Aboveground litterfall - forests</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SOHYD_005</t>
+          <t>SOBIO_092</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3748,7 +3500,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -3794,17 +3546,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>so:006</t>
+          <t>so:093</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - groundwater</t>
+          <t>Belowground biomass - terrestrial</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SOHYD_006</t>
+          <t>SOBIO_093</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3817,7 +3569,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -3863,17 +3615,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>so:010</t>
+          <t>so:095</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Water level - surface water (running water)</t>
+          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SOHYD_010</t>
+          <t>SOBIO_095</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3886,7 +3638,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3932,17 +3684,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>so:011</t>
+          <t>so:096</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ice cover/thickness (standing and transitional water)</t>
+          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SOHYD_011</t>
+          <t>SOBIO_096</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3955,7 +3707,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -4001,17 +3753,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>so:012</t>
+          <t>so:140</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Snow cover and depths</t>
+          <t>Vegetation structure - site scale</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SOHYD_012</t>
+          <t>SOBIO_140</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4024,7 +3776,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -4070,17 +3822,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>so:058</t>
+          <t>so:177</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
+          <t>Tree growth</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SOHYD_058</t>
+          <t>SOBIO_177</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4093,7 +3845,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -4139,17 +3891,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>so:059</t>
+          <t>so:003</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Stable Isotopes (18O, 2H) - groundwater</t>
+          <t>Soil chemical and physical characteristics</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SOHYD_059</t>
+          <t>SOGEO_003</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4162,7 +3914,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -4208,17 +3960,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>so:062</t>
+          <t>so:048</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
+          <t>Percolation/infiltration - soil</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SOHYD_062</t>
+          <t>SOGEO_048</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4231,7 +3983,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -4277,17 +4029,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>so:064</t>
+          <t>so:155</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
+          <t>Sediment (aquatic and marine) inventory</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SOHYD_064</t>
+          <t>SOGEO_155</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4300,7 +4052,7 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -4346,17 +4098,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>so:065</t>
+          <t>so:167</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DOM composition - groundwater</t>
+          <t>Soil water chemical characteristics</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SOHYD_065</t>
+          <t>SOGEO_167</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4369,7 +4121,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4415,17 +4167,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>so:067</t>
+          <t>so:004</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
+          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SOHYD_067</t>
+          <t>SOHYD_004</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4484,17 +4236,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>so:164</t>
+          <t>so:005</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Glacier front variation</t>
+          <t>Physical and chemical water characteristics - surface water (running waters)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SOHYD_164</t>
+          <t>SOHYD_005</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4553,17 +4305,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>so:165</t>
+          <t>so:006</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Glacier mass balance</t>
+          <t>Physical and chemical water characteristics - groundwater</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SOHYD_165</t>
+          <t>SOHYD_006</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4622,17 +4374,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>so:166</t>
+          <t>so:010</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Glacier area</t>
+          <t>Water level - surface water (running water)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SOHYD_166</t>
+          <t>SOHYD_010</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4691,17 +4443,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>so:168</t>
+          <t>so:011</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Soil water content/soil temperature</t>
+          <t>Ice cover/thickness (standing and transitional water)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SOHYD_168</t>
+          <t>SOHYD_011</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4760,17 +4512,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>so:169</t>
+          <t>so:012</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
+          <t>Snow cover and depths</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SOHYD_169</t>
+          <t>SOHYD_012</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4829,17 +4581,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>so:170</t>
+          <t>so:058</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
+          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SOHYD_170</t>
+          <t>SOHYD_058</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4898,17 +4650,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>so:171</t>
+          <t>so:059</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+          <t>Stable Isotopes (18O, 2H) - groundwater</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SOHYD_171</t>
+          <t>SOHYD_059</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4967,17 +4719,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>so:172</t>
+          <t>so:062</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SOHYD_172</t>
+          <t>SOHYD_062</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4990,7 +4742,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5036,17 +4788,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>so:173</t>
+          <t>so:064</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SOHYD_173</t>
+          <t>SOHYD_064</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5059,7 +4811,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5105,17 +4857,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>so:174</t>
+          <t>so:065</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Secchi-Depth; standing waters and transitional waters</t>
+          <t>DOM composition - groundwater</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SOHYD_174</t>
+          <t>SOHYD_065</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5174,17 +4926,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>so:001</t>
+          <t>so:067</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Soil inventory - pedological/geological characterization</t>
+          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SOGEO_001</t>
+          <t>SOHYD_067</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5197,7 +4949,7 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5205,11 +4957,7 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
-        </is>
-      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -5247,29 +4995,33 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>so:c1</t>
+          <t>so:164</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sociosphere</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>Glacier front variation</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SOHYD_164</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>et:30317</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
@@ -5312,29 +5064,33 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:165</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Geosphere</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>Glacier mass balance</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SOHYD_165</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>et:30316</t>
-        </is>
-      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
@@ -5377,29 +5133,33 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:166</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hydrosphere</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>Glacier area</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SOHYD_166</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>et:21922</t>
-        </is>
-      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
@@ -5442,29 +5202,33 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:168</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Biosphere</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>Soil water content/soil temperature</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SOHYD_168</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>et:21921</t>
-        </is>
-      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
@@ -5507,29 +5271,33 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:169</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Atmosphere</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SOHYD_169</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>et:21920</t>
-        </is>
-      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
@@ -5569,6 +5337,749 @@
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>so:170</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SOHYD_170</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>iop:VariableSet</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>so:171</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SOHYD_171</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>iop:VariableSet</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>so:172</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SOHYD_172</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>iop:VariableSet</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>so:173</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SOHYD_173</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>iop:VariableSet</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>so:174</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Secchi-Depth; standing waters and transitional waters</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SOHYD_174</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>iop:VariableSet</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>so:001</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Soil inventory - pedological/geological characterization</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SOGEO_001</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>iop:VariableSet</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>so:c2</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Sociosphere</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>et:30317</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>so:c2</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Geosphere</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>et:30316</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Hydrosphere</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>et:21922</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>so:c4</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Biosphere</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>et:21921</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Atmosphere</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>et:21920</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE94"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,7 @@
       <c r="AC1" t="inlineStr"/>
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr"/>
+      <c r="AF1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,6 +507,7 @@
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -551,6 +553,7 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -596,6 +599,7 @@
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -641,6 +645,7 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -686,6 +691,7 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -731,6 +737,7 @@
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -776,6 +783,7 @@
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -821,6 +829,7 @@
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -866,6 +875,7 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -911,6 +921,7 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -960,6 +971,7 @@
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1005,6 +1017,7 @@
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1051,6 +1064,7 @@
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1092,6 +1106,7 @@
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1133,6 +1148,7 @@
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1174,6 +1190,7 @@
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1215,6 +1232,7 @@
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1256,6 +1274,7 @@
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1297,6 +1316,7 @@
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1342,6 +1362,7 @@
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1387,6 +1408,7 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1432,6 +1454,7 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1473,6 +1496,7 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1518,6 +1542,7 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1563,6 +1588,7 @@
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1608,6 +1634,7 @@
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1653,6 +1680,7 @@
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1698,6 +1726,7 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1743,6 +1772,7 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1788,6 +1818,7 @@
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1833,6 +1864,7 @@
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1878,6 +1910,7 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1927,6 +1960,7 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1976,6 +2010,7 @@
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1995,7 +2030,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rdf:type</t>
+          <t>rdf:type(separator=",")</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2080,7 +2115,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:date</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
@@ -2093,6 +2128,7 @@
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2162,6 +2198,7 @@
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2231,6 +2268,7 @@
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2300,6 +2338,7 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2369,6 +2408,7 @@
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2438,6 +2478,7 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2507,6 +2548,7 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2576,6 +2618,7 @@
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2645,6 +2688,7 @@
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2714,6 +2758,7 @@
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2783,6 +2828,7 @@
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2852,6 +2898,7 @@
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2921,6 +2968,7 @@
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2990,6 +3038,7 @@
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3059,6 +3108,7 @@
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3128,6 +3178,7 @@
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3197,6 +3248,7 @@
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3266,6 +3318,7 @@
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3335,6 +3388,7 @@
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3404,6 +3458,7 @@
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3473,6 +3528,7 @@
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3542,6 +3598,7 @@
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3611,6 +3668,7 @@
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3680,6 +3738,7 @@
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3749,6 +3808,7 @@
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3818,6 +3878,7 @@
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3887,6 +3948,7 @@
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3956,6 +4018,7 @@
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4025,6 +4088,7 @@
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4094,6 +4158,7 @@
       <c r="AC65" t="inlineStr"/>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4163,6 +4228,7 @@
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4232,6 +4298,7 @@
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4301,6 +4368,7 @@
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4370,6 +4438,7 @@
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4439,6 +4508,7 @@
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4508,6 +4578,7 @@
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4577,6 +4648,7 @@
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4646,6 +4718,7 @@
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4715,6 +4788,7 @@
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4784,6 +4858,7 @@
       <c r="AC75" t="inlineStr"/>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4853,6 +4928,7 @@
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4922,6 +4998,7 @@
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4991,6 +5068,7 @@
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5060,6 +5138,7 @@
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5129,6 +5208,7 @@
       <c r="AC80" t="inlineStr"/>
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5198,6 +5278,7 @@
       <c r="AC81" t="inlineStr"/>
       <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5267,6 +5348,7 @@
       <c r="AC82" t="inlineStr"/>
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5336,6 +5418,7 @@
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5405,6 +5488,7 @@
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5474,6 +5558,7 @@
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5543,6 +5628,7 @@
       <c r="AC86" t="inlineStr"/>
       <c r="AD86" t="inlineStr"/>
       <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5612,6 +5698,7 @@
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5681,6 +5768,7 @@
       <c r="AC88" t="inlineStr"/>
       <c r="AD88" t="inlineStr"/>
       <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5700,7 +5788,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5741,7 +5829,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
@@ -5754,6 +5842,7 @@
       <c r="AC89" t="inlineStr"/>
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5819,6 +5908,7 @@
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5884,6 +5974,7 @@
       <c r="AC91" t="inlineStr"/>
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5949,6 +6040,7 @@
       <c r="AC92" t="inlineStr"/>
       <c r="AD92" t="inlineStr"/>
       <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6014,6 +6106,7 @@
       <c r="AC93" t="inlineStr"/>
       <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6079,6 +6172,7 @@
       <c r="AC94" t="inlineStr"/>
       <c r="AD94" t="inlineStr"/>
       <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2013,111 +2013,27 @@
       <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>skos:notation</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>rdf:type(separator=",")</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>^skos:member</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>obo:RO_0002351(separator=",")</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>owl:sameAs(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>rdfs:seeAlso</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>2024-01-05</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2133,59 +2049,107 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>so:027</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Meteorological data</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SOATM_027</t>
+          <t>skos:notation</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>rdf:type(separator=",")</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>so:c5</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+          <t>^skos:member</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>obo:RO_0002351(separator=",")</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>owl:sameAs(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>rdfs:seeAlso</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2203,17 +2167,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>so:028</t>
+          <t>so:027</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Radiation</t>
+          <t>Meteorological data</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SOATM_028</t>
+          <t>SOATM_027</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2255,7 +2219,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2273,17 +2237,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>so:098</t>
+          <t>so:028</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ground heat flux</t>
+          <t>Radiation</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SOATM_098</t>
+          <t>SOATM_028</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2325,7 +2289,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2343,17 +2307,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>so:103</t>
+          <t>so:098</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Atmospheric deposition in precipitation</t>
+          <t>Ground heat flux</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SOATM_103</t>
+          <t>SOATM_098</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2413,17 +2377,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>so:108</t>
+          <t>so:103</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dry deposition of N-components</t>
+          <t>Atmospheric deposition in precipitation</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOATM_108</t>
+          <t>SOATM_103</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2483,17 +2447,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>so:176</t>
+          <t>so:108</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
+          <t>Dry deposition of N-components</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOATM_176</t>
+          <t>SOATM_108</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2553,17 +2517,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>so:014</t>
+          <t>so:176</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Flying insects</t>
+          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOBIO_014</t>
+          <t>SOATM_176</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2576,7 +2540,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2623,17 +2587,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>so:015</t>
+          <t>so:014</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Vegetation phenology and Leaf Area Index – European scale</t>
+          <t>Flying insects</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SOBIO_015</t>
+          <t>SOBIO_014</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2646,7 +2610,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -2693,17 +2657,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>so:016</t>
+          <t>so:015</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Vegetation phenology – site scale</t>
+          <t>Vegetation phenology and Leaf Area Index – European scale</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SOBIO_016</t>
+          <t>SOBIO_015</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2763,17 +2727,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>so:017</t>
+          <t>so:016</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vegetation composition (mainly species level+abundance)</t>
+          <t>Vegetation phenology – site scale</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SOBIO_017</t>
+          <t>SOBIO_016</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2786,7 +2750,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2833,17 +2797,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>so:018</t>
+          <t>so:017</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Birds, bats, frogs, insects using acoustic recording</t>
+          <t>Vegetation composition (mainly species level+abundance)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOBIO_018</t>
+          <t>SOBIO_017</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2903,17 +2867,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>so:019</t>
+          <t>so:018</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pollen and spores</t>
+          <t>Birds, bats, frogs, insects using acoustic recording</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SOBIO_019</t>
+          <t>SOBIO_018</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2973,17 +2937,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>so:021</t>
+          <t>so:019</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>eDNA Water</t>
+          <t>Pollen and spores</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SOBIO_021</t>
+          <t>SOBIO_019</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3043,17 +3007,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>so:022</t>
+          <t>so:021</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>eDNA soil</t>
+          <t>eDNA Water</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SOBIO_022</t>
+          <t>SOBIO_021</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3113,17 +3077,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>so:023</t>
+          <t>so:022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass - forest (site scale)</t>
+          <t>eDNA soil</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SOBIO_023</t>
+          <t>SOBIO_022</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3136,7 +3100,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3183,17 +3147,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>so:024</t>
+          <t>so:023</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass – non-forested sites</t>
+          <t>Vegetation aboveground biomass - forest (site scale)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SOBIO_024</t>
+          <t>SOBIO_023</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3253,17 +3217,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>so:025</t>
+          <t>so:024</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Leaf area index - forests (site scale)</t>
+          <t>Vegetation aboveground biomass – non-forested sites</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SOBIO_025</t>
+          <t>SOBIO_024</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3323,17 +3287,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>so:026</t>
+          <t>so:025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Leaf area index – non-forested sites</t>
+          <t>Leaf area index - forests (site scale)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SOBIO_026</t>
+          <t>SOBIO_025</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3393,17 +3357,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>so:090</t>
+          <t>so:026</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gross primary production</t>
+          <t>Leaf area index – non-forested sites</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOBIO_090</t>
+          <t>SOBIO_026</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3463,17 +3427,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>so:091</t>
+          <t>so:090</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transpiration (plants)</t>
+          <t>Gross primary production</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SOBIO_091</t>
+          <t>SOBIO_090</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3533,17 +3497,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>so:092</t>
+          <t>so:091</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Aboveground litterfall - forests</t>
+          <t>Transpiration (plants)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SOBIO_092</t>
+          <t>SOBIO_091</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3603,17 +3567,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>so:093</t>
+          <t>so:092</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Belowground biomass - terrestrial</t>
+          <t>Aboveground litterfall - forests</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SOBIO_093</t>
+          <t>SOBIO_092</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3673,17 +3637,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>so:095</t>
+          <t>so:093</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
+          <t>Belowground biomass - terrestrial</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SOBIO_095</t>
+          <t>SOBIO_093</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3743,17 +3707,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>so:096</t>
+          <t>so:095</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
+          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SOBIO_096</t>
+          <t>SOBIO_095</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3766,7 +3730,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3813,17 +3777,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>so:140</t>
+          <t>so:096</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Vegetation structure - site scale</t>
+          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SOBIO_140</t>
+          <t>SOBIO_096</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3836,7 +3800,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -3883,17 +3847,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>so:177</t>
+          <t>so:140</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tree growth</t>
+          <t>Vegetation structure - site scale</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SOBIO_177</t>
+          <t>SOBIO_140</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3953,17 +3917,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>so:003</t>
+          <t>so:177</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Soil chemical and physical characteristics</t>
+          <t>Tree growth</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SOGEO_003</t>
+          <t>SOBIO_177</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3976,7 +3940,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -4023,17 +3987,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>so:048</t>
+          <t>so:003</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Percolation/infiltration - soil</t>
+          <t>Soil chemical and physical characteristics</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SOGEO_048</t>
+          <t>SOGEO_003</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4093,17 +4057,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>so:155</t>
+          <t>so:048</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sediment (aquatic and marine) inventory</t>
+          <t>Percolation/infiltration - soil</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SOGEO_155</t>
+          <t>SOGEO_048</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4163,17 +4127,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>so:167</t>
+          <t>so:155</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Soil water chemical characteristics</t>
+          <t>Sediment (aquatic and marine) inventory</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SOGEO_167</t>
+          <t>SOGEO_155</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4233,17 +4197,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>so:004</t>
+          <t>so:167</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
+          <t>Soil water chemical characteristics</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SOHYD_004</t>
+          <t>SOGEO_167</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4256,7 +4220,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4303,17 +4267,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>so:005</t>
+          <t>so:004</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - surface water (running waters)</t>
+          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SOHYD_005</t>
+          <t>SOHYD_004</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4373,17 +4337,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>so:006</t>
+          <t>so:005</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - groundwater</t>
+          <t>Physical and chemical water characteristics - surface water (running waters)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SOHYD_006</t>
+          <t>SOHYD_005</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4443,17 +4407,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>so:010</t>
+          <t>so:006</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Water level - surface water (running water)</t>
+          <t>Physical and chemical water characteristics - groundwater</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SOHYD_010</t>
+          <t>SOHYD_006</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4513,17 +4477,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>so:011</t>
+          <t>so:010</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ice cover/thickness (standing and transitional water)</t>
+          <t>Water level - surface water (running water)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SOHYD_011</t>
+          <t>SOHYD_010</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4583,17 +4547,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>so:012</t>
+          <t>so:011</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Snow cover and depths</t>
+          <t>Ice cover/thickness (standing and transitional water)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SOHYD_012</t>
+          <t>SOHYD_011</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4653,17 +4617,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>so:058</t>
+          <t>so:012</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
+          <t>Snow cover and depths</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SOHYD_058</t>
+          <t>SOHYD_012</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4723,17 +4687,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>so:059</t>
+          <t>so:058</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Stable Isotopes (18O, 2H) - groundwater</t>
+          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SOHYD_059</t>
+          <t>SOHYD_058</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4793,17 +4757,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>so:062</t>
+          <t>so:059</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
+          <t>Stable Isotopes (18O, 2H) - groundwater</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SOHYD_062</t>
+          <t>SOHYD_059</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4863,17 +4827,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>so:064</t>
+          <t>so:062</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SOHYD_064</t>
+          <t>SOHYD_062</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4933,17 +4897,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>so:065</t>
+          <t>so:064</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DOM composition - groundwater</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SOHYD_065</t>
+          <t>SOHYD_064</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5003,17 +4967,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>so:067</t>
+          <t>so:065</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
+          <t>DOM composition - groundwater</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SOHYD_067</t>
+          <t>SOHYD_065</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5073,17 +5037,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>so:164</t>
+          <t>so:067</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Glacier front variation</t>
+          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SOHYD_164</t>
+          <t>SOHYD_067</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5143,17 +5107,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>so:165</t>
+          <t>so:164</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Glacier mass balance</t>
+          <t>Glacier front variation</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SOHYD_165</t>
+          <t>SOHYD_164</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5213,17 +5177,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>so:166</t>
+          <t>so:165</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Glacier area</t>
+          <t>Glacier mass balance</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SOHYD_166</t>
+          <t>SOHYD_165</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5283,17 +5247,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>so:168</t>
+          <t>so:166</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Soil water content/soil temperature</t>
+          <t>Glacier area</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SOHYD_168</t>
+          <t>SOHYD_166</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5353,17 +5317,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>so:169</t>
+          <t>so:168</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
+          <t>Soil water content/soil temperature</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SOHYD_169</t>
+          <t>SOHYD_168</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5423,17 +5387,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>so:170</t>
+          <t>so:169</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
+          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SOHYD_170</t>
+          <t>SOHYD_169</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5493,17 +5457,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>so:171</t>
+          <t>so:170</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SOHYD_171</t>
+          <t>SOHYD_170</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5563,17 +5527,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>so:172</t>
+          <t>so:171</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SOHYD_172</t>
+          <t>SOHYD_171</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5586,7 +5550,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5633,17 +5597,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>so:173</t>
+          <t>so:172</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SOHYD_173</t>
+          <t>SOHYD_172</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5703,17 +5667,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>so:174</t>
+          <t>so:173</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Secchi-Depth; standing waters and transitional waters</t>
+          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SOHYD_174</t>
+          <t>SOHYD_173</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5726,7 +5690,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -5773,22 +5737,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>so:001</t>
+          <t>so:174</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Soil inventory - pedological/geological characterization</t>
+          <t>Secchi-Depth; standing waters and transitional waters</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SOGEO_001</t>
+          <t>SOHYD_174</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5796,7 +5760,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -5804,11 +5768,7 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
-        </is>
-      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -5829,7 +5789,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
@@ -5847,34 +5807,42 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>so:c1</t>
+          <t>so:001</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sociosphere</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>Soil inventory - pedological/geological characterization</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SOGEO_001</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>et:30317</t>
-        </is>
-      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>so:c2</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -5895,7 +5863,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="V90" t="inlineStr"/>
@@ -5913,12 +5881,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c1</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Geosphere</t>
+          <t>Sociosphere</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -5933,7 +5901,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>et:30316</t>
+          <t>et:30317</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -5979,12 +5947,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hydrosphere</t>
+          <t>Geosphere</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -5999,7 +5967,7 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>et:21922</t>
+          <t>et:30316</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -6045,12 +6013,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Biosphere</t>
+          <t>Hydrosphere</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -6065,7 +6033,7 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>et:21921</t>
+          <t>et:21922</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -6111,12 +6079,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Atmosphere</t>
+          <t>Biosphere</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -6131,7 +6099,7 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>et:21920</t>
+          <t>et:21921</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -6174,6 +6142,72 @@
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Atmosphere</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>skos:Collection</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>et:21920</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2013,27 +2013,111 @@
       <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>skos:notation</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>rdf:type(separator=",")</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>^skos:member</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>obo:RO_0002351(separator=",")</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>owl:sameAs(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>rdfs:seeAlso</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>dct:contributor</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>2024-01-05</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2049,107 +2133,59 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>so:027</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>Meteorological data</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>skos:notation</t>
+          <t>SOATM_027</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rdf:type(separator=",")</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
+          <t>iop:VariableSet</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>^skos:member</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>obo:RO_0002351(separator=",")</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>owl:sameAs(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>rdfs:seeAlso</t>
-        </is>
-      </c>
+          <t>so:c5</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:date</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2167,17 +2203,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>so:027</t>
+          <t>so:028</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Meteorological data</t>
+          <t>Radiation</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SOATM_027</t>
+          <t>SOATM_028</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2219,7 +2255,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-08-26</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2237,17 +2273,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>so:028</t>
+          <t>so:098</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Radiation</t>
+          <t>Ground heat flux</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SOATM_028</t>
+          <t>SOATM_098</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2289,7 +2325,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2307,17 +2343,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>so:098</t>
+          <t>so:103</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ground heat flux</t>
+          <t>Atmospheric deposition in precipitation</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SOATM_098</t>
+          <t>SOATM_103</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2377,17 +2413,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>so:103</t>
+          <t>so:108</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Atmospheric deposition in precipitation</t>
+          <t>Dry deposition of N-components</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOATM_103</t>
+          <t>SOATM_108</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2447,17 +2483,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>so:108</t>
+          <t>so:176</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dry deposition of N-components</t>
+          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOATM_108</t>
+          <t>SOATM_176</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2517,17 +2553,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>so:176</t>
+          <t>so:014</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
+          <t>Flying insects</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOATM_176</t>
+          <t>SOBIO_014</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2540,7 +2576,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2587,17 +2623,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>so:014</t>
+          <t>so:015</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Flying insects</t>
+          <t>Vegetation phenology and Leaf Area Index – European scale</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SOBIO_014</t>
+          <t>SOBIO_015</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2610,7 +2646,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -2657,17 +2693,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>so:015</t>
+          <t>so:016</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Vegetation phenology and Leaf Area Index – European scale</t>
+          <t>Vegetation phenology – site scale</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SOBIO_015</t>
+          <t>SOBIO_016</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2727,17 +2763,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>so:016</t>
+          <t>so:017</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vegetation phenology – site scale</t>
+          <t>Vegetation composition (mainly species level+abundance)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SOBIO_016</t>
+          <t>SOBIO_017</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2750,7 +2786,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2797,17 +2833,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>so:017</t>
+          <t>so:018</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vegetation composition (mainly species level+abundance)</t>
+          <t>Birds, bats, frogs, insects using acoustic recording</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOBIO_017</t>
+          <t>SOBIO_018</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2867,17 +2903,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>so:018</t>
+          <t>so:019</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Birds, bats, frogs, insects using acoustic recording</t>
+          <t>Pollen and spores</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SOBIO_018</t>
+          <t>SOBIO_019</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2937,17 +2973,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>so:019</t>
+          <t>so:021</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pollen and spores</t>
+          <t>eDNA Water</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SOBIO_019</t>
+          <t>SOBIO_021</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3007,17 +3043,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>so:021</t>
+          <t>so:022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>eDNA Water</t>
+          <t>eDNA soil</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SOBIO_021</t>
+          <t>SOBIO_022</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3077,17 +3113,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>so:022</t>
+          <t>so:023</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>eDNA soil</t>
+          <t>Vegetation aboveground biomass - forest (site scale)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SOBIO_022</t>
+          <t>SOBIO_023</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3100,7 +3136,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3147,17 +3183,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>so:023</t>
+          <t>so:024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass - forest (site scale)</t>
+          <t>Vegetation aboveground biomass – non-forested sites</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SOBIO_023</t>
+          <t>SOBIO_024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3217,17 +3253,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>so:024</t>
+          <t>so:025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass – non-forested sites</t>
+          <t>Leaf area index - forests (site scale)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SOBIO_024</t>
+          <t>SOBIO_025</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3287,17 +3323,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>so:025</t>
+          <t>so:026</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Leaf area index - forests (site scale)</t>
+          <t>Leaf area index – non-forested sites</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SOBIO_025</t>
+          <t>SOBIO_026</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3357,17 +3393,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>so:026</t>
+          <t>so:090</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Leaf area index – non-forested sites</t>
+          <t>Gross primary production</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOBIO_026</t>
+          <t>SOBIO_090</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3427,17 +3463,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>so:090</t>
+          <t>so:091</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Gross primary production</t>
+          <t>Transpiration (plants)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SOBIO_090</t>
+          <t>SOBIO_091</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3497,17 +3533,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>so:091</t>
+          <t>so:092</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transpiration (plants)</t>
+          <t>Aboveground litterfall - forests</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SOBIO_091</t>
+          <t>SOBIO_092</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3567,17 +3603,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>so:092</t>
+          <t>so:093</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Aboveground litterfall - forests</t>
+          <t>Belowground biomass - terrestrial</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SOBIO_092</t>
+          <t>SOBIO_093</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3637,17 +3673,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>so:093</t>
+          <t>so:095</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Belowground biomass - terrestrial</t>
+          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SOBIO_093</t>
+          <t>SOBIO_095</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3707,17 +3743,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>so:095</t>
+          <t>so:096</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
+          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SOBIO_095</t>
+          <t>SOBIO_096</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3730,7 +3766,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3777,17 +3813,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>so:096</t>
+          <t>so:140</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
+          <t>Vegetation structure - site scale</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SOBIO_096</t>
+          <t>SOBIO_140</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3800,7 +3836,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -3847,17 +3883,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>so:140</t>
+          <t>so:177</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Vegetation structure - site scale</t>
+          <t>Tree growth</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SOBIO_140</t>
+          <t>SOBIO_177</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3917,17 +3953,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>so:177</t>
+          <t>so:003</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tree growth</t>
+          <t>Soil chemical and physical characteristics</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SOBIO_177</t>
+          <t>SOGEO_003</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3940,7 +3976,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -3987,17 +4023,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>so:003</t>
+          <t>so:048</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Soil chemical and physical characteristics</t>
+          <t>Percolation/infiltration - soil</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SOGEO_003</t>
+          <t>SOGEO_048</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4057,17 +4093,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>so:048</t>
+          <t>so:155</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Percolation/infiltration - soil</t>
+          <t>Sediment (aquatic and marine) inventory</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SOGEO_048</t>
+          <t>SOGEO_155</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4127,17 +4163,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>so:155</t>
+          <t>so:167</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sediment (aquatic and marine) inventory</t>
+          <t>Soil water chemical characteristics</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SOGEO_155</t>
+          <t>SOGEO_167</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4197,17 +4233,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>so:167</t>
+          <t>so:004</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Soil water chemical characteristics</t>
+          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SOGEO_167</t>
+          <t>SOHYD_004</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4220,7 +4256,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4267,17 +4303,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>so:004</t>
+          <t>so:005</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
+          <t>Physical and chemical water characteristics - surface water (running waters)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SOHYD_004</t>
+          <t>SOHYD_005</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4337,17 +4373,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>so:005</t>
+          <t>so:006</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - surface water (running waters)</t>
+          <t>Physical and chemical water characteristics - groundwater</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SOHYD_005</t>
+          <t>SOHYD_006</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4407,17 +4443,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>so:006</t>
+          <t>so:010</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - groundwater</t>
+          <t>Water level - surface water (running water)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SOHYD_006</t>
+          <t>SOHYD_010</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4477,17 +4513,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>so:010</t>
+          <t>so:011</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Water level - surface water (running water)</t>
+          <t>Ice cover/thickness (standing and transitional water)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SOHYD_010</t>
+          <t>SOHYD_011</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4547,17 +4583,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>so:011</t>
+          <t>so:012</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ice cover/thickness (standing and transitional water)</t>
+          <t>Snow cover and depths</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SOHYD_011</t>
+          <t>SOHYD_012</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4617,17 +4653,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>so:012</t>
+          <t>so:058</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Snow cover and depths</t>
+          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SOHYD_012</t>
+          <t>SOHYD_058</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4687,17 +4723,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>so:058</t>
+          <t>so:059</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
+          <t>Stable Isotopes (18O, 2H) - groundwater</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SOHYD_058</t>
+          <t>SOHYD_059</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4757,17 +4793,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>so:059</t>
+          <t>so:062</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Stable Isotopes (18O, 2H) - groundwater</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SOHYD_059</t>
+          <t>SOHYD_062</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4827,17 +4863,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>so:062</t>
+          <t>so:064</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SOHYD_062</t>
+          <t>SOHYD_064</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4897,17 +4933,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>so:064</t>
+          <t>so:065</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
+          <t>DOM composition - groundwater</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SOHYD_064</t>
+          <t>SOHYD_065</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4967,17 +5003,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>so:065</t>
+          <t>so:067</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DOM composition - groundwater</t>
+          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SOHYD_065</t>
+          <t>SOHYD_067</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5037,17 +5073,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>so:067</t>
+          <t>so:164</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
+          <t>Glacier front variation</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SOHYD_067</t>
+          <t>SOHYD_164</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5107,17 +5143,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>so:164</t>
+          <t>so:165</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Glacier front variation</t>
+          <t>Glacier mass balance</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SOHYD_164</t>
+          <t>SOHYD_165</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5177,17 +5213,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>so:165</t>
+          <t>so:166</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Glacier mass balance</t>
+          <t>Glacier area</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SOHYD_165</t>
+          <t>SOHYD_166</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5247,17 +5283,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>so:166</t>
+          <t>so:168</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Glacier area</t>
+          <t>Soil water content/soil temperature</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SOHYD_166</t>
+          <t>SOHYD_168</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5317,17 +5353,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>so:168</t>
+          <t>so:169</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Soil water content/soil temperature</t>
+          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SOHYD_168</t>
+          <t>SOHYD_169</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5387,17 +5423,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>so:169</t>
+          <t>so:170</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
+          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SOHYD_169</t>
+          <t>SOHYD_170</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5457,17 +5493,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>so:170</t>
+          <t>so:171</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SOHYD_170</t>
+          <t>SOHYD_171</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5527,17 +5563,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>so:171</t>
+          <t>so:172</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SOHYD_171</t>
+          <t>SOHYD_172</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5550,7 +5586,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5597,17 +5633,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>so:172</t>
+          <t>so:173</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
+          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SOHYD_172</t>
+          <t>SOHYD_173</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5667,17 +5703,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>so:173</t>
+          <t>so:174</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
+          <t>Secchi-Depth; standing waters and transitional waters</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SOHYD_173</t>
+          <t>SOHYD_174</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5690,7 +5726,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -5737,22 +5773,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>so:174</t>
+          <t>so:001</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Secchi-Depth; standing waters and transitional waters</t>
+          <t>Soil inventory - pedological/geological characterization</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SOHYD_174</t>
+          <t>SOGEO_001</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5760,7 +5796,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -5768,7 +5804,11 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -5789,7 +5829,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
@@ -5807,42 +5847,34 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>so:001</t>
+          <t>so:c1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Soil inventory - pedological/geological characterization</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>SOGEO_001</t>
-        </is>
-      </c>
+          <t>Sociosphere</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Collection</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>so:c2</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>et:30317</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
-        </is>
-      </c>
+      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -5863,7 +5895,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V90" t="inlineStr"/>
@@ -5881,12 +5913,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>so:c1</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sociosphere</t>
+          <t>Geosphere</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -5901,7 +5933,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>et:30317</t>
+          <t>et:30316</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -5947,12 +5979,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Geosphere</t>
+          <t>Hydrosphere</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -5967,7 +5999,7 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>et:30316</t>
+          <t>et:21922</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -6013,12 +6045,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hydrosphere</t>
+          <t>Biosphere</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -6033,7 +6065,7 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>et:21922</t>
+          <t>et:21921</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -6079,12 +6111,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Biosphere</t>
+          <t>Atmosphere</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -6099,7 +6131,7 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>et:21921</t>
+          <t>et:21920</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -6142,72 +6174,6 @@
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Atmosphere</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>skos:Collection</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>et:21920</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
-      <c r="AC95" t="inlineStr"/>
-      <c r="AD95" t="inlineStr"/>
-      <c r="AE95" t="inlineStr"/>
-      <c r="AF95" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -2148,7 +2148,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -2148,7 +2148,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -2148,7 +2148,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF94"/>
+  <dimension ref="A1:AF106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,11 +955,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
@@ -1346,11 +1342,7 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
@@ -1372,7 +1364,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.0.1</t>
+          <t>0.0.3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1392,11 +1384,7 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
@@ -1438,11 +1426,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
@@ -1464,7 +1448,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-08-16T11:00:00+00:00</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1526,11 +1510,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
@@ -1573,11 +1553,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -1619,11 +1595,7 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -1665,11 +1637,7 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
@@ -1711,11 +1679,7 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
@@ -1757,11 +1721,7 @@
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
@@ -1803,11 +1763,7 @@
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
@@ -1849,11 +1805,7 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
@@ -1895,11 +1847,7 @@
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
@@ -1940,16 +1888,8 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
@@ -1990,16 +1930,8 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -2148,7 +2080,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2185,7 +2117,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2218,7 +2150,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2255,7 +2187,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2023-08-26</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2278,7 +2210,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ground heat flux</t>
+          <t>Soil heat flux</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2288,7 +2220,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2325,7 +2257,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2358,7 +2290,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2428,7 +2360,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2498,7 +2430,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2568,7 +2500,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2638,7 +2570,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2708,7 +2640,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2778,7 +2710,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2848,7 +2780,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2918,7 +2850,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2988,7 +2920,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3058,7 +2990,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3128,7 +3060,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3165,7 +3097,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3198,7 +3130,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3268,7 +3200,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3338,7 +3270,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3408,7 +3340,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3478,7 +3410,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3548,7 +3480,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3618,7 +3550,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3688,7 +3620,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3758,7 +3690,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3828,7 +3760,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3898,7 +3830,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3968,7 +3900,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -4038,7 +3970,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4108,7 +4040,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4178,7 +4110,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4248,7 +4180,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4318,7 +4250,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4388,7 +4320,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4458,7 +4390,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4528,7 +4460,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4598,7 +4530,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4668,7 +4600,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4738,7 +4670,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4798,7 +4730,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca - groundwater</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4808,7 +4740,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4845,7 +4777,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
@@ -4878,7 +4810,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4933,22 +4865,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>so:065</t>
+          <t>so:067</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DOM composition - groundwater</t>
+          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SOHYD_065</t>
+          <t>SOHYD_067</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -5003,22 +4935,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>so:067</t>
+          <t>so:164</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
+          <t>Glacier front variation</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SOHYD_067</t>
+          <t>SOHYD_164</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -5073,22 +5005,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>so:164</t>
+          <t>so:165</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Glacier front variation</t>
+          <t>Glacier mass balance</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SOHYD_164</t>
+          <t>SOHYD_165</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -5143,22 +5075,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>so:165</t>
+          <t>so:166</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Glacier mass balance</t>
+          <t>Glacier area</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SOHYD_165</t>
+          <t>SOHYD_166</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -5213,22 +5145,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>so:166</t>
+          <t>so:168</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Glacier area</t>
+          <t>Soil water content, soil temperature</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SOHYD_166</t>
+          <t>SOHYD_168</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -5265,7 +5197,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V81" t="inlineStr"/>
@@ -5283,22 +5215,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>so:168</t>
+          <t>so:169</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Soil water content/soil temperature</t>
+          <t>Nutrient concentration: DOC, DIC - running waters</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SOHYD_168</t>
+          <t>SOHYD_169</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -5335,7 +5267,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
@@ -5353,22 +5285,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>so:169</t>
+          <t>so:170</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nutrient concentration: NO2, NH4, DOC, DIC - running waters</t>
+          <t>Profiles of nutrient concentration: DOC, DIC - standing waters</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SOHYD_169</t>
+          <t>SOHYD_170</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5405,7 +5337,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
@@ -5423,22 +5355,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>so:170</t>
+          <t>so:171</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: NO2, NH4, DOC, DIC - standing waters</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SOHYD_170</t>
+          <t>SOHYD_171</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5493,22 +5425,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>so:171</t>
+          <t>so:172</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4 - running waters</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SOHYD_171</t>
+          <t>SOHYD_172</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5516,7 +5448,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -5545,7 +5477,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V85" t="inlineStr"/>
@@ -5563,22 +5495,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>so:172</t>
+          <t>so:173</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3 - running waters</t>
+          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4 - standing waters</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SOHYD_172</t>
+          <t>SOHYD_173</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5615,7 +5547,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
@@ -5633,22 +5565,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>so:173</t>
+          <t>so:174</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, - standing waters</t>
+          <t>Secchi-Depth; standing waters and transitional waters</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SOHYD_173</t>
+          <t>SOHYD_174</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5656,7 +5588,7 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -5685,7 +5617,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V87" t="inlineStr"/>
@@ -5703,22 +5635,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>so:174</t>
+          <t>so:001</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Secchi-Depth; standing waters and transitional waters</t>
+          <t>Soil inventory - pedological/geological characterization</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SOHYD_174</t>
+          <t>SOGEO_001</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5726,7 +5658,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -5734,7 +5666,11 @@
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
@@ -5755,7 +5691,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
@@ -5773,42 +5709,34 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>so:001</t>
+          <t>so:c1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Soil inventory - pedological/geological characterization</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>SOGEO_001</t>
-        </is>
-      </c>
+          <t>Sociosphere</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Collection</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>so:c2</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>et:30317</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
-        </is>
-      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -5829,7 +5757,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
@@ -5847,12 +5775,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>so:c1</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sociosphere</t>
+          <t>Geosphere</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -5867,7 +5795,7 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>et:30317</t>
+          <t>et:30316</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -5913,12 +5841,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Geosphere</t>
+          <t>Hydrosphere</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -5933,7 +5861,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>et:30316</t>
+          <t>et:21922</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -5979,12 +5907,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hydrosphere</t>
+          <t>Biosphere</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -5999,7 +5927,7 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>et:21922</t>
+          <t>et:21921</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -6045,12 +5973,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Biosphere</t>
+          <t>Atmosphere</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -6065,7 +5993,7 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>et:21921</t>
+          <t>et:21920</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -6093,7 +6021,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V93" t="inlineStr"/>
@@ -6111,29 +6039,33 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:031</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Atmosphere</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>Yield (cropland, grassland, forest, fishery)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>so:031</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet,skos:concept</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>et:21920</t>
-        </is>
-      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
@@ -6154,12 +6086,12 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V94" t="inlineStr"/>
@@ -6174,6 +6106,846 @@
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>so:030</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Land-based income</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>so:030</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>so:114</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Livestock</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>so:114</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>so:032</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Governance structure and character</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>so:032</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>so:036</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Land cover, land use, land cover change, land use change (CORINE)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>so:036</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>so:037</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Land cover, land use (Statistics) and (for Platforms only) land use actors</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>so:037</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>so:040</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Ecosystem services profile</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>so:040</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>so:042</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Economics (GDP per capita; Per capita income)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>so:042</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>so:043</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Demography</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>so:043</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>so:044</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Status of employment</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>so:044</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>so:045</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Population consumption statistics</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>so:045</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>so:183</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Resource use (MFA)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>so:183</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>so:184</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Subsidies programs / schemes</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>so:184</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>iop:VariableSet,skos:concept</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -2080,7 +2080,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:concept</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -6049,7 +6049,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>so:031</t>
+          <t>SOSOC_031</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>so:030</t>
+          <t>SOSOC_030</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6189,7 +6189,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>so:114</t>
+          <t>SOSOC_114</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6259,7 +6259,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>so:032</t>
+          <t>SOSOC_032</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>so:036</t>
+          <t>SOSOC_036</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>so:037</t>
+          <t>SOSOC_037</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>so:040</t>
+          <t>SOSOC_040</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>so:042</t>
+          <t>SOSOC_042</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>so:043</t>
+          <t>SOSOC_043</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>so:044</t>
+          <t>SOSOC_044</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>so:045</t>
+          <t>SOSOC_045</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>so:183</t>
+          <t>SOSOC_183</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>so:184</t>
+          <t>SOSOC_184</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -2080,7 +2080,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -6894,7 +6894,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>iop:VariableSet,skos:Concept</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>iop:VariableSet,skos:Concept</t>
+          <t>skos:Concept</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>skos:Concept</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
+          <t>Micropollutants: non-target screening [around 1000 substances] - running waters</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="V77" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [around 1000 substances] - running waters</t>
+          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF106"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SOBIO_023</t>
+          <t>SOATM_023</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SOBIO_024</t>
+          <t>SOATM_024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SOBIO_025</t>
+          <t>SOATM_025</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SOBIO_026</t>
+          <t>SOATM_026</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOBIO_090</t>
+          <t>SOATM_090</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SOBIO_091</t>
+          <t>SOATM_091</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SOBIO_092</t>
+          <t>SOATM_092</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3535,17 +3535,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>so:093</t>
+          <t>so:095</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Belowground biomass - terrestrial</t>
+          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SOBIO_093</t>
+          <t>SOATM_095</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
@@ -3605,17 +3605,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>so:095</t>
+          <t>so:096</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
+          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SOBIO_095</t>
+          <t>SOBIO_096</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3628,7 +3628,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3675,17 +3675,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>so:096</t>
+          <t>so:140</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
+          <t>Vegetation structure - site scale</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SOBIO_096</t>
+          <t>SOATM_140</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3698,7 +3698,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V60" t="inlineStr"/>
@@ -3745,17 +3745,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>so:140</t>
+          <t>so:177</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Vegetation structure - site scale</t>
+          <t>Tree growth</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SOBIO_140</t>
+          <t>SOATM_177</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V61" t="inlineStr"/>
@@ -3815,17 +3815,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>so:177</t>
+          <t>so:003</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tree growth</t>
+          <t>Soil chemical and physical characteristics</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SOBIO_177</t>
+          <t>SOGEO_003</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3838,7 +3838,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -3885,17 +3885,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>so:003</t>
+          <t>so:048</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Soil chemical and physical characteristics</t>
+          <t>Percolation/infiltration - soil</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SOGEO_003</t>
+          <t>SOGEO_048</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3955,17 +3955,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>so:048</t>
+          <t>so:155</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Percolation/infiltration - soil</t>
+          <t>Sediment (aquatic and marine) inventory</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SOGEO_048</t>
+          <t>SOGEO_155</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4025,17 +4025,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>so:155</t>
+          <t>so:167</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sediment (aquatic and marine) inventory</t>
+          <t>Soil water chemical characteristics</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SOGEO_155</t>
+          <t>SOGEO_167</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4095,17 +4095,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>so:167</t>
+          <t>so:004</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Soil water chemical characteristics</t>
+          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SOGEO_167</t>
+          <t>SOHYD_004</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4118,7 +4118,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4165,17 +4165,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>so:004</t>
+          <t>so:005</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
+          <t>Physical and chemical water characteristics - surface water (running waters)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SOHYD_004</t>
+          <t>SOHYD_005</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4235,17 +4235,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>so:005</t>
+          <t>so:006</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - surface water (running waters)</t>
+          <t>Physical and chemical water characteristics - groundwater</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SOHYD_005</t>
+          <t>SOHYD_006</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4305,17 +4305,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>so:006</t>
+          <t>so:010</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - groundwater</t>
+          <t>Water level - surface water (running water)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SOHYD_006</t>
+          <t>SOHYD_010</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4375,17 +4375,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>so:010</t>
+          <t>so:011</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Water level - surface water (running water)</t>
+          <t>Ice cover/thickness (standing and transitional water)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SOHYD_010</t>
+          <t>SOHYD_011</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4445,17 +4445,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>so:011</t>
+          <t>so:012</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ice cover/thickness (standing and transitional water)</t>
+          <t>Snow cover and depths</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SOHYD_011</t>
+          <t>SOHYD_012</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4515,17 +4515,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>so:012</t>
+          <t>so:058</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Snow cover and depths</t>
+          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SOHYD_012</t>
+          <t>SOHYD_058</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4585,17 +4585,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>so:058</t>
+          <t>so:059</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
+          <t>Stable Isotopes (18O, 2H) - groundwater</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SOHYD_058</t>
+          <t>SOHYD_059</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4655,17 +4655,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>so:059</t>
+          <t>so:062</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Stable Isotopes (18O, 2H) - groundwater</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca - groundwater</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SOHYD_059</t>
+          <t>SOHYD_062</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
@@ -4725,17 +4725,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>so:062</t>
+          <t>so:064</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca - groundwater</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SOHYD_062</t>
+          <t>SOHYD_064</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
@@ -4795,17 +4795,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>so:064</t>
+          <t>so:164</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
+          <t>Glacier front variation</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SOHYD_064</t>
+          <t>SOHYD_164</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4865,17 +4865,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>so:067</t>
+          <t>so:165</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Micropollutants: non-target screening [~1000 substances] - running waters</t>
+          <t>Glacier mass balance</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SOHYD_067</t>
+          <t>SOHYD_165</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2024-08-27</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
@@ -4935,17 +4935,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>so:164</t>
+          <t>so:166</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Glacier front variation</t>
+          <t>Glacier area</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SOHYD_164</t>
+          <t>SOHYD_166</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5005,17 +5005,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>so:165</t>
+          <t>so:168</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Glacier mass balance</t>
+          <t>Soil water content, soil temperature</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SOHYD_165</t>
+          <t>SOHYD_168</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
@@ -5075,17 +5075,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>so:166</t>
+          <t>so:169</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Glacier area</t>
+          <t>Nutrient concentration: DOC, DIC - running waters</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SOHYD_166</t>
+          <t>SOHYD_169</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V80" t="inlineStr"/>
@@ -5145,17 +5145,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>so:168</t>
+          <t>so:170</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Soil water content, soil temperature</t>
+          <t>Profiles of nutrient concentration: DOC, DIC - standing waters</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SOHYD_168</t>
+          <t>SOHYD_170</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5215,17 +5215,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>so:169</t>
+          <t>so:171</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Nutrient concentration: DOC, DIC - running waters</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SOHYD_169</t>
+          <t>SOHYD_171</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
@@ -5285,17 +5285,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>so:170</t>
+          <t>so:172</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: DOC, DIC - standing waters</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4 - running waters</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SOHYD_170</t>
+          <t>SOHYD_172</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
@@ -5355,17 +5355,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>so:171</t>
+          <t>so:173</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4 - standing waters</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SOHYD_171</t>
+          <t>SOHYD_173</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
@@ -5425,17 +5425,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>so:172</t>
+          <t>so:174</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4 - running waters</t>
+          <t>Secchi-Depth; standing waters and transitional waters</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SOHYD_172</t>
+          <t>SOHYD_174</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5448,7 +5448,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -5495,17 +5495,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>so:173</t>
+          <t>so:001</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4 - standing waters</t>
+          <t>Soil inventory - pedological/geological characterization</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SOHYD_173</t>
+          <t>SOGEO_001</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5518,7 +5518,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5526,7 +5526,11 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
@@ -5547,7 +5551,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
@@ -5565,33 +5569,29 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>so:174</t>
+          <t>so:c1</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Secchi-Depth; standing waters and transitional waters</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>SOHYD_174</t>
-        </is>
-      </c>
+          <t>Sociosphere</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Collection</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>so:c3</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>et:30317</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -5635,42 +5635,34 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>so:001</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Soil inventory - pedological/geological characterization</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>SOGEO_001</t>
-        </is>
-      </c>
+          <t>Geosphere</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Collection</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>so:c2</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>et:30316</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
-        </is>
-      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
@@ -5691,7 +5683,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
@@ -5709,12 +5701,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>so:c1</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sociosphere</t>
+          <t>Hydrosphere</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -5729,7 +5721,7 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>et:30317</t>
+          <t>et:21922</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -5757,7 +5749,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
@@ -5775,12 +5767,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Geosphere</t>
+          <t>Biosphere</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -5795,7 +5787,7 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>et:30316</t>
+          <t>et:21921</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -5841,12 +5833,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hydrosphere</t>
+          <t>Atmosphere</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -5861,7 +5853,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>et:21922</t>
+          <t>et:21920</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -5889,7 +5881,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V91" t="inlineStr"/>
@@ -5907,29 +5899,33 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:031</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Biosphere</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>Yield (cropland, grassland, forest, fishery)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SOSOC_031</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>et:21921</t>
-        </is>
-      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -5950,12 +5946,12 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
@@ -5973,29 +5969,33 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:030</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Atmosphere</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>Land-based income</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SOSOC_030</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>iop:VariableSet</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>et:21920</t>
-        </is>
-      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
@@ -6039,17 +6039,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>so:031</t>
+          <t>so:114</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Yield (cropland, grassland, forest, fishery)</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SOSOC_031</t>
+          <t>SOSOC_114</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6109,17 +6109,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>so:030</t>
+          <t>so:032</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Land-based income</t>
+          <t>Governance structure and character</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SOSOC_030</t>
+          <t>SOSOC_032</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6179,17 +6179,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>so:114</t>
+          <t>so:036</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Land cover, land use, land cover change, land use change - CORINE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SOSOC_114</t>
+          <t>SOSOC_036</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="V96" t="inlineStr"/>
@@ -6249,17 +6249,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>so:032</t>
+          <t>so:037</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Governance structure and character</t>
+          <t>Land cover, land use (Statistics) and (for Platforms only) land use actors</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SOSOC_032</t>
+          <t>SOSOC_037</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6319,17 +6319,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>so:036</t>
+          <t>so:040</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Land cover, land use, land cover change, land use change (CORINE)</t>
+          <t>Ecosystem services profile</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SOSOC_036</t>
+          <t>SOSOC_040</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6389,17 +6389,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>so:037</t>
+          <t>so:042</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Land cover, land use (Statistics) and (for Platforms only) land use actors</t>
+          <t>Economics (GDP per capita; Per capita income)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SOSOC_037</t>
+          <t>SOSOC_042</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6459,17 +6459,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>so:040</t>
+          <t>so:043</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ecosystem services profile</t>
+          <t>Demography</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SOSOC_040</t>
+          <t>SOSOC_043</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6529,17 +6529,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>so:042</t>
+          <t>so:044</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Economics (GDP per capita; Per capita income)</t>
+          <t>Status of employment</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SOSOC_042</t>
+          <t>SOSOC_044</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6599,17 +6599,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>so:043</t>
+          <t>so:045</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Demography</t>
+          <t>Population consumption statistics</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SOSOC_043</t>
+          <t>SOSOC_045</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6669,17 +6669,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>so:044</t>
+          <t>so:183</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Status of employment</t>
+          <t>Resource use (MFA)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SOSOC_044</t>
+          <t>SOSOC_183</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -6739,17 +6739,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>so:045</t>
+          <t>so:184</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Population consumption statistics</t>
+          <t>Subsidies programs / schemes</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SOSOC_045</t>
+          <t>SOSOC_184</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -6806,146 +6806,6 @@
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr"/>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>so:183</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Resource use (MFA)</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>SOSOC_183</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
-      <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr"/>
-      <c r="AF105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>so:184</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Subsidies programs / schemes</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>SOSOC_184</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>2024-06-24</t>
-        </is>
-      </c>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
-      <c r="AD106" t="inlineStr"/>
-      <c r="AE106" t="inlineStr"/>
-      <c r="AF106" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -2080,7 +2080,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3410,7 +3410,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -5090,7 +5090,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -5300,7 +5300,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="V93" t="inlineStr"/>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -6334,7 +6334,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -6404,7 +6404,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -6474,7 +6474,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>iop:VariableSet</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AG107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,7 @@
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr"/>
       <c r="AF1" t="inlineStr"/>
+      <c r="AG1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -508,6 +509,7 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -554,6 +556,7 @@
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -600,6 +603,7 @@
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -646,6 +650,7 @@
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -692,6 +697,7 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -738,6 +744,7 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -784,6 +791,7 @@
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -830,6 +838,7 @@
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -876,6 +885,7 @@
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -922,6 +932,7 @@
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -968,6 +979,7 @@
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1014,6 +1026,7 @@
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1028,8 +1041,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-http://vocabs.lter-europe.net/EnvThes/</t>
+          <t>http://vocabs.lter-europe.net/EnvThes/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1061,6 +1073,7 @@
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1068,7 +1081,11 @@
           <t>PREFIX</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>qudt</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/</t>
@@ -1103,19 +1120,24 @@
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>eLTER SOs</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>omv</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>http://omv.ontoware.org/2005/05/ontology</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1145,16 +1167,17 @@
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>eLTER Standard Observations</t>
+          <t>eLTER SOs</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1187,16 +1210,17 @@
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Thesaurus for eLTER Standard Observations</t>
+          <t>eLTER Standard Observations</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1229,16 +1253,17 @@
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+          <t>Thesaurus for eLTER Standard Observations</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1271,16 +1296,17 @@
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://ror.org/00pggkr55</t>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1313,16 +1339,17 @@
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dct:license</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://creativecommons.org/licenses/by/4.0/</t>
+          <t>https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1355,16 +1382,17 @@
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>owl:versionInfo</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.0.3</t>
+          <t>https://ror.org/013vyke20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1397,16 +1425,17 @@
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dct:created</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-08-16T11:00:00+00:00</t>
+          <t>https://ror.org/04zaypm56</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1439,16 +1468,17 @@
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dct:modified</t>
+          <t>dct:license</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>CC-BY 4.0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1481,16 +1511,17 @@
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>owl:ontolgoyIRI</t>
+          <t>owl:versionInfo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://vocabs.lter-europe.net/so/</t>
+          <t>0.0.3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1523,16 +1554,17 @@
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>omv:acronym</t>
+          <t>dct:created</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>2023-08-16T11:00:00+00:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1565,16 +1597,17 @@
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>omv:resourceLocator</t>
+          <t>dct:modified</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/LTER-Europe/SO/main/standard-observations.ttl</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1607,16 +1640,17 @@
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>omv:keywords</t>
+          <t>owl:ontolgoyIRI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/21672</t>
+          <t>https://vocabs.lter-europe.net/so/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1649,16 +1683,17 @@
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dct:publisher</t>
+          <t>omv:acronym</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://ror.org/00pggkr55</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1691,16 +1726,17 @@
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>omv:knownUsage</t>
+          <t>omv:resourceLocator</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>annotation of observation data</t>
+          <t>https://raw.githubusercontent.com/LTER-Europe/SO/main/standard-observations.ttl</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1733,16 +1769,17 @@
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dct:audience</t>
+          <t>omv:keywords</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://schema.org/Researcher</t>
+          <t>http://vocabs.lter-europe.net/EnvThes/21672</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1775,16 +1812,17 @@
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>doap:repository</t>
+          <t>dct:publisher</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://ecoportal.lifewatch.eu/ontologies/</t>
+          <t>https://ror.org/00pggkr55</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1817,16 +1855,17 @@
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>schema:includedInDataCatalog</t>
+          <t>omv:knownUsage</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://ecoportal.lifewatch.eu/ontologies/</t>
+          <t>annotation of observation data</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1859,16 +1898,17 @@
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>dct:language</t>
+          <t>dct:audience</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>http://schema.org/Researcher</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1901,16 +1941,17 @@
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>schema:includedInDataCatalog</t>
+          <t>doap:repository</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://vocabs.lter-europe.net/en/</t>
+          <t>https://ecoportal.lifewatch.eu/ontologies/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1943,113 +1984,38 @@
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>schema:includedInDataCatalog</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>skos:notation</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>rdf:type(separator=",")</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>^skos:member</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>dct:isReplacedBy</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>skos:narrowMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>skos:related(separator=",")</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>obo:RO_0002351(separator=",")</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>owl:sameAs(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>rdfs:seeAlso</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>dct:contributor</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>2024-01-05</t>
-        </is>
-      </c>
+          <t>https://ecoportal.lifewatch.eu/ontologies/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2061,36 +2027,25 @@
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>so:027</t>
+          <t>dct:language</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Meteorological data</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SOATM_027</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>skos:Concept, iop:VariableSet</t>
-        </is>
-      </c>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -2100,26 +2055,10 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -2131,36 +2070,25 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>so:028</t>
+          <t>schema:includedInDataCatalog</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Radiation</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SOATM_028</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>skos:Concept, iop:VariableSet</t>
-        </is>
-      </c>
+          <t>https://vocabs.lter-europe.net/en/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>so:c5</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -2170,26 +2098,10 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>2025-06-13</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -2201,63 +2113,112 @@
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>so:098</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Soil heat flux</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SOATM_098</t>
+          <t>skos:notation</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>skos:Concept, iop:VariableSet</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>rdf:type(separator=",")</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>so:c5</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+          <t>^skos:member</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>skos:narrowMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>skos:related(separator=",")</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>obo:RO_0002351(separator=",")</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>owl:sameAs(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>rdfs:seeAlso</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
@@ -2271,21 +2232,22 @@
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>so:103</t>
+          <t>so:027</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Atmospheric deposition in precipitation</t>
+          <t>Meteorological data</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SOATM_103</t>
+          <t>SOATM_027</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2317,7 +2279,7 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -2327,7 +2289,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
@@ -2341,21 +2303,22 @@
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>so:108</t>
+          <t>so:028</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dry deposition of N-components</t>
+          <t>Radiation</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOATM_108</t>
+          <t>SOATM_028</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2387,7 +2350,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -2397,7 +2360,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-14</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
@@ -2411,21 +2374,22 @@
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>so:176</t>
+          <t>so:098</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
+          <t>Soil heat flux</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOATM_176</t>
+          <t>SOATM_098</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2457,7 +2421,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -2467,7 +2431,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
@@ -2481,21 +2445,22 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>so:014</t>
+          <t>so:103</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Flying insects</t>
+          <t>Atmospheric deposition in precipitation</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOBIO_014</t>
+          <t>SOATM_103</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2508,7 +2473,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -2527,7 +2492,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -2551,21 +2516,22 @@
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>so:015</t>
+          <t>so:108</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Vegetation phenology and Leaf Area Index – European scale</t>
+          <t>Dry deposition of N-components</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SOBIO_015</t>
+          <t>SOATM_108</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2597,7 +2563,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -2621,21 +2587,22 @@
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>so:016</t>
+          <t>so:176</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Vegetation phenology – site scale</t>
+          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SOBIO_016</t>
+          <t>SOATM_176</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2667,7 +2634,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -2691,21 +2658,22 @@
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>so:017</t>
+          <t>so:014</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vegetation composition (mainly species level+abundance)</t>
+          <t>Flying insects</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SOBIO_017</t>
+          <t>SOBIO_014</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2737,7 +2705,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -2761,21 +2729,22 @@
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>so:018</t>
+          <t>so:015</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Birds, bats, frogs, insects using acoustic recording</t>
+          <t>Vegetation phenology and Leaf Area Index – European scale</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SOBIO_018</t>
+          <t>SOBIO_015</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2788,7 +2757,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2807,7 +2776,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -2831,21 +2800,22 @@
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>so:019</t>
+          <t>so:016</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pollen and spores</t>
+          <t>Vegetation phenology – site scale</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SOBIO_019</t>
+          <t>SOBIO_016</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2858,7 +2828,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -2877,7 +2847,7 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -2901,21 +2871,22 @@
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>so:021</t>
+          <t>so:017</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>eDNA Water</t>
+          <t>Vegetation composition (mainly species level+abundance)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SOBIO_021</t>
+          <t>SOBIO_017</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2947,7 +2918,7 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -2971,21 +2942,22 @@
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>so:022</t>
+          <t>so:018</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>eDNA soil</t>
+          <t>Birds, bats, frogs, insects using acoustic recording</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SOBIO_022</t>
+          <t>SOBIO_018</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3017,7 +2989,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -3041,21 +3013,22 @@
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>so:023</t>
+          <t>so:019</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass - forest (site scale)</t>
+          <t>Pollen and spores</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SOATM_023</t>
+          <t>SOBIO_019</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3068,7 +3041,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3087,7 +3060,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -3097,7 +3070,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
@@ -3111,21 +3084,22 @@
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>so:024</t>
+          <t>so:021</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass – non-forested sites</t>
+          <t>eDNA Water</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SOATM_024</t>
+          <t>SOBIO_021</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3138,7 +3112,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3157,7 +3131,7 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
@@ -3167,7 +3141,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3181,21 +3155,22 @@
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>so:025</t>
+          <t>so:022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Leaf area index - forests (site scale)</t>
+          <t>eDNA soil</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SOATM_025</t>
+          <t>SOBIO_022</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3208,7 +3183,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3227,7 +3202,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -3237,7 +3212,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3251,21 +3226,22 @@
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>so:026</t>
+          <t>so:023</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Leaf area index – non-forested sites</t>
+          <t>Vegetation aboveground biomass - forest (site scale)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SOATM_026</t>
+          <t>SOATM_023</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3297,7 +3273,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -3321,21 +3297,22 @@
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>so:090</t>
+          <t>so:024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gross primary production</t>
+          <t>Vegetation aboveground biomass – non-forested sites</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SOATM_090</t>
+          <t>SOATM_024</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3367,7 +3344,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -3391,21 +3368,22 @@
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>so:091</t>
+          <t>so:025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transpiration (plants)</t>
+          <t>Leaf area index - forests (site scale)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SOATM_091</t>
+          <t>SOATM_025</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3437,7 +3415,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -3461,21 +3439,22 @@
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>so:092</t>
+          <t>so:026</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Aboveground litterfall - forests</t>
+          <t>Leaf area index – non-forested sites</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SOATM_092</t>
+          <t>SOATM_026</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3507,7 +3486,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
@@ -3531,21 +3510,22 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>so:095</t>
+          <t>so:090</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
+          <t>Gross primary production</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SOATM_095</t>
+          <t>SOATM_090</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3577,7 +3557,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -3601,21 +3581,22 @@
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>so:096</t>
+          <t>so:091</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
+          <t>Transpiration (plants)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SOBIO_096</t>
+          <t>SOATM_091</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3628,7 +3609,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3647,7 +3628,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
@@ -3657,7 +3638,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V59" t="inlineStr"/>
@@ -3671,21 +3652,22 @@
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>so:140</t>
+          <t>so:092</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Vegetation structure - site scale</t>
+          <t>Aboveground litterfall - forests</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SOATM_140</t>
+          <t>SOATM_092</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3717,7 +3699,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
@@ -3741,21 +3723,22 @@
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>so:177</t>
+          <t>so:095</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tree growth</t>
+          <t>Leaf C, N, K, P, Ca, Mg, Mn content - terrestrial</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SOATM_177</t>
+          <t>SOATM_095</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3787,7 +3770,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -3811,21 +3794,22 @@
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>so:003</t>
+          <t>so:096</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Soil chemical and physical characteristics</t>
+          <t>Clorophyll a (benthic, pelagic) - standing, running waters</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SOGEO_003</t>
+          <t>SOBIO_096</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3838,7 +3822,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -3857,7 +3841,7 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
@@ -3881,21 +3865,22 @@
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>so:048</t>
+          <t>so:140</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Percolation/infiltration - soil</t>
+          <t>Vegetation structure - site scale</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SOGEO_048</t>
+          <t>SOATM_140</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3908,7 +3893,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -3927,7 +3912,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
@@ -3937,7 +3922,7 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V63" t="inlineStr"/>
@@ -3951,21 +3936,22 @@
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>so:155</t>
+          <t>so:177</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sediment (aquatic and marine) inventory</t>
+          <t>Tree growth</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SOGEO_155</t>
+          <t>SOATM_177</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3978,7 +3964,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -3997,7 +3983,7 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -4007,7 +3993,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V64" t="inlineStr"/>
@@ -4021,21 +4007,22 @@
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>so:167</t>
+          <t>so:003</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Soil water chemical characteristics</t>
+          <t>Soil chemical and physical characteristics</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SOGEO_167</t>
+          <t>SOGEO_003</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4067,7 +4054,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
@@ -4091,21 +4078,22 @@
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>so:004</t>
+          <t>so:048</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
+          <t>Percolation/infiltration - soil</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SOHYD_004</t>
+          <t>SOGEO_048</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4118,7 +4106,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4137,7 +4125,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
@@ -4161,21 +4149,22 @@
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>so:005</t>
+          <t>so:155</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - surface water (running waters)</t>
+          <t>Sediment (aquatic and marine) inventory</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SOHYD_005</t>
+          <t>SOGEO_155</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4188,7 +4177,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4207,7 +4196,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -4231,21 +4220,22 @@
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>so:006</t>
+          <t>so:167</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Physical and chemical water characteristics - groundwater</t>
+          <t>Soil water chemical characteristics</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SOHYD_006</t>
+          <t>SOGEO_167</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4258,7 +4248,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -4277,7 +4267,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -4301,21 +4291,22 @@
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>so:010</t>
+          <t>so:004</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Water level - surface water (running water)</t>
+          <t>Profiles of physical and chemical waters characteristics - surface water (standing)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SOHYD_010</t>
+          <t>SOHYD_004</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4347,7 +4338,7 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
@@ -4371,21 +4362,22 @@
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>so:011</t>
+          <t>so:005</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ice cover/thickness (standing and transitional water)</t>
+          <t>Physical and chemical water characteristics - surface water (running waters)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SOHYD_011</t>
+          <t>SOHYD_005</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4417,7 +4409,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
@@ -4441,21 +4433,22 @@
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>so:012</t>
+          <t>so:006</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Snow cover and depths</t>
+          <t>Physical and chemical water characteristics - groundwater</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SOHYD_012</t>
+          <t>SOHYD_006</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4487,7 +4480,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -4511,21 +4504,22 @@
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>so:058</t>
+          <t>so:010</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
+          <t>Water level - surface water (running water)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SOHYD_058</t>
+          <t>SOHYD_010</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4557,7 +4551,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -4567,7 +4561,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V72" t="inlineStr"/>
@@ -4581,21 +4575,22 @@
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>so:059</t>
+          <t>so:011</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Stable Isotopes (18O, 2H) - groundwater</t>
+          <t>Ice cover/thickness (standing and transitional water)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SOHYD_059</t>
+          <t>SOHYD_011</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4627,7 +4622,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -4651,21 +4646,22 @@
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>so:062</t>
+          <t>so:012</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca - groundwater</t>
+          <t>Snow cover and depths</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SOHYD_062</t>
+          <t>SOHYD_012</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4697,7 +4693,7 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -4707,7 +4703,7 @@
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V74" t="inlineStr"/>
@@ -4721,21 +4717,22 @@
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>so:064</t>
+          <t>so:058</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
+          <t>Stable isotopes (18O, 2H) - standing, running waters</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SOHYD_064</t>
+          <t>SOHYD_058</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4767,7 +4764,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -4777,7 +4774,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="V75" t="inlineStr"/>
@@ -4791,21 +4788,22 @@
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>so:164</t>
+          <t>so:059</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Glacier front variation</t>
+          <t>Stable Isotopes (18O, 2H) - groundwater</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SOHYD_164</t>
+          <t>SOHYD_059</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4837,7 +4835,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -4861,21 +4859,22 @@
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>so:165</t>
+          <t>so:062</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Glacier mass balance</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca - groundwater</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SOHYD_165</t>
+          <t>SOHYD_062</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4907,7 +4906,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
@@ -4917,7 +4916,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
@@ -4931,21 +4930,22 @@
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>so:166</t>
+          <t>so:064</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Glacier area</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4, DOC, DIC - groundwater</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SOHYD_166</t>
+          <t>SOHYD_064</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
@@ -5001,21 +5001,22 @@
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>so:168</t>
+          <t>so:164</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Soil water content, soil temperature</t>
+          <t>Glacier front variation</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SOHYD_168</t>
+          <t>SOHYD_164</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5047,7 +5048,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -5057,7 +5058,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V79" t="inlineStr"/>
@@ -5071,21 +5072,22 @@
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>so:169</t>
+          <t>so:165</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Nutrient concentration: DOC, DIC - running waters</t>
+          <t>Glacier mass balance</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SOHYD_169</t>
+          <t>SOHYD_165</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5117,7 +5119,7 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
@@ -5127,7 +5129,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="V80" t="inlineStr"/>
@@ -5141,21 +5143,22 @@
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>so:170</t>
+          <t>so:166</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: DOC, DIC - standing waters</t>
+          <t>Glacier area</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SOHYD_170</t>
+          <t>SOHYD_166</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5187,7 +5190,7 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
@@ -5197,7 +5200,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V81" t="inlineStr"/>
@@ -5211,21 +5214,22 @@
       <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>so:171</t>
+          <t>so:168</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+          <t>Soil water content, soil temperature</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SOHYD_171</t>
+          <t>SOHYD_168</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5257,7 +5261,7 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
@@ -5267,7 +5271,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V82" t="inlineStr"/>
@@ -5281,21 +5285,22 @@
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>so:172</t>
+          <t>so:169</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4 - running waters</t>
+          <t>Nutrient concentration: DOC, DIC - running waters</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SOHYD_172</t>
+          <t>SOHYD_169</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5327,7 +5332,7 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
@@ -5337,7 +5342,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
@@ -5351,21 +5356,22 @@
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>so:173</t>
+          <t>so:170</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4 - standing waters</t>
+          <t>Profiles of nutrient concentration: DOC, DIC - standing waters</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SOHYD_173</t>
+          <t>SOHYD_170</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5397,7 +5403,7 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
@@ -5407,7 +5413,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V84" t="inlineStr"/>
@@ -5421,21 +5427,22 @@
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>so:174</t>
+          <t>so:171</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Secchi-Depth; standing waters and transitional waters</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SOHYD_174</t>
+          <t>SOHYD_171</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5467,7 +5474,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
@@ -5477,7 +5484,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="V85" t="inlineStr"/>
@@ -5491,21 +5498,22 @@
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>so:001</t>
+          <t>so:172</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Soil inventory - pedological/geological characterization</t>
+          <t>Nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4 - running waters</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SOGEO_001</t>
+          <t>SOHYD_172</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5518,7 +5526,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5526,11 +5534,7 @@
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
-        </is>
-      </c>
+      <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
@@ -5541,7 +5545,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
@@ -5551,7 +5555,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V86" t="inlineStr"/>
@@ -5565,33 +5569,38 @@
       <c r="AD86" t="inlineStr"/>
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>so:c1</t>
+          <t>so:173</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sociosphere</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>Profiles of nutrient concentration: TP, SRP, TDN, NO3, NO2, NH4 - standing waters</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SOHYD_173</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>et:30317</t>
-        </is>
-      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
@@ -5607,7 +5616,7 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -5617,7 +5626,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-06-06</t>
         </is>
       </c>
       <c r="V87" t="inlineStr"/>
@@ -5631,33 +5640,38 @@
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>so:c2</t>
+          <t>so:174</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Geosphere</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
+          <t>Secchi-Depth; standing waters and transitional waters</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SOHYD_174</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>et:30316</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>so:c3</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
@@ -5673,7 +5687,7 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -5683,7 +5697,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V88" t="inlineStr"/>
@@ -5697,38 +5711,47 @@
       <c r="AD88" t="inlineStr"/>
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>so:c3</t>
+          <t>so:001</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hydrosphere</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>Soil inventory - pedological/geological characterization</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SOGEO_001</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>skos:Collection</t>
+          <t>skos:Concept, iop:VariableSet</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>et:21922</t>
-        </is>
-      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>so:c2</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>et:22245,et:22279,et:30319,et:30321,et:30323,et:30324,et:22065,et:22264,et:30067</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -5739,7 +5762,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -5749,7 +5772,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="V89" t="inlineStr"/>
@@ -5763,16 +5786,17 @@
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>so:c4</t>
+          <t>so:c1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Biosphere</t>
+          <t>Sociosphere</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -5787,7 +5811,7 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>et:21921</t>
+          <t>et:30317</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -5805,7 +5829,7 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
@@ -5815,7 +5839,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="V90" t="inlineStr"/>
@@ -5829,16 +5853,17 @@
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>so:c5</t>
+          <t>so:c2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Atmosphere</t>
+          <t>Geosphere</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -5853,7 +5878,7 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>et:21920</t>
+          <t>et:30316</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -5871,7 +5896,7 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
@@ -5881,7 +5906,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V91" t="inlineStr"/>
@@ -5895,37 +5920,34 @@
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>so:031</t>
+          <t>so:c3</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Yield (cropland, grassland, forest, fishery)</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>SOSOC_031</t>
-        </is>
-      </c>
+          <t>Hydrosphere</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>skos:Concept, iop:VariableSet</t>
+          <t>skos:Collection</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>et:21922</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
@@ -5941,17 +5963,17 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V92" t="inlineStr"/>
@@ -5965,37 +5987,34 @@
       <c r="AD92" t="inlineStr"/>
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>so:030</t>
+          <t>so:c4</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Land-based income</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>SOSOC_030</t>
-        </is>
-      </c>
+          <t>Biosphere</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>skos:Concept, iop:VariableSet</t>
+          <t>skos:Collection</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>et:21921</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
@@ -6011,17 +6030,17 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2023-08-23</t>
         </is>
       </c>
       <c r="V93" t="inlineStr"/>
@@ -6035,37 +6054,34 @@
       <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>so:114</t>
+          <t>so:c5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Livestock</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>SOSOC_114</t>
-        </is>
-      </c>
+          <t>Atmosphere</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>skos:Concept, iop:VariableSet</t>
+          <t>skos:Collection</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>so:c1</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>et:21920</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
@@ -6081,12 +6097,12 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
@@ -6105,21 +6121,22 @@
       <c r="AD94" t="inlineStr"/>
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>so:032</t>
+          <t>so:031</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Governance structure and character</t>
+          <t>Yield (cropland, grassland, forest, fishery)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SOSOC_032</t>
+          <t>SOSOC_031</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6151,7 +6168,7 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -6161,7 +6178,7 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="V95" t="inlineStr"/>
@@ -6175,21 +6192,22 @@
       <c r="AD95" t="inlineStr"/>
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>so:036</t>
+          <t>so:030</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Land cover, land use, land cover change, land use change - CORINE</t>
+          <t>Land-based income</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SOSOC_036</t>
+          <t>SOSOC_030</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6221,7 +6239,7 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
@@ -6231,7 +6249,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>2025-05-23</t>
+          <t>2025-06-13</t>
         </is>
       </c>
       <c r="V96" t="inlineStr"/>
@@ -6245,21 +6263,22 @@
       <c r="AD96" t="inlineStr"/>
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>so:037</t>
+          <t>so:114</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Land cover, land use (Statistics) and (for Platforms only) land use actors</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SOSOC_037</t>
+          <t>SOSOC_114</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6291,7 +6310,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
@@ -6315,21 +6334,22 @@
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>so:040</t>
+          <t>so:032</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ecosystem services profile</t>
+          <t>Governance structure and character</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SOSOC_040</t>
+          <t>SOSOC_032</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6361,7 +6381,7 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -6385,21 +6405,22 @@
       <c r="AD98" t="inlineStr"/>
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>so:042</t>
+          <t>so:036</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Economics (GDP per capita; Per capita income)</t>
+          <t>Land cover, land use, land cover change, land use change - CORINE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SOSOC_042</t>
+          <t>SOSOC_036</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6431,7 +6452,7 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
@@ -6441,7 +6462,7 @@
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-05-23</t>
         </is>
       </c>
       <c r="V99" t="inlineStr"/>
@@ -6455,21 +6476,22 @@
       <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>so:043</t>
+          <t>so:037</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Demography</t>
+          <t>Land cover, land use (Statistics) and (for Platforms only) land use actors</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SOSOC_043</t>
+          <t>SOSOC_037</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6501,7 +6523,7 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
@@ -6525,21 +6547,22 @@
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>so:044</t>
+          <t>so:040</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Status of employment</t>
+          <t>Ecosystem services profile</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SOSOC_044</t>
+          <t>SOSOC_040</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6571,7 +6594,7 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
@@ -6595,21 +6618,22 @@
       <c r="AD101" t="inlineStr"/>
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>so:045</t>
+          <t>so:042</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Population consumption statistics</t>
+          <t>Economics (GDP per capita; Per capita income)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SOSOC_045</t>
+          <t>SOSOC_042</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6641,7 +6665,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
@@ -6665,21 +6689,22 @@
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr"/>
+      <c r="AG102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>so:183</t>
+          <t>so:043</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Resource use (MFA)</t>
+          <t>Demography</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SOSOC_183</t>
+          <t>SOSOC_043</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -6711,7 +6736,7 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -6735,21 +6760,22 @@
       <c r="AD103" t="inlineStr"/>
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>so:184</t>
+          <t>so:044</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Subsidies programs / schemes</t>
+          <t>Status of employment</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SOSOC_184</t>
+          <t>SOSOC_044</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -6781,7 +6807,7 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
@@ -6805,6 +6831,220 @@
       <c r="AD104" t="inlineStr"/>
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr"/>
+      <c r="AG104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>so:045</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Population consumption statistics</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SOSOC_045</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>skos:Concept, iop:VariableSet</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>so:183</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Resource use (MFA)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SOSOC_183</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>skos:Concept, iop:VariableSet</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>so:184</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Subsidies programs / schemes</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SOSOC_184</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>skos:Concept, iop:VariableSet</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>so:c1</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>http://purl.org/np/RAjk9ru697It_UawXK1gvq-mpaOdGlwyhNb9nF2tfEE2A</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-2195-3997, https://orcid.org/0000-0002-7997-219X</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://vocabs.lter-europe.net/so/</t>
+          <t>http://vocabs.lter-europe.net/so/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG107"/>
+  <dimension ref="A1:AF107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://vocabs.lter-europe.net/so/</t>
+          <t>http://vocabs.lter-europe.net/so/</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -462,7 +462,6 @@
       <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr"/>
       <c r="AF1" t="inlineStr"/>
-      <c r="AG1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -509,7 +508,6 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -556,7 +554,6 @@
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -603,7 +600,6 @@
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -650,7 +646,6 @@
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -697,7 +692,6 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -744,7 +738,6 @@
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -791,7 +784,6 @@
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -838,7 +830,6 @@
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -885,7 +876,6 @@
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -932,7 +922,6 @@
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -979,7 +968,6 @@
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1026,7 +1014,6 @@
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1073,7 +1060,6 @@
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1120,7 +1106,6 @@
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1167,7 +1152,6 @@
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1210,7 +1194,6 @@
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1253,7 +1236,6 @@
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1296,7 +1278,6 @@
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1339,7 +1320,6 @@
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1382,7 +1362,6 @@
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1425,7 +1404,6 @@
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1468,7 +1446,6 @@
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1478,7 +1455,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CC-BY 4.0</t>
+          <t>https://creativecommons.org/licenses/by/4.0/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1511,7 +1488,6 @@
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1521,7 +1497,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.0.3</t>
+          <t>1.1.3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1554,7 +1530,6 @@
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1564,7 +1539,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-08-16T11:00:00+00:00</t>
+          <t>2023-08-16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1597,7 +1572,6 @@
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1607,7 +1581,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1640,7 +1614,6 @@
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1650,7 +1623,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://vocabs.lter-europe.net/so/</t>
+          <t>http://vocabs.lter-europe.net/so/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1683,7 +1656,6 @@
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1726,7 +1698,6 @@
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1769,7 +1740,6 @@
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1812,7 +1782,6 @@
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1855,7 +1824,6 @@
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1898,7 +1866,6 @@
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1941,7 +1908,6 @@
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1984,7 +1950,6 @@
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2027,7 +1992,6 @@
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2070,7 +2034,6 @@
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2113,7 +2076,6 @@
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2232,7 +2194,6 @@
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2284,7 +2245,7 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>2023-08-16</t>
+          <t>8/16/2023</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -2303,7 +2264,6 @@
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2374,7 +2334,6 @@
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2445,7 +2404,6 @@
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2516,7 +2474,6 @@
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2587,7 +2544,6 @@
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2597,7 +2553,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CO2 flux and concentration, Latent heat flux, Sensible heat flux - Eddy Covariance</t>
+          <t>Eddy Covariance (CO2 flux and concentration, Latent heat flux, Sensible heat flux)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2644,7 +2600,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
@@ -2658,7 +2614,6 @@
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2729,7 +2684,6 @@
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2739,7 +2693,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vegetation phenology and Leaf Area Index – European scale</t>
+          <t>Vegetation phenology and Leaf Area Index - European scale</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2786,7 +2740,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
@@ -2800,7 +2754,6 @@
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2810,7 +2763,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Vegetation phenology – site scale</t>
+          <t>Vegetation phenology - site scale</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2857,7 +2810,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
@@ -2871,7 +2824,6 @@
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2942,7 +2894,6 @@
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3013,7 +2964,6 @@
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3084,7 +3034,6 @@
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3141,7 +3090,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
@@ -3155,7 +3104,6 @@
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3212,7 +3160,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>2023-08-23</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
@@ -3226,7 +3174,6 @@
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3297,7 +3244,6 @@
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3307,7 +3253,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Vegetation aboveground biomass – non-forested sites</t>
+          <t>Vegetation aboveground biomass - non-forested sites</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3354,7 +3300,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
@@ -3368,7 +3314,6 @@
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3439,7 +3384,6 @@
       <c r="AD56" t="inlineStr"/>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3449,7 +3393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Leaf area index – non-forested sites</t>
+          <t>Leaf area index - non-forested sites</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3496,7 +3440,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
@@ -3510,7 +3454,6 @@
       <c r="AD57" t="inlineStr"/>
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3581,7 +3524,6 @@
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3652,7 +3594,6 @@
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3723,7 +3664,6 @@
       <c r="AD60" t="inlineStr"/>
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3794,7 +3734,6 @@
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3865,7 +3804,6 @@
       <c r="AD62" t="inlineStr"/>
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3936,7 +3874,6 @@
       <c r="AD63" t="inlineStr"/>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4007,7 +3944,6 @@
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4078,7 +4014,6 @@
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4149,7 +4084,6 @@
       <c r="AD66" t="inlineStr"/>
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4220,7 +4154,6 @@
       <c r="AD67" t="inlineStr"/>
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4291,7 +4224,6 @@
       <c r="AD68" t="inlineStr"/>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4362,7 +4294,6 @@
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr"/>
-      <c r="AG69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4433,7 +4364,6 @@
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr"/>
-      <c r="AG70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4504,7 +4434,6 @@
       <c r="AD71" t="inlineStr"/>
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr"/>
-      <c r="AG71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4575,7 +4504,6 @@
       <c r="AD72" t="inlineStr"/>
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr"/>
-      <c r="AG72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4646,7 +4574,6 @@
       <c r="AD73" t="inlineStr"/>
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr"/>
-      <c r="AG73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4717,7 +4644,6 @@
       <c r="AD74" t="inlineStr"/>
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4788,7 +4714,6 @@
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
-      <c r="AG75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4859,7 +4784,6 @@
       <c r="AD76" t="inlineStr"/>
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr"/>
-      <c r="AG76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4869,7 +4793,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca - groundwater</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B - groundwater</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4916,7 +4840,7 @@
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="V77" t="inlineStr"/>
@@ -4930,7 +4854,6 @@
       <c r="AD77" t="inlineStr"/>
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr"/>
-      <c r="AG77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5001,7 +4924,6 @@
       <c r="AD78" t="inlineStr"/>
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr"/>
-      <c r="AG78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5072,7 +4994,6 @@
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr"/>
-      <c r="AG79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5143,7 +5064,6 @@
       <c r="AD80" t="inlineStr"/>
       <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr"/>
-      <c r="AG80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5214,7 +5134,6 @@
       <c r="AD81" t="inlineStr"/>
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr"/>
-      <c r="AG81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5285,7 +5204,6 @@
       <c r="AD82" t="inlineStr"/>
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr"/>
-      <c r="AG82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5295,7 +5213,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nutrient concentration: DOC, DIC - running waters</t>
+          <t>Carbon concentration: DOC, DIC - running waters</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5342,7 +5260,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="V83" t="inlineStr"/>
@@ -5356,7 +5274,6 @@
       <c r="AD83" t="inlineStr"/>
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr"/>
-      <c r="AG83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5427,7 +5344,6 @@
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5437,7 +5353,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - inland running/standing waters, transitional waters</t>
+          <t>Major ion concentrations: Cl, SO4, Br, Na, K, Mg, Ca, B, Silica - running/standing waters</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5484,7 +5400,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="V85" t="inlineStr"/>
@@ -5498,7 +5414,6 @@
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5569,7 +5484,6 @@
       <c r="AD86" t="inlineStr"/>
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5640,7 +5554,6 @@
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5711,7 +5624,6 @@
       <c r="AD88" t="inlineStr"/>
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr"/>
-      <c r="AG88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5786,7 +5698,6 @@
       <c r="AD89" t="inlineStr"/>
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr"/>
-      <c r="AG89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5853,7 +5764,6 @@
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr"/>
-      <c r="AG90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5920,7 +5830,6 @@
       <c r="AD91" t="inlineStr"/>
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5987,7 +5896,6 @@
       <c r="AD92" t="inlineStr"/>
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr"/>
-      <c r="AG92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6054,7 +5962,6 @@
       <c r="AD93" t="inlineStr"/>
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr"/>
-      <c r="AG93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6121,7 +6028,6 @@
       <c r="AD94" t="inlineStr"/>
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr"/>
-      <c r="AG94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6192,7 +6098,6 @@
       <c r="AD95" t="inlineStr"/>
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr"/>
-      <c r="AG95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6263,7 +6168,6 @@
       <c r="AD96" t="inlineStr"/>
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr"/>
-      <c r="AG96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6334,7 +6238,6 @@
       <c r="AD97" t="inlineStr"/>
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr"/>
-      <c r="AG97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6405,7 +6308,6 @@
       <c r="AD98" t="inlineStr"/>
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr"/>
-      <c r="AG98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6476,7 +6378,6 @@
       <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6486,7 +6387,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Land cover, land use (Statistics) and (for Platforms only) land use actors</t>
+          <t>Land cover, land use, land cover change, land use change (Statistics)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6533,7 +6434,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="V100" t="inlineStr"/>
@@ -6547,7 +6448,6 @@
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6618,7 +6518,6 @@
       <c r="AD101" t="inlineStr"/>
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6689,7 +6588,6 @@
       <c r="AD102" t="inlineStr"/>
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr"/>
-      <c r="AG102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6760,7 +6658,6 @@
       <c r="AD103" t="inlineStr"/>
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr"/>
-      <c r="AG103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6831,7 +6728,6 @@
       <c r="AD104" t="inlineStr"/>
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr"/>
-      <c r="AG104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6902,7 +6798,6 @@
       <c r="AD105" t="inlineStr"/>
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr"/>
-      <c r="AG105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6912,7 +6807,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Resource use (MFA)</t>
+          <t>Resource use</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6959,7 +6854,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="V106" t="inlineStr"/>
@@ -6973,7 +6868,6 @@
       <c r="AD106" t="inlineStr"/>
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr"/>
-      <c r="AG106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7044,7 +6938,6 @@
       <c r="AD107" t="inlineStr"/>
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr"/>
-      <c r="AG107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/standard-observations.xlsx
+++ b/standard-observations.xlsx
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.1.3</t>
+          <t>1.1.4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Subsidies programs / schemes</t>
+          <t>Subsidies programs / schemas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="V107" t="inlineStr"/>
